--- a/AltController/Translation/Translation_de-DE.xlsx
+++ b/AltController/Translation/Translation_de-DE.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2120" uniqueCount="1480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2129" uniqueCount="1486">
   <si>
     <t xml:space="preserve">String_ID</t>
   </si>
@@ -3163,6 +3163,18 @@
     <t xml:space="preserve">Refresh the list of running programs</t>
   </si>
   <si>
+    <t xml:space="preserve">Situations_SnoozeLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snooze profile when using this app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Situations_SnoozeToolTip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't perform any actions while this app is active</t>
+  </si>
+  <si>
     <t xml:space="preserve">Situations_Title</t>
   </si>
   <si>
@@ -4208,6 +4220,12 @@
   </si>
   <si>
     <t xml:space="preserve">Situation Changed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String_snooze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snooze</t>
   </si>
   <si>
     <t xml:space="preserve">String_Standard_pointer</t>
@@ -4590,10 +4608,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G530"/>
+  <dimension ref="A1:AMJ533"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A516" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:C530"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A490" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A503" activeCellId="0" sqref="A503"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="15.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10667,232 +10685,2262 @@
       <c r="A380" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="B380" s="1" t="s">
-        <v>1048</v>
-      </c>
       <c r="C380" s="1" t="s">
         <v>1005</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>1005</v>
-      </c>
-      <c r="F380" s="3"/>
-      <c r="G380" s="4"/>
+        <v>1048</v>
+      </c>
+      <c r="E380" s="0"/>
+      <c r="F380" s="0"/>
+      <c r="G380" s="0"/>
+      <c r="H380" s="0"/>
+      <c r="I380" s="0"/>
+      <c r="J380" s="0"/>
+      <c r="K380" s="0"/>
+      <c r="L380" s="0"/>
+      <c r="M380" s="0"/>
+      <c r="N380" s="0"/>
+      <c r="O380" s="0"/>
+      <c r="P380" s="0"/>
+      <c r="Q380" s="0"/>
+      <c r="R380" s="0"/>
+      <c r="S380" s="0"/>
+      <c r="T380" s="0"/>
+      <c r="U380" s="0"/>
+      <c r="V380" s="0"/>
+      <c r="W380" s="0"/>
+      <c r="X380" s="0"/>
+      <c r="Y380" s="0"/>
+      <c r="Z380" s="0"/>
+      <c r="AA380" s="0"/>
+      <c r="AB380" s="0"/>
+      <c r="AC380" s="0"/>
+      <c r="AD380" s="0"/>
+      <c r="AE380" s="0"/>
+      <c r="AF380" s="0"/>
+      <c r="AG380" s="0"/>
+      <c r="AH380" s="0"/>
+      <c r="AI380" s="0"/>
+      <c r="AJ380" s="0"/>
+      <c r="AK380" s="0"/>
+      <c r="AL380" s="0"/>
+      <c r="AM380" s="0"/>
+      <c r="AN380" s="0"/>
+      <c r="AO380" s="0"/>
+      <c r="AP380" s="0"/>
+      <c r="AQ380" s="0"/>
+      <c r="AR380" s="0"/>
+      <c r="AS380" s="0"/>
+      <c r="AT380" s="0"/>
+      <c r="AU380" s="0"/>
+      <c r="AV380" s="0"/>
+      <c r="AW380" s="0"/>
+      <c r="AX380" s="0"/>
+      <c r="AY380" s="0"/>
+      <c r="AZ380" s="0"/>
+      <c r="BA380" s="0"/>
+      <c r="BB380" s="0"/>
+      <c r="BC380" s="0"/>
+      <c r="BD380" s="0"/>
+      <c r="BE380" s="0"/>
+      <c r="BF380" s="0"/>
+      <c r="BG380" s="0"/>
+      <c r="BH380" s="0"/>
+      <c r="BI380" s="0"/>
+      <c r="BJ380" s="0"/>
+      <c r="BK380" s="0"/>
+      <c r="BL380" s="0"/>
+      <c r="BM380" s="0"/>
+      <c r="BN380" s="0"/>
+      <c r="BO380" s="0"/>
+      <c r="BP380" s="0"/>
+      <c r="BQ380" s="0"/>
+      <c r="BR380" s="0"/>
+      <c r="BS380" s="0"/>
+      <c r="BT380" s="0"/>
+      <c r="BU380" s="0"/>
+      <c r="BV380" s="0"/>
+      <c r="BW380" s="0"/>
+      <c r="BX380" s="0"/>
+      <c r="BY380" s="0"/>
+      <c r="BZ380" s="0"/>
+      <c r="CA380" s="0"/>
+      <c r="CB380" s="0"/>
+      <c r="CC380" s="0"/>
+      <c r="CD380" s="0"/>
+      <c r="CE380" s="0"/>
+      <c r="CF380" s="0"/>
+      <c r="CG380" s="0"/>
+      <c r="CH380" s="0"/>
+      <c r="CI380" s="0"/>
+      <c r="CJ380" s="0"/>
+      <c r="CK380" s="0"/>
+      <c r="CL380" s="0"/>
+      <c r="CM380" s="0"/>
+      <c r="CN380" s="0"/>
+      <c r="CO380" s="0"/>
+      <c r="CP380" s="0"/>
+      <c r="CQ380" s="0"/>
+      <c r="CR380" s="0"/>
+      <c r="CS380" s="0"/>
+      <c r="CT380" s="0"/>
+      <c r="CU380" s="0"/>
+      <c r="CV380" s="0"/>
+      <c r="CW380" s="0"/>
+      <c r="CX380" s="0"/>
+      <c r="CY380" s="0"/>
+      <c r="CZ380" s="0"/>
+      <c r="DA380" s="0"/>
+      <c r="DB380" s="0"/>
+      <c r="DC380" s="0"/>
+      <c r="DD380" s="0"/>
+      <c r="DE380" s="0"/>
+      <c r="DF380" s="0"/>
+      <c r="DG380" s="0"/>
+      <c r="DH380" s="0"/>
+      <c r="DI380" s="0"/>
+      <c r="DJ380" s="0"/>
+      <c r="DK380" s="0"/>
+      <c r="DL380" s="0"/>
+      <c r="DM380" s="0"/>
+      <c r="DN380" s="0"/>
+      <c r="DO380" s="0"/>
+      <c r="DP380" s="0"/>
+      <c r="DQ380" s="0"/>
+      <c r="DR380" s="0"/>
+      <c r="DS380" s="0"/>
+      <c r="DT380" s="0"/>
+      <c r="DU380" s="0"/>
+      <c r="DV380" s="0"/>
+      <c r="DW380" s="0"/>
+      <c r="DX380" s="0"/>
+      <c r="DY380" s="0"/>
+      <c r="DZ380" s="0"/>
+      <c r="EA380" s="0"/>
+      <c r="EB380" s="0"/>
+      <c r="EC380" s="0"/>
+      <c r="ED380" s="0"/>
+      <c r="EE380" s="0"/>
+      <c r="EF380" s="0"/>
+      <c r="EG380" s="0"/>
+      <c r="EH380" s="0"/>
+      <c r="EI380" s="0"/>
+      <c r="EJ380" s="0"/>
+      <c r="EK380" s="0"/>
+      <c r="EL380" s="0"/>
+      <c r="EM380" s="0"/>
+      <c r="EN380" s="0"/>
+      <c r="EO380" s="0"/>
+      <c r="EP380" s="0"/>
+      <c r="EQ380" s="0"/>
+      <c r="ER380" s="0"/>
+      <c r="ES380" s="0"/>
+      <c r="ET380" s="0"/>
+      <c r="EU380" s="0"/>
+      <c r="EV380" s="0"/>
+      <c r="EW380" s="0"/>
+      <c r="EX380" s="0"/>
+      <c r="EY380" s="0"/>
+      <c r="EZ380" s="0"/>
+      <c r="FA380" s="0"/>
+      <c r="FB380" s="0"/>
+      <c r="FC380" s="0"/>
+      <c r="FD380" s="0"/>
+      <c r="FE380" s="0"/>
+      <c r="FF380" s="0"/>
+      <c r="FG380" s="0"/>
+      <c r="FH380" s="0"/>
+      <c r="FI380" s="0"/>
+      <c r="FJ380" s="0"/>
+      <c r="FK380" s="0"/>
+      <c r="FL380" s="0"/>
+      <c r="FM380" s="0"/>
+      <c r="FN380" s="0"/>
+      <c r="FO380" s="0"/>
+      <c r="FP380" s="0"/>
+      <c r="FQ380" s="0"/>
+      <c r="FR380" s="0"/>
+      <c r="FS380" s="0"/>
+      <c r="FT380" s="0"/>
+      <c r="FU380" s="0"/>
+      <c r="FV380" s="0"/>
+      <c r="FW380" s="0"/>
+      <c r="FX380" s="0"/>
+      <c r="FY380" s="0"/>
+      <c r="FZ380" s="0"/>
+      <c r="GA380" s="0"/>
+      <c r="GB380" s="0"/>
+      <c r="GC380" s="0"/>
+      <c r="GD380" s="0"/>
+      <c r="GE380" s="0"/>
+      <c r="GF380" s="0"/>
+      <c r="GG380" s="0"/>
+      <c r="GH380" s="0"/>
+      <c r="GI380" s="0"/>
+      <c r="GJ380" s="0"/>
+      <c r="GK380" s="0"/>
+      <c r="GL380" s="0"/>
+      <c r="GM380" s="0"/>
+      <c r="GN380" s="0"/>
+      <c r="GO380" s="0"/>
+      <c r="GP380" s="0"/>
+      <c r="GQ380" s="0"/>
+      <c r="GR380" s="0"/>
+      <c r="GS380" s="0"/>
+      <c r="GT380" s="0"/>
+      <c r="GU380" s="0"/>
+      <c r="GV380" s="0"/>
+      <c r="GW380" s="0"/>
+      <c r="GX380" s="0"/>
+      <c r="GY380" s="0"/>
+      <c r="GZ380" s="0"/>
+      <c r="HA380" s="0"/>
+      <c r="HB380" s="0"/>
+      <c r="HC380" s="0"/>
+      <c r="HD380" s="0"/>
+      <c r="HE380" s="0"/>
+      <c r="HF380" s="0"/>
+      <c r="HG380" s="0"/>
+      <c r="HH380" s="0"/>
+      <c r="HI380" s="0"/>
+      <c r="HJ380" s="0"/>
+      <c r="HK380" s="0"/>
+      <c r="HL380" s="0"/>
+      <c r="HM380" s="0"/>
+      <c r="HN380" s="0"/>
+      <c r="HO380" s="0"/>
+      <c r="HP380" s="0"/>
+      <c r="HQ380" s="0"/>
+      <c r="HR380" s="0"/>
+      <c r="HS380" s="0"/>
+      <c r="HT380" s="0"/>
+      <c r="HU380" s="0"/>
+      <c r="HV380" s="0"/>
+      <c r="HW380" s="0"/>
+      <c r="HX380" s="0"/>
+      <c r="HY380" s="0"/>
+      <c r="HZ380" s="0"/>
+      <c r="IA380" s="0"/>
+      <c r="IB380" s="0"/>
+      <c r="IC380" s="0"/>
+      <c r="ID380" s="0"/>
+      <c r="IE380" s="0"/>
+      <c r="IF380" s="0"/>
+      <c r="IG380" s="0"/>
+      <c r="IH380" s="0"/>
+      <c r="II380" s="0"/>
+      <c r="IJ380" s="0"/>
+      <c r="IK380" s="0"/>
+      <c r="IL380" s="0"/>
+      <c r="IM380" s="0"/>
+      <c r="IN380" s="0"/>
+      <c r="IO380" s="0"/>
+      <c r="IP380" s="0"/>
+      <c r="IQ380" s="0"/>
+      <c r="IR380" s="0"/>
+      <c r="IS380" s="0"/>
+      <c r="IT380" s="0"/>
+      <c r="IU380" s="0"/>
+      <c r="IV380" s="0"/>
+      <c r="IW380" s="0"/>
+      <c r="IX380" s="0"/>
+      <c r="IY380" s="0"/>
+      <c r="IZ380" s="0"/>
+      <c r="JA380" s="0"/>
+      <c r="JB380" s="0"/>
+      <c r="JC380" s="0"/>
+      <c r="JD380" s="0"/>
+      <c r="JE380" s="0"/>
+      <c r="JF380" s="0"/>
+      <c r="JG380" s="0"/>
+      <c r="JH380" s="0"/>
+      <c r="JI380" s="0"/>
+      <c r="JJ380" s="0"/>
+      <c r="JK380" s="0"/>
+      <c r="JL380" s="0"/>
+      <c r="JM380" s="0"/>
+      <c r="JN380" s="0"/>
+      <c r="JO380" s="0"/>
+      <c r="JP380" s="0"/>
+      <c r="JQ380" s="0"/>
+      <c r="JR380" s="0"/>
+      <c r="JS380" s="0"/>
+      <c r="JT380" s="0"/>
+      <c r="JU380" s="0"/>
+      <c r="JV380" s="0"/>
+      <c r="JW380" s="0"/>
+      <c r="JX380" s="0"/>
+      <c r="JY380" s="0"/>
+      <c r="JZ380" s="0"/>
+      <c r="KA380" s="0"/>
+      <c r="KB380" s="0"/>
+      <c r="KC380" s="0"/>
+      <c r="KD380" s="0"/>
+      <c r="KE380" s="0"/>
+      <c r="KF380" s="0"/>
+      <c r="KG380" s="0"/>
+      <c r="KH380" s="0"/>
+      <c r="KI380" s="0"/>
+      <c r="KJ380" s="0"/>
+      <c r="KK380" s="0"/>
+      <c r="KL380" s="0"/>
+      <c r="KM380" s="0"/>
+      <c r="KN380" s="0"/>
+      <c r="KO380" s="0"/>
+      <c r="KP380" s="0"/>
+      <c r="KQ380" s="0"/>
+      <c r="KR380" s="0"/>
+      <c r="KS380" s="0"/>
+      <c r="KT380" s="0"/>
+      <c r="KU380" s="0"/>
+      <c r="KV380" s="0"/>
+      <c r="KW380" s="0"/>
+      <c r="KX380" s="0"/>
+      <c r="KY380" s="0"/>
+      <c r="KZ380" s="0"/>
+      <c r="LA380" s="0"/>
+      <c r="LB380" s="0"/>
+      <c r="LC380" s="0"/>
+      <c r="LD380" s="0"/>
+      <c r="LE380" s="0"/>
+      <c r="LF380" s="0"/>
+      <c r="LG380" s="0"/>
+      <c r="LH380" s="0"/>
+      <c r="LI380" s="0"/>
+      <c r="LJ380" s="0"/>
+      <c r="LK380" s="0"/>
+      <c r="LL380" s="0"/>
+      <c r="LM380" s="0"/>
+      <c r="LN380" s="0"/>
+      <c r="LO380" s="0"/>
+      <c r="LP380" s="0"/>
+      <c r="LQ380" s="0"/>
+      <c r="LR380" s="0"/>
+      <c r="LS380" s="0"/>
+      <c r="LT380" s="0"/>
+      <c r="LU380" s="0"/>
+      <c r="LV380" s="0"/>
+      <c r="LW380" s="0"/>
+      <c r="LX380" s="0"/>
+      <c r="LY380" s="0"/>
+      <c r="LZ380" s="0"/>
+      <c r="MA380" s="0"/>
+      <c r="MB380" s="0"/>
+      <c r="MC380" s="0"/>
+      <c r="MD380" s="0"/>
+      <c r="ME380" s="0"/>
+      <c r="MF380" s="0"/>
+      <c r="MG380" s="0"/>
+      <c r="MH380" s="0"/>
+      <c r="MI380" s="0"/>
+      <c r="MJ380" s="0"/>
+      <c r="MK380" s="0"/>
+      <c r="ML380" s="0"/>
+      <c r="MM380" s="0"/>
+      <c r="MN380" s="0"/>
+      <c r="MO380" s="0"/>
+      <c r="MP380" s="0"/>
+      <c r="MQ380" s="0"/>
+      <c r="MR380" s="0"/>
+      <c r="MS380" s="0"/>
+      <c r="MT380" s="0"/>
+      <c r="MU380" s="0"/>
+      <c r="MV380" s="0"/>
+      <c r="MW380" s="0"/>
+      <c r="MX380" s="0"/>
+      <c r="MY380" s="0"/>
+      <c r="MZ380" s="0"/>
+      <c r="NA380" s="0"/>
+      <c r="NB380" s="0"/>
+      <c r="NC380" s="0"/>
+      <c r="ND380" s="0"/>
+      <c r="NE380" s="0"/>
+      <c r="NF380" s="0"/>
+      <c r="NG380" s="0"/>
+      <c r="NH380" s="0"/>
+      <c r="NI380" s="0"/>
+      <c r="NJ380" s="0"/>
+      <c r="NK380" s="0"/>
+      <c r="NL380" s="0"/>
+      <c r="NM380" s="0"/>
+      <c r="NN380" s="0"/>
+      <c r="NO380" s="0"/>
+      <c r="NP380" s="0"/>
+      <c r="NQ380" s="0"/>
+      <c r="NR380" s="0"/>
+      <c r="NS380" s="0"/>
+      <c r="NT380" s="0"/>
+      <c r="NU380" s="0"/>
+      <c r="NV380" s="0"/>
+      <c r="NW380" s="0"/>
+      <c r="NX380" s="0"/>
+      <c r="NY380" s="0"/>
+      <c r="NZ380" s="0"/>
+      <c r="OA380" s="0"/>
+      <c r="OB380" s="0"/>
+      <c r="OC380" s="0"/>
+      <c r="OD380" s="0"/>
+      <c r="OE380" s="0"/>
+      <c r="OF380" s="0"/>
+      <c r="OG380" s="0"/>
+      <c r="OH380" s="0"/>
+      <c r="OI380" s="0"/>
+      <c r="OJ380" s="0"/>
+      <c r="OK380" s="0"/>
+      <c r="OL380" s="0"/>
+      <c r="OM380" s="0"/>
+      <c r="ON380" s="0"/>
+      <c r="OO380" s="0"/>
+      <c r="OP380" s="0"/>
+      <c r="OQ380" s="0"/>
+      <c r="OR380" s="0"/>
+      <c r="OS380" s="0"/>
+      <c r="OT380" s="0"/>
+      <c r="OU380" s="0"/>
+      <c r="OV380" s="0"/>
+      <c r="OW380" s="0"/>
+      <c r="OX380" s="0"/>
+      <c r="OY380" s="0"/>
+      <c r="OZ380" s="0"/>
+      <c r="PA380" s="0"/>
+      <c r="PB380" s="0"/>
+      <c r="PC380" s="0"/>
+      <c r="PD380" s="0"/>
+      <c r="PE380" s="0"/>
+      <c r="PF380" s="0"/>
+      <c r="PG380" s="0"/>
+      <c r="PH380" s="0"/>
+      <c r="PI380" s="0"/>
+      <c r="PJ380" s="0"/>
+      <c r="PK380" s="0"/>
+      <c r="PL380" s="0"/>
+      <c r="PM380" s="0"/>
+      <c r="PN380" s="0"/>
+      <c r="PO380" s="0"/>
+      <c r="PP380" s="0"/>
+      <c r="PQ380" s="0"/>
+      <c r="PR380" s="0"/>
+      <c r="PS380" s="0"/>
+      <c r="PT380" s="0"/>
+      <c r="PU380" s="0"/>
+      <c r="PV380" s="0"/>
+      <c r="PW380" s="0"/>
+      <c r="PX380" s="0"/>
+      <c r="PY380" s="0"/>
+      <c r="PZ380" s="0"/>
+      <c r="QA380" s="0"/>
+      <c r="QB380" s="0"/>
+      <c r="QC380" s="0"/>
+      <c r="QD380" s="0"/>
+      <c r="QE380" s="0"/>
+      <c r="QF380" s="0"/>
+      <c r="QG380" s="0"/>
+      <c r="QH380" s="0"/>
+      <c r="QI380" s="0"/>
+      <c r="QJ380" s="0"/>
+      <c r="QK380" s="0"/>
+      <c r="QL380" s="0"/>
+      <c r="QM380" s="0"/>
+      <c r="QN380" s="0"/>
+      <c r="QO380" s="0"/>
+      <c r="QP380" s="0"/>
+      <c r="QQ380" s="0"/>
+      <c r="QR380" s="0"/>
+      <c r="QS380" s="0"/>
+      <c r="QT380" s="0"/>
+      <c r="QU380" s="0"/>
+      <c r="QV380" s="0"/>
+      <c r="QW380" s="0"/>
+      <c r="QX380" s="0"/>
+      <c r="QY380" s="0"/>
+      <c r="QZ380" s="0"/>
+      <c r="RA380" s="0"/>
+      <c r="RB380" s="0"/>
+      <c r="RC380" s="0"/>
+      <c r="RD380" s="0"/>
+      <c r="RE380" s="0"/>
+      <c r="RF380" s="0"/>
+      <c r="RG380" s="0"/>
+      <c r="RH380" s="0"/>
+      <c r="RI380" s="0"/>
+      <c r="RJ380" s="0"/>
+      <c r="RK380" s="0"/>
+      <c r="RL380" s="0"/>
+      <c r="RM380" s="0"/>
+      <c r="RN380" s="0"/>
+      <c r="RO380" s="0"/>
+      <c r="RP380" s="0"/>
+      <c r="RQ380" s="0"/>
+      <c r="RR380" s="0"/>
+      <c r="RS380" s="0"/>
+      <c r="RT380" s="0"/>
+      <c r="RU380" s="0"/>
+      <c r="RV380" s="0"/>
+      <c r="RW380" s="0"/>
+      <c r="RX380" s="0"/>
+      <c r="RY380" s="0"/>
+      <c r="RZ380" s="0"/>
+      <c r="SA380" s="0"/>
+      <c r="SB380" s="0"/>
+      <c r="SC380" s="0"/>
+      <c r="SD380" s="0"/>
+      <c r="SE380" s="0"/>
+      <c r="SF380" s="0"/>
+      <c r="SG380" s="0"/>
+      <c r="SH380" s="0"/>
+      <c r="SI380" s="0"/>
+      <c r="SJ380" s="0"/>
+      <c r="SK380" s="0"/>
+      <c r="SL380" s="0"/>
+      <c r="SM380" s="0"/>
+      <c r="SN380" s="0"/>
+      <c r="SO380" s="0"/>
+      <c r="SP380" s="0"/>
+      <c r="SQ380" s="0"/>
+      <c r="SR380" s="0"/>
+      <c r="SS380" s="0"/>
+      <c r="ST380" s="0"/>
+      <c r="SU380" s="0"/>
+      <c r="SV380" s="0"/>
+      <c r="SW380" s="0"/>
+      <c r="SX380" s="0"/>
+      <c r="SY380" s="0"/>
+      <c r="SZ380" s="0"/>
+      <c r="TA380" s="0"/>
+      <c r="TB380" s="0"/>
+      <c r="TC380" s="0"/>
+      <c r="TD380" s="0"/>
+      <c r="TE380" s="0"/>
+      <c r="TF380" s="0"/>
+      <c r="TG380" s="0"/>
+      <c r="TH380" s="0"/>
+      <c r="TI380" s="0"/>
+      <c r="TJ380" s="0"/>
+      <c r="TK380" s="0"/>
+      <c r="TL380" s="0"/>
+      <c r="TM380" s="0"/>
+      <c r="TN380" s="0"/>
+      <c r="TO380" s="0"/>
+      <c r="TP380" s="0"/>
+      <c r="TQ380" s="0"/>
+      <c r="TR380" s="0"/>
+      <c r="TS380" s="0"/>
+      <c r="TT380" s="0"/>
+      <c r="TU380" s="0"/>
+      <c r="TV380" s="0"/>
+      <c r="TW380" s="0"/>
+      <c r="TX380" s="0"/>
+      <c r="TY380" s="0"/>
+      <c r="TZ380" s="0"/>
+      <c r="UA380" s="0"/>
+      <c r="UB380" s="0"/>
+      <c r="UC380" s="0"/>
+      <c r="UD380" s="0"/>
+      <c r="UE380" s="0"/>
+      <c r="UF380" s="0"/>
+      <c r="UG380" s="0"/>
+      <c r="UH380" s="0"/>
+      <c r="UI380" s="0"/>
+      <c r="UJ380" s="0"/>
+      <c r="UK380" s="0"/>
+      <c r="UL380" s="0"/>
+      <c r="UM380" s="0"/>
+      <c r="UN380" s="0"/>
+      <c r="UO380" s="0"/>
+      <c r="UP380" s="0"/>
+      <c r="UQ380" s="0"/>
+      <c r="UR380" s="0"/>
+      <c r="US380" s="0"/>
+      <c r="UT380" s="0"/>
+      <c r="UU380" s="0"/>
+      <c r="UV380" s="0"/>
+      <c r="UW380" s="0"/>
+      <c r="UX380" s="0"/>
+      <c r="UY380" s="0"/>
+      <c r="UZ380" s="0"/>
+      <c r="VA380" s="0"/>
+      <c r="VB380" s="0"/>
+      <c r="VC380" s="0"/>
+      <c r="VD380" s="0"/>
+      <c r="VE380" s="0"/>
+      <c r="VF380" s="0"/>
+      <c r="VG380" s="0"/>
+      <c r="VH380" s="0"/>
+      <c r="VI380" s="0"/>
+      <c r="VJ380" s="0"/>
+      <c r="VK380" s="0"/>
+      <c r="VL380" s="0"/>
+      <c r="VM380" s="0"/>
+      <c r="VN380" s="0"/>
+      <c r="VO380" s="0"/>
+      <c r="VP380" s="0"/>
+      <c r="VQ380" s="0"/>
+      <c r="VR380" s="0"/>
+      <c r="VS380" s="0"/>
+      <c r="VT380" s="0"/>
+      <c r="VU380" s="0"/>
+      <c r="VV380" s="0"/>
+      <c r="VW380" s="0"/>
+      <c r="VX380" s="0"/>
+      <c r="VY380" s="0"/>
+      <c r="VZ380" s="0"/>
+      <c r="WA380" s="0"/>
+      <c r="WB380" s="0"/>
+      <c r="WC380" s="0"/>
+      <c r="WD380" s="0"/>
+      <c r="WE380" s="0"/>
+      <c r="WF380" s="0"/>
+      <c r="WG380" s="0"/>
+      <c r="WH380" s="0"/>
+      <c r="WI380" s="0"/>
+      <c r="WJ380" s="0"/>
+      <c r="WK380" s="0"/>
+      <c r="WL380" s="0"/>
+      <c r="WM380" s="0"/>
+      <c r="WN380" s="0"/>
+      <c r="WO380" s="0"/>
+      <c r="WP380" s="0"/>
+      <c r="WQ380" s="0"/>
+      <c r="WR380" s="0"/>
+      <c r="WS380" s="0"/>
+      <c r="WT380" s="0"/>
+      <c r="WU380" s="0"/>
+      <c r="WV380" s="0"/>
+      <c r="WW380" s="0"/>
+      <c r="WX380" s="0"/>
+      <c r="WY380" s="0"/>
+      <c r="WZ380" s="0"/>
+      <c r="XA380" s="0"/>
+      <c r="XB380" s="0"/>
+      <c r="XC380" s="0"/>
+      <c r="XD380" s="0"/>
+      <c r="XE380" s="0"/>
+      <c r="XF380" s="0"/>
+      <c r="XG380" s="0"/>
+      <c r="XH380" s="0"/>
+      <c r="XI380" s="0"/>
+      <c r="XJ380" s="0"/>
+      <c r="XK380" s="0"/>
+      <c r="XL380" s="0"/>
+      <c r="XM380" s="0"/>
+      <c r="XN380" s="0"/>
+      <c r="XO380" s="0"/>
+      <c r="XP380" s="0"/>
+      <c r="XQ380" s="0"/>
+      <c r="XR380" s="0"/>
+      <c r="XS380" s="0"/>
+      <c r="XT380" s="0"/>
+      <c r="XU380" s="0"/>
+      <c r="XV380" s="0"/>
+      <c r="XW380" s="0"/>
+      <c r="XX380" s="0"/>
+      <c r="XY380" s="0"/>
+      <c r="XZ380" s="0"/>
+      <c r="YA380" s="0"/>
+      <c r="YB380" s="0"/>
+      <c r="YC380" s="0"/>
+      <c r="YD380" s="0"/>
+      <c r="YE380" s="0"/>
+      <c r="YF380" s="0"/>
+      <c r="YG380" s="0"/>
+      <c r="YH380" s="0"/>
+      <c r="YI380" s="0"/>
+      <c r="YJ380" s="0"/>
+      <c r="YK380" s="0"/>
+      <c r="YL380" s="0"/>
+      <c r="YM380" s="0"/>
+      <c r="YN380" s="0"/>
+      <c r="YO380" s="0"/>
+      <c r="YP380" s="0"/>
+      <c r="YQ380" s="0"/>
+      <c r="YR380" s="0"/>
+      <c r="YS380" s="0"/>
+      <c r="YT380" s="0"/>
+      <c r="YU380" s="0"/>
+      <c r="YV380" s="0"/>
+      <c r="YW380" s="0"/>
+      <c r="YX380" s="0"/>
+      <c r="YY380" s="0"/>
+      <c r="YZ380" s="0"/>
+      <c r="ZA380" s="0"/>
+      <c r="ZB380" s="0"/>
+      <c r="ZC380" s="0"/>
+      <c r="ZD380" s="0"/>
+      <c r="ZE380" s="0"/>
+      <c r="ZF380" s="0"/>
+      <c r="ZG380" s="0"/>
+      <c r="ZH380" s="0"/>
+      <c r="ZI380" s="0"/>
+      <c r="ZJ380" s="0"/>
+      <c r="ZK380" s="0"/>
+      <c r="ZL380" s="0"/>
+      <c r="ZM380" s="0"/>
+      <c r="ZN380" s="0"/>
+      <c r="ZO380" s="0"/>
+      <c r="ZP380" s="0"/>
+      <c r="ZQ380" s="0"/>
+      <c r="ZR380" s="0"/>
+      <c r="ZS380" s="0"/>
+      <c r="ZT380" s="0"/>
+      <c r="ZU380" s="0"/>
+      <c r="ZV380" s="0"/>
+      <c r="ZW380" s="0"/>
+      <c r="ZX380" s="0"/>
+      <c r="ZY380" s="0"/>
+      <c r="ZZ380" s="0"/>
+      <c r="AAA380" s="0"/>
+      <c r="AAB380" s="0"/>
+      <c r="AAC380" s="0"/>
+      <c r="AAD380" s="0"/>
+      <c r="AAE380" s="0"/>
+      <c r="AAF380" s="0"/>
+      <c r="AAG380" s="0"/>
+      <c r="AAH380" s="0"/>
+      <c r="AAI380" s="0"/>
+      <c r="AAJ380" s="0"/>
+      <c r="AAK380" s="0"/>
+      <c r="AAL380" s="0"/>
+      <c r="AAM380" s="0"/>
+      <c r="AAN380" s="0"/>
+      <c r="AAO380" s="0"/>
+      <c r="AAP380" s="0"/>
+      <c r="AAQ380" s="0"/>
+      <c r="AAR380" s="0"/>
+      <c r="AAS380" s="0"/>
+      <c r="AAT380" s="0"/>
+      <c r="AAU380" s="0"/>
+      <c r="AAV380" s="0"/>
+      <c r="AAW380" s="0"/>
+      <c r="AAX380" s="0"/>
+      <c r="AAY380" s="0"/>
+      <c r="AAZ380" s="0"/>
+      <c r="ABA380" s="0"/>
+      <c r="ABB380" s="0"/>
+      <c r="ABC380" s="0"/>
+      <c r="ABD380" s="0"/>
+      <c r="ABE380" s="0"/>
+      <c r="ABF380" s="0"/>
+      <c r="ABG380" s="0"/>
+      <c r="ABH380" s="0"/>
+      <c r="ABI380" s="0"/>
+      <c r="ABJ380" s="0"/>
+      <c r="ABK380" s="0"/>
+      <c r="ABL380" s="0"/>
+      <c r="ABM380" s="0"/>
+      <c r="ABN380" s="0"/>
+      <c r="ABO380" s="0"/>
+      <c r="ABP380" s="0"/>
+      <c r="ABQ380" s="0"/>
+      <c r="ABR380" s="0"/>
+      <c r="ABS380" s="0"/>
+      <c r="ABT380" s="0"/>
+      <c r="ABU380" s="0"/>
+      <c r="ABV380" s="0"/>
+      <c r="ABW380" s="0"/>
+      <c r="ABX380" s="0"/>
+      <c r="ABY380" s="0"/>
+      <c r="ABZ380" s="0"/>
+      <c r="ACA380" s="0"/>
+      <c r="ACB380" s="0"/>
+      <c r="ACC380" s="0"/>
+      <c r="ACD380" s="0"/>
+      <c r="ACE380" s="0"/>
+      <c r="ACF380" s="0"/>
+      <c r="ACG380" s="0"/>
+      <c r="ACH380" s="0"/>
+      <c r="ACI380" s="0"/>
+      <c r="ACJ380" s="0"/>
+      <c r="ACK380" s="0"/>
+      <c r="ACL380" s="0"/>
+      <c r="ACM380" s="0"/>
+      <c r="ACN380" s="0"/>
+      <c r="ACO380" s="0"/>
+      <c r="ACP380" s="0"/>
+      <c r="ACQ380" s="0"/>
+      <c r="ACR380" s="0"/>
+      <c r="ACS380" s="0"/>
+      <c r="ACT380" s="0"/>
+      <c r="ACU380" s="0"/>
+      <c r="ACV380" s="0"/>
+      <c r="ACW380" s="0"/>
+      <c r="ACX380" s="0"/>
+      <c r="ACY380" s="0"/>
+      <c r="ACZ380" s="0"/>
+      <c r="ADA380" s="0"/>
+      <c r="ADB380" s="0"/>
+      <c r="ADC380" s="0"/>
+      <c r="ADD380" s="0"/>
+      <c r="ADE380" s="0"/>
+      <c r="ADF380" s="0"/>
+      <c r="ADG380" s="0"/>
+      <c r="ADH380" s="0"/>
+      <c r="ADI380" s="0"/>
+      <c r="ADJ380" s="0"/>
+      <c r="ADK380" s="0"/>
+      <c r="ADL380" s="0"/>
+      <c r="ADM380" s="0"/>
+      <c r="ADN380" s="0"/>
+      <c r="ADO380" s="0"/>
+      <c r="ADP380" s="0"/>
+      <c r="ADQ380" s="0"/>
+      <c r="ADR380" s="0"/>
+      <c r="ADS380" s="0"/>
+      <c r="ADT380" s="0"/>
+      <c r="ADU380" s="0"/>
+      <c r="ADV380" s="0"/>
+      <c r="ADW380" s="0"/>
+      <c r="ADX380" s="0"/>
+      <c r="ADY380" s="0"/>
+      <c r="ADZ380" s="0"/>
+      <c r="AEA380" s="0"/>
+      <c r="AEB380" s="0"/>
+      <c r="AEC380" s="0"/>
+      <c r="AED380" s="0"/>
+      <c r="AEE380" s="0"/>
+      <c r="AEF380" s="0"/>
+      <c r="AEG380" s="0"/>
+      <c r="AEH380" s="0"/>
+      <c r="AEI380" s="0"/>
+      <c r="AEJ380" s="0"/>
+      <c r="AEK380" s="0"/>
+      <c r="AEL380" s="0"/>
+      <c r="AEM380" s="0"/>
+      <c r="AEN380" s="0"/>
+      <c r="AEO380" s="0"/>
+      <c r="AEP380" s="0"/>
+      <c r="AEQ380" s="0"/>
+      <c r="AER380" s="0"/>
+      <c r="AES380" s="0"/>
+      <c r="AET380" s="0"/>
+      <c r="AEU380" s="0"/>
+      <c r="AEV380" s="0"/>
+      <c r="AEW380" s="0"/>
+      <c r="AEX380" s="0"/>
+      <c r="AEY380" s="0"/>
+      <c r="AEZ380" s="0"/>
+      <c r="AFA380" s="0"/>
+      <c r="AFB380" s="0"/>
+      <c r="AFC380" s="0"/>
+      <c r="AFD380" s="0"/>
+      <c r="AFE380" s="0"/>
+      <c r="AFF380" s="0"/>
+      <c r="AFG380" s="0"/>
+      <c r="AFH380" s="0"/>
+      <c r="AFI380" s="0"/>
+      <c r="AFJ380" s="0"/>
+      <c r="AFK380" s="0"/>
+      <c r="AFL380" s="0"/>
+      <c r="AFM380" s="0"/>
+      <c r="AFN380" s="0"/>
+      <c r="AFO380" s="0"/>
+      <c r="AFP380" s="0"/>
+      <c r="AFQ380" s="0"/>
+      <c r="AFR380" s="0"/>
+      <c r="AFS380" s="0"/>
+      <c r="AFT380" s="0"/>
+      <c r="AFU380" s="0"/>
+      <c r="AFV380" s="0"/>
+      <c r="AFW380" s="0"/>
+      <c r="AFX380" s="0"/>
+      <c r="AFY380" s="0"/>
+      <c r="AFZ380" s="0"/>
+      <c r="AGA380" s="0"/>
+      <c r="AGB380" s="0"/>
+      <c r="AGC380" s="0"/>
+      <c r="AGD380" s="0"/>
+      <c r="AGE380" s="0"/>
+      <c r="AGF380" s="0"/>
+      <c r="AGG380" s="0"/>
+      <c r="AGH380" s="0"/>
+      <c r="AGI380" s="0"/>
+      <c r="AGJ380" s="0"/>
+      <c r="AGK380" s="0"/>
+      <c r="AGL380" s="0"/>
+      <c r="AGM380" s="0"/>
+      <c r="AGN380" s="0"/>
+      <c r="AGO380" s="0"/>
+      <c r="AGP380" s="0"/>
+      <c r="AGQ380" s="0"/>
+      <c r="AGR380" s="0"/>
+      <c r="AGS380" s="0"/>
+      <c r="AGT380" s="0"/>
+      <c r="AGU380" s="0"/>
+      <c r="AGV380" s="0"/>
+      <c r="AGW380" s="0"/>
+      <c r="AGX380" s="0"/>
+      <c r="AGY380" s="0"/>
+      <c r="AGZ380" s="0"/>
+      <c r="AHA380" s="0"/>
+      <c r="AHB380" s="0"/>
+      <c r="AHC380" s="0"/>
+      <c r="AHD380" s="0"/>
+      <c r="AHE380" s="0"/>
+      <c r="AHF380" s="0"/>
+      <c r="AHG380" s="0"/>
+      <c r="AHH380" s="0"/>
+      <c r="AHI380" s="0"/>
+      <c r="AHJ380" s="0"/>
+      <c r="AHK380" s="0"/>
+      <c r="AHL380" s="0"/>
+      <c r="AHM380" s="0"/>
+      <c r="AHN380" s="0"/>
+      <c r="AHO380" s="0"/>
+      <c r="AHP380" s="0"/>
+      <c r="AHQ380" s="0"/>
+      <c r="AHR380" s="0"/>
+      <c r="AHS380" s="0"/>
+      <c r="AHT380" s="0"/>
+      <c r="AHU380" s="0"/>
+      <c r="AHV380" s="0"/>
+      <c r="AHW380" s="0"/>
+      <c r="AHX380" s="0"/>
+      <c r="AHY380" s="0"/>
+      <c r="AHZ380" s="0"/>
+      <c r="AIA380" s="0"/>
+      <c r="AIB380" s="0"/>
+      <c r="AIC380" s="0"/>
+      <c r="AID380" s="0"/>
+      <c r="AIE380" s="0"/>
+      <c r="AIF380" s="0"/>
+      <c r="AIG380" s="0"/>
+      <c r="AIH380" s="0"/>
+      <c r="AII380" s="0"/>
+      <c r="AIJ380" s="0"/>
+      <c r="AIK380" s="0"/>
+      <c r="AIL380" s="0"/>
+      <c r="AIM380" s="0"/>
+      <c r="AIN380" s="0"/>
+      <c r="AIO380" s="0"/>
+      <c r="AIP380" s="0"/>
+      <c r="AIQ380" s="0"/>
+      <c r="AIR380" s="0"/>
+      <c r="AIS380" s="0"/>
+      <c r="AIT380" s="0"/>
+      <c r="AIU380" s="0"/>
+      <c r="AIV380" s="0"/>
+      <c r="AIW380" s="0"/>
+      <c r="AIX380" s="0"/>
+      <c r="AIY380" s="0"/>
+      <c r="AIZ380" s="0"/>
+      <c r="AJA380" s="0"/>
+      <c r="AJB380" s="0"/>
+      <c r="AJC380" s="0"/>
+      <c r="AJD380" s="0"/>
+      <c r="AJE380" s="0"/>
+      <c r="AJF380" s="0"/>
+      <c r="AJG380" s="0"/>
+      <c r="AJH380" s="0"/>
+      <c r="AJI380" s="0"/>
+      <c r="AJJ380" s="0"/>
+      <c r="AJK380" s="0"/>
+      <c r="AJL380" s="0"/>
+      <c r="AJM380" s="0"/>
+      <c r="AJN380" s="0"/>
+      <c r="AJO380" s="0"/>
+      <c r="AJP380" s="0"/>
+      <c r="AJQ380" s="0"/>
+      <c r="AJR380" s="0"/>
+      <c r="AJS380" s="0"/>
+      <c r="AJT380" s="0"/>
+      <c r="AJU380" s="0"/>
+      <c r="AJV380" s="0"/>
+      <c r="AJW380" s="0"/>
+      <c r="AJX380" s="0"/>
+      <c r="AJY380" s="0"/>
+      <c r="AJZ380" s="0"/>
+      <c r="AKA380" s="0"/>
+      <c r="AKB380" s="0"/>
+      <c r="AKC380" s="0"/>
+      <c r="AKD380" s="0"/>
+      <c r="AKE380" s="0"/>
+      <c r="AKF380" s="0"/>
+      <c r="AKG380" s="0"/>
+      <c r="AKH380" s="0"/>
+      <c r="AKI380" s="0"/>
+      <c r="AKJ380" s="0"/>
+      <c r="AKK380" s="0"/>
+      <c r="AKL380" s="0"/>
+      <c r="AKM380" s="0"/>
+      <c r="AKN380" s="0"/>
+      <c r="AKO380" s="0"/>
+      <c r="AKP380" s="0"/>
+      <c r="AKQ380" s="0"/>
+      <c r="AKR380" s="0"/>
+      <c r="AKS380" s="0"/>
+      <c r="AKT380" s="0"/>
+      <c r="AKU380" s="0"/>
+      <c r="AKV380" s="0"/>
+      <c r="AKW380" s="0"/>
+      <c r="AKX380" s="0"/>
+      <c r="AKY380" s="0"/>
+      <c r="AKZ380" s="0"/>
+      <c r="ALA380" s="0"/>
+      <c r="ALB380" s="0"/>
+      <c r="ALC380" s="0"/>
+      <c r="ALD380" s="0"/>
+      <c r="ALE380" s="0"/>
+      <c r="ALF380" s="0"/>
+      <c r="ALG380" s="0"/>
+      <c r="ALH380" s="0"/>
+      <c r="ALI380" s="0"/>
+      <c r="ALJ380" s="0"/>
+      <c r="ALK380" s="0"/>
+      <c r="ALL380" s="0"/>
+      <c r="ALM380" s="0"/>
+      <c r="ALN380" s="0"/>
+      <c r="ALO380" s="0"/>
+      <c r="ALP380" s="0"/>
+      <c r="ALQ380" s="0"/>
+      <c r="ALR380" s="0"/>
+      <c r="ALS380" s="0"/>
+      <c r="ALT380" s="0"/>
+      <c r="ALU380" s="0"/>
+      <c r="ALV380" s="0"/>
+      <c r="ALW380" s="0"/>
+      <c r="ALX380" s="0"/>
+      <c r="ALY380" s="0"/>
+      <c r="ALZ380" s="0"/>
+      <c r="AMA380" s="0"/>
+      <c r="AMB380" s="0"/>
+      <c r="AMC380" s="0"/>
+      <c r="AMD380" s="0"/>
+      <c r="AME380" s="0"/>
+      <c r="AMF380" s="0"/>
+      <c r="AMG380" s="0"/>
+      <c r="AMH380" s="0"/>
+      <c r="AMI380" s="0"/>
+      <c r="AMJ380" s="0"/>
     </row>
     <row r="381" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A381" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="B381" s="1" t="s">
+      <c r="C381" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D381" s="1" t="s">
         <v>1050</v>
       </c>
-      <c r="C381" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D381" s="1" t="s">
-        <v>1051</v>
-      </c>
-      <c r="F381" s="3"/>
-      <c r="G381" s="4"/>
+      <c r="E381" s="0"/>
+      <c r="F381" s="0"/>
+      <c r="G381" s="0"/>
+      <c r="H381" s="0"/>
+      <c r="I381" s="0"/>
+      <c r="J381" s="0"/>
+      <c r="K381" s="0"/>
+      <c r="L381" s="0"/>
+      <c r="M381" s="0"/>
+      <c r="N381" s="0"/>
+      <c r="O381" s="0"/>
+      <c r="P381" s="0"/>
+      <c r="Q381" s="0"/>
+      <c r="R381" s="0"/>
+      <c r="S381" s="0"/>
+      <c r="T381" s="0"/>
+      <c r="U381" s="0"/>
+      <c r="V381" s="0"/>
+      <c r="W381" s="0"/>
+      <c r="X381" s="0"/>
+      <c r="Y381" s="0"/>
+      <c r="Z381" s="0"/>
+      <c r="AA381" s="0"/>
+      <c r="AB381" s="0"/>
+      <c r="AC381" s="0"/>
+      <c r="AD381" s="0"/>
+      <c r="AE381" s="0"/>
+      <c r="AF381" s="0"/>
+      <c r="AG381" s="0"/>
+      <c r="AH381" s="0"/>
+      <c r="AI381" s="0"/>
+      <c r="AJ381" s="0"/>
+      <c r="AK381" s="0"/>
+      <c r="AL381" s="0"/>
+      <c r="AM381" s="0"/>
+      <c r="AN381" s="0"/>
+      <c r="AO381" s="0"/>
+      <c r="AP381" s="0"/>
+      <c r="AQ381" s="0"/>
+      <c r="AR381" s="0"/>
+      <c r="AS381" s="0"/>
+      <c r="AT381" s="0"/>
+      <c r="AU381" s="0"/>
+      <c r="AV381" s="0"/>
+      <c r="AW381" s="0"/>
+      <c r="AX381" s="0"/>
+      <c r="AY381" s="0"/>
+      <c r="AZ381" s="0"/>
+      <c r="BA381" s="0"/>
+      <c r="BB381" s="0"/>
+      <c r="BC381" s="0"/>
+      <c r="BD381" s="0"/>
+      <c r="BE381" s="0"/>
+      <c r="BF381" s="0"/>
+      <c r="BG381" s="0"/>
+      <c r="BH381" s="0"/>
+      <c r="BI381" s="0"/>
+      <c r="BJ381" s="0"/>
+      <c r="BK381" s="0"/>
+      <c r="BL381" s="0"/>
+      <c r="BM381" s="0"/>
+      <c r="BN381" s="0"/>
+      <c r="BO381" s="0"/>
+      <c r="BP381" s="0"/>
+      <c r="BQ381" s="0"/>
+      <c r="BR381" s="0"/>
+      <c r="BS381" s="0"/>
+      <c r="BT381" s="0"/>
+      <c r="BU381" s="0"/>
+      <c r="BV381" s="0"/>
+      <c r="BW381" s="0"/>
+      <c r="BX381" s="0"/>
+      <c r="BY381" s="0"/>
+      <c r="BZ381" s="0"/>
+      <c r="CA381" s="0"/>
+      <c r="CB381" s="0"/>
+      <c r="CC381" s="0"/>
+      <c r="CD381" s="0"/>
+      <c r="CE381" s="0"/>
+      <c r="CF381" s="0"/>
+      <c r="CG381" s="0"/>
+      <c r="CH381" s="0"/>
+      <c r="CI381" s="0"/>
+      <c r="CJ381" s="0"/>
+      <c r="CK381" s="0"/>
+      <c r="CL381" s="0"/>
+      <c r="CM381" s="0"/>
+      <c r="CN381" s="0"/>
+      <c r="CO381" s="0"/>
+      <c r="CP381" s="0"/>
+      <c r="CQ381" s="0"/>
+      <c r="CR381" s="0"/>
+      <c r="CS381" s="0"/>
+      <c r="CT381" s="0"/>
+      <c r="CU381" s="0"/>
+      <c r="CV381" s="0"/>
+      <c r="CW381" s="0"/>
+      <c r="CX381" s="0"/>
+      <c r="CY381" s="0"/>
+      <c r="CZ381" s="0"/>
+      <c r="DA381" s="0"/>
+      <c r="DB381" s="0"/>
+      <c r="DC381" s="0"/>
+      <c r="DD381" s="0"/>
+      <c r="DE381" s="0"/>
+      <c r="DF381" s="0"/>
+      <c r="DG381" s="0"/>
+      <c r="DH381" s="0"/>
+      <c r="DI381" s="0"/>
+      <c r="DJ381" s="0"/>
+      <c r="DK381" s="0"/>
+      <c r="DL381" s="0"/>
+      <c r="DM381" s="0"/>
+      <c r="DN381" s="0"/>
+      <c r="DO381" s="0"/>
+      <c r="DP381" s="0"/>
+      <c r="DQ381" s="0"/>
+      <c r="DR381" s="0"/>
+      <c r="DS381" s="0"/>
+      <c r="DT381" s="0"/>
+      <c r="DU381" s="0"/>
+      <c r="DV381" s="0"/>
+      <c r="DW381" s="0"/>
+      <c r="DX381" s="0"/>
+      <c r="DY381" s="0"/>
+      <c r="DZ381" s="0"/>
+      <c r="EA381" s="0"/>
+      <c r="EB381" s="0"/>
+      <c r="EC381" s="0"/>
+      <c r="ED381" s="0"/>
+      <c r="EE381" s="0"/>
+      <c r="EF381" s="0"/>
+      <c r="EG381" s="0"/>
+      <c r="EH381" s="0"/>
+      <c r="EI381" s="0"/>
+      <c r="EJ381" s="0"/>
+      <c r="EK381" s="0"/>
+      <c r="EL381" s="0"/>
+      <c r="EM381" s="0"/>
+      <c r="EN381" s="0"/>
+      <c r="EO381" s="0"/>
+      <c r="EP381" s="0"/>
+      <c r="EQ381" s="0"/>
+      <c r="ER381" s="0"/>
+      <c r="ES381" s="0"/>
+      <c r="ET381" s="0"/>
+      <c r="EU381" s="0"/>
+      <c r="EV381" s="0"/>
+      <c r="EW381" s="0"/>
+      <c r="EX381" s="0"/>
+      <c r="EY381" s="0"/>
+      <c r="EZ381" s="0"/>
+      <c r="FA381" s="0"/>
+      <c r="FB381" s="0"/>
+      <c r="FC381" s="0"/>
+      <c r="FD381" s="0"/>
+      <c r="FE381" s="0"/>
+      <c r="FF381" s="0"/>
+      <c r="FG381" s="0"/>
+      <c r="FH381" s="0"/>
+      <c r="FI381" s="0"/>
+      <c r="FJ381" s="0"/>
+      <c r="FK381" s="0"/>
+      <c r="FL381" s="0"/>
+      <c r="FM381" s="0"/>
+      <c r="FN381" s="0"/>
+      <c r="FO381" s="0"/>
+      <c r="FP381" s="0"/>
+      <c r="FQ381" s="0"/>
+      <c r="FR381" s="0"/>
+      <c r="FS381" s="0"/>
+      <c r="FT381" s="0"/>
+      <c r="FU381" s="0"/>
+      <c r="FV381" s="0"/>
+      <c r="FW381" s="0"/>
+      <c r="FX381" s="0"/>
+      <c r="FY381" s="0"/>
+      <c r="FZ381" s="0"/>
+      <c r="GA381" s="0"/>
+      <c r="GB381" s="0"/>
+      <c r="GC381" s="0"/>
+      <c r="GD381" s="0"/>
+      <c r="GE381" s="0"/>
+      <c r="GF381" s="0"/>
+      <c r="GG381" s="0"/>
+      <c r="GH381" s="0"/>
+      <c r="GI381" s="0"/>
+      <c r="GJ381" s="0"/>
+      <c r="GK381" s="0"/>
+      <c r="GL381" s="0"/>
+      <c r="GM381" s="0"/>
+      <c r="GN381" s="0"/>
+      <c r="GO381" s="0"/>
+      <c r="GP381" s="0"/>
+      <c r="GQ381" s="0"/>
+      <c r="GR381" s="0"/>
+      <c r="GS381" s="0"/>
+      <c r="GT381" s="0"/>
+      <c r="GU381" s="0"/>
+      <c r="GV381" s="0"/>
+      <c r="GW381" s="0"/>
+      <c r="GX381" s="0"/>
+      <c r="GY381" s="0"/>
+      <c r="GZ381" s="0"/>
+      <c r="HA381" s="0"/>
+      <c r="HB381" s="0"/>
+      <c r="HC381" s="0"/>
+      <c r="HD381" s="0"/>
+      <c r="HE381" s="0"/>
+      <c r="HF381" s="0"/>
+      <c r="HG381" s="0"/>
+      <c r="HH381" s="0"/>
+      <c r="HI381" s="0"/>
+      <c r="HJ381" s="0"/>
+      <c r="HK381" s="0"/>
+      <c r="HL381" s="0"/>
+      <c r="HM381" s="0"/>
+      <c r="HN381" s="0"/>
+      <c r="HO381" s="0"/>
+      <c r="HP381" s="0"/>
+      <c r="HQ381" s="0"/>
+      <c r="HR381" s="0"/>
+      <c r="HS381" s="0"/>
+      <c r="HT381" s="0"/>
+      <c r="HU381" s="0"/>
+      <c r="HV381" s="0"/>
+      <c r="HW381" s="0"/>
+      <c r="HX381" s="0"/>
+      <c r="HY381" s="0"/>
+      <c r="HZ381" s="0"/>
+      <c r="IA381" s="0"/>
+      <c r="IB381" s="0"/>
+      <c r="IC381" s="0"/>
+      <c r="ID381" s="0"/>
+      <c r="IE381" s="0"/>
+      <c r="IF381" s="0"/>
+      <c r="IG381" s="0"/>
+      <c r="IH381" s="0"/>
+      <c r="II381" s="0"/>
+      <c r="IJ381" s="0"/>
+      <c r="IK381" s="0"/>
+      <c r="IL381" s="0"/>
+      <c r="IM381" s="0"/>
+      <c r="IN381" s="0"/>
+      <c r="IO381" s="0"/>
+      <c r="IP381" s="0"/>
+      <c r="IQ381" s="0"/>
+      <c r="IR381" s="0"/>
+      <c r="IS381" s="0"/>
+      <c r="IT381" s="0"/>
+      <c r="IU381" s="0"/>
+      <c r="IV381" s="0"/>
+      <c r="IW381" s="0"/>
+      <c r="IX381" s="0"/>
+      <c r="IY381" s="0"/>
+      <c r="IZ381" s="0"/>
+      <c r="JA381" s="0"/>
+      <c r="JB381" s="0"/>
+      <c r="JC381" s="0"/>
+      <c r="JD381" s="0"/>
+      <c r="JE381" s="0"/>
+      <c r="JF381" s="0"/>
+      <c r="JG381" s="0"/>
+      <c r="JH381" s="0"/>
+      <c r="JI381" s="0"/>
+      <c r="JJ381" s="0"/>
+      <c r="JK381" s="0"/>
+      <c r="JL381" s="0"/>
+      <c r="JM381" s="0"/>
+      <c r="JN381" s="0"/>
+      <c r="JO381" s="0"/>
+      <c r="JP381" s="0"/>
+      <c r="JQ381" s="0"/>
+      <c r="JR381" s="0"/>
+      <c r="JS381" s="0"/>
+      <c r="JT381" s="0"/>
+      <c r="JU381" s="0"/>
+      <c r="JV381" s="0"/>
+      <c r="JW381" s="0"/>
+      <c r="JX381" s="0"/>
+      <c r="JY381" s="0"/>
+      <c r="JZ381" s="0"/>
+      <c r="KA381" s="0"/>
+      <c r="KB381" s="0"/>
+      <c r="KC381" s="0"/>
+      <c r="KD381" s="0"/>
+      <c r="KE381" s="0"/>
+      <c r="KF381" s="0"/>
+      <c r="KG381" s="0"/>
+      <c r="KH381" s="0"/>
+      <c r="KI381" s="0"/>
+      <c r="KJ381" s="0"/>
+      <c r="KK381" s="0"/>
+      <c r="KL381" s="0"/>
+      <c r="KM381" s="0"/>
+      <c r="KN381" s="0"/>
+      <c r="KO381" s="0"/>
+      <c r="KP381" s="0"/>
+      <c r="KQ381" s="0"/>
+      <c r="KR381" s="0"/>
+      <c r="KS381" s="0"/>
+      <c r="KT381" s="0"/>
+      <c r="KU381" s="0"/>
+      <c r="KV381" s="0"/>
+      <c r="KW381" s="0"/>
+      <c r="KX381" s="0"/>
+      <c r="KY381" s="0"/>
+      <c r="KZ381" s="0"/>
+      <c r="LA381" s="0"/>
+      <c r="LB381" s="0"/>
+      <c r="LC381" s="0"/>
+      <c r="LD381" s="0"/>
+      <c r="LE381" s="0"/>
+      <c r="LF381" s="0"/>
+      <c r="LG381" s="0"/>
+      <c r="LH381" s="0"/>
+      <c r="LI381" s="0"/>
+      <c r="LJ381" s="0"/>
+      <c r="LK381" s="0"/>
+      <c r="LL381" s="0"/>
+      <c r="LM381" s="0"/>
+      <c r="LN381" s="0"/>
+      <c r="LO381" s="0"/>
+      <c r="LP381" s="0"/>
+      <c r="LQ381" s="0"/>
+      <c r="LR381" s="0"/>
+      <c r="LS381" s="0"/>
+      <c r="LT381" s="0"/>
+      <c r="LU381" s="0"/>
+      <c r="LV381" s="0"/>
+      <c r="LW381" s="0"/>
+      <c r="LX381" s="0"/>
+      <c r="LY381" s="0"/>
+      <c r="LZ381" s="0"/>
+      <c r="MA381" s="0"/>
+      <c r="MB381" s="0"/>
+      <c r="MC381" s="0"/>
+      <c r="MD381" s="0"/>
+      <c r="ME381" s="0"/>
+      <c r="MF381" s="0"/>
+      <c r="MG381" s="0"/>
+      <c r="MH381" s="0"/>
+      <c r="MI381" s="0"/>
+      <c r="MJ381" s="0"/>
+      <c r="MK381" s="0"/>
+      <c r="ML381" s="0"/>
+      <c r="MM381" s="0"/>
+      <c r="MN381" s="0"/>
+      <c r="MO381" s="0"/>
+      <c r="MP381" s="0"/>
+      <c r="MQ381" s="0"/>
+      <c r="MR381" s="0"/>
+      <c r="MS381" s="0"/>
+      <c r="MT381" s="0"/>
+      <c r="MU381" s="0"/>
+      <c r="MV381" s="0"/>
+      <c r="MW381" s="0"/>
+      <c r="MX381" s="0"/>
+      <c r="MY381" s="0"/>
+      <c r="MZ381" s="0"/>
+      <c r="NA381" s="0"/>
+      <c r="NB381" s="0"/>
+      <c r="NC381" s="0"/>
+      <c r="ND381" s="0"/>
+      <c r="NE381" s="0"/>
+      <c r="NF381" s="0"/>
+      <c r="NG381" s="0"/>
+      <c r="NH381" s="0"/>
+      <c r="NI381" s="0"/>
+      <c r="NJ381" s="0"/>
+      <c r="NK381" s="0"/>
+      <c r="NL381" s="0"/>
+      <c r="NM381" s="0"/>
+      <c r="NN381" s="0"/>
+      <c r="NO381" s="0"/>
+      <c r="NP381" s="0"/>
+      <c r="NQ381" s="0"/>
+      <c r="NR381" s="0"/>
+      <c r="NS381" s="0"/>
+      <c r="NT381" s="0"/>
+      <c r="NU381" s="0"/>
+      <c r="NV381" s="0"/>
+      <c r="NW381" s="0"/>
+      <c r="NX381" s="0"/>
+      <c r="NY381" s="0"/>
+      <c r="NZ381" s="0"/>
+      <c r="OA381" s="0"/>
+      <c r="OB381" s="0"/>
+      <c r="OC381" s="0"/>
+      <c r="OD381" s="0"/>
+      <c r="OE381" s="0"/>
+      <c r="OF381" s="0"/>
+      <c r="OG381" s="0"/>
+      <c r="OH381" s="0"/>
+      <c r="OI381" s="0"/>
+      <c r="OJ381" s="0"/>
+      <c r="OK381" s="0"/>
+      <c r="OL381" s="0"/>
+      <c r="OM381" s="0"/>
+      <c r="ON381" s="0"/>
+      <c r="OO381" s="0"/>
+      <c r="OP381" s="0"/>
+      <c r="OQ381" s="0"/>
+      <c r="OR381" s="0"/>
+      <c r="OS381" s="0"/>
+      <c r="OT381" s="0"/>
+      <c r="OU381" s="0"/>
+      <c r="OV381" s="0"/>
+      <c r="OW381" s="0"/>
+      <c r="OX381" s="0"/>
+      <c r="OY381" s="0"/>
+      <c r="OZ381" s="0"/>
+      <c r="PA381" s="0"/>
+      <c r="PB381" s="0"/>
+      <c r="PC381" s="0"/>
+      <c r="PD381" s="0"/>
+      <c r="PE381" s="0"/>
+      <c r="PF381" s="0"/>
+      <c r="PG381" s="0"/>
+      <c r="PH381" s="0"/>
+      <c r="PI381" s="0"/>
+      <c r="PJ381" s="0"/>
+      <c r="PK381" s="0"/>
+      <c r="PL381" s="0"/>
+      <c r="PM381" s="0"/>
+      <c r="PN381" s="0"/>
+      <c r="PO381" s="0"/>
+      <c r="PP381" s="0"/>
+      <c r="PQ381" s="0"/>
+      <c r="PR381" s="0"/>
+      <c r="PS381" s="0"/>
+      <c r="PT381" s="0"/>
+      <c r="PU381" s="0"/>
+      <c r="PV381" s="0"/>
+      <c r="PW381" s="0"/>
+      <c r="PX381" s="0"/>
+      <c r="PY381" s="0"/>
+      <c r="PZ381" s="0"/>
+      <c r="QA381" s="0"/>
+      <c r="QB381" s="0"/>
+      <c r="QC381" s="0"/>
+      <c r="QD381" s="0"/>
+      <c r="QE381" s="0"/>
+      <c r="QF381" s="0"/>
+      <c r="QG381" s="0"/>
+      <c r="QH381" s="0"/>
+      <c r="QI381" s="0"/>
+      <c r="QJ381" s="0"/>
+      <c r="QK381" s="0"/>
+      <c r="QL381" s="0"/>
+      <c r="QM381" s="0"/>
+      <c r="QN381" s="0"/>
+      <c r="QO381" s="0"/>
+      <c r="QP381" s="0"/>
+      <c r="QQ381" s="0"/>
+      <c r="QR381" s="0"/>
+      <c r="QS381" s="0"/>
+      <c r="QT381" s="0"/>
+      <c r="QU381" s="0"/>
+      <c r="QV381" s="0"/>
+      <c r="QW381" s="0"/>
+      <c r="QX381" s="0"/>
+      <c r="QY381" s="0"/>
+      <c r="QZ381" s="0"/>
+      <c r="RA381" s="0"/>
+      <c r="RB381" s="0"/>
+      <c r="RC381" s="0"/>
+      <c r="RD381" s="0"/>
+      <c r="RE381" s="0"/>
+      <c r="RF381" s="0"/>
+      <c r="RG381" s="0"/>
+      <c r="RH381" s="0"/>
+      <c r="RI381" s="0"/>
+      <c r="RJ381" s="0"/>
+      <c r="RK381" s="0"/>
+      <c r="RL381" s="0"/>
+      <c r="RM381" s="0"/>
+      <c r="RN381" s="0"/>
+      <c r="RO381" s="0"/>
+      <c r="RP381" s="0"/>
+      <c r="RQ381" s="0"/>
+      <c r="RR381" s="0"/>
+      <c r="RS381" s="0"/>
+      <c r="RT381" s="0"/>
+      <c r="RU381" s="0"/>
+      <c r="RV381" s="0"/>
+      <c r="RW381" s="0"/>
+      <c r="RX381" s="0"/>
+      <c r="RY381" s="0"/>
+      <c r="RZ381" s="0"/>
+      <c r="SA381" s="0"/>
+      <c r="SB381" s="0"/>
+      <c r="SC381" s="0"/>
+      <c r="SD381" s="0"/>
+      <c r="SE381" s="0"/>
+      <c r="SF381" s="0"/>
+      <c r="SG381" s="0"/>
+      <c r="SH381" s="0"/>
+      <c r="SI381" s="0"/>
+      <c r="SJ381" s="0"/>
+      <c r="SK381" s="0"/>
+      <c r="SL381" s="0"/>
+      <c r="SM381" s="0"/>
+      <c r="SN381" s="0"/>
+      <c r="SO381" s="0"/>
+      <c r="SP381" s="0"/>
+      <c r="SQ381" s="0"/>
+      <c r="SR381" s="0"/>
+      <c r="SS381" s="0"/>
+      <c r="ST381" s="0"/>
+      <c r="SU381" s="0"/>
+      <c r="SV381" s="0"/>
+      <c r="SW381" s="0"/>
+      <c r="SX381" s="0"/>
+      <c r="SY381" s="0"/>
+      <c r="SZ381" s="0"/>
+      <c r="TA381" s="0"/>
+      <c r="TB381" s="0"/>
+      <c r="TC381" s="0"/>
+      <c r="TD381" s="0"/>
+      <c r="TE381" s="0"/>
+      <c r="TF381" s="0"/>
+      <c r="TG381" s="0"/>
+      <c r="TH381" s="0"/>
+      <c r="TI381" s="0"/>
+      <c r="TJ381" s="0"/>
+      <c r="TK381" s="0"/>
+      <c r="TL381" s="0"/>
+      <c r="TM381" s="0"/>
+      <c r="TN381" s="0"/>
+      <c r="TO381" s="0"/>
+      <c r="TP381" s="0"/>
+      <c r="TQ381" s="0"/>
+      <c r="TR381" s="0"/>
+      <c r="TS381" s="0"/>
+      <c r="TT381" s="0"/>
+      <c r="TU381" s="0"/>
+      <c r="TV381" s="0"/>
+      <c r="TW381" s="0"/>
+      <c r="TX381" s="0"/>
+      <c r="TY381" s="0"/>
+      <c r="TZ381" s="0"/>
+      <c r="UA381" s="0"/>
+      <c r="UB381" s="0"/>
+      <c r="UC381" s="0"/>
+      <c r="UD381" s="0"/>
+      <c r="UE381" s="0"/>
+      <c r="UF381" s="0"/>
+      <c r="UG381" s="0"/>
+      <c r="UH381" s="0"/>
+      <c r="UI381" s="0"/>
+      <c r="UJ381" s="0"/>
+      <c r="UK381" s="0"/>
+      <c r="UL381" s="0"/>
+      <c r="UM381" s="0"/>
+      <c r="UN381" s="0"/>
+      <c r="UO381" s="0"/>
+      <c r="UP381" s="0"/>
+      <c r="UQ381" s="0"/>
+      <c r="UR381" s="0"/>
+      <c r="US381" s="0"/>
+      <c r="UT381" s="0"/>
+      <c r="UU381" s="0"/>
+      <c r="UV381" s="0"/>
+      <c r="UW381" s="0"/>
+      <c r="UX381" s="0"/>
+      <c r="UY381" s="0"/>
+      <c r="UZ381" s="0"/>
+      <c r="VA381" s="0"/>
+      <c r="VB381" s="0"/>
+      <c r="VC381" s="0"/>
+      <c r="VD381" s="0"/>
+      <c r="VE381" s="0"/>
+      <c r="VF381" s="0"/>
+      <c r="VG381" s="0"/>
+      <c r="VH381" s="0"/>
+      <c r="VI381" s="0"/>
+      <c r="VJ381" s="0"/>
+      <c r="VK381" s="0"/>
+      <c r="VL381" s="0"/>
+      <c r="VM381" s="0"/>
+      <c r="VN381" s="0"/>
+      <c r="VO381" s="0"/>
+      <c r="VP381" s="0"/>
+      <c r="VQ381" s="0"/>
+      <c r="VR381" s="0"/>
+      <c r="VS381" s="0"/>
+      <c r="VT381" s="0"/>
+      <c r="VU381" s="0"/>
+      <c r="VV381" s="0"/>
+      <c r="VW381" s="0"/>
+      <c r="VX381" s="0"/>
+      <c r="VY381" s="0"/>
+      <c r="VZ381" s="0"/>
+      <c r="WA381" s="0"/>
+      <c r="WB381" s="0"/>
+      <c r="WC381" s="0"/>
+      <c r="WD381" s="0"/>
+      <c r="WE381" s="0"/>
+      <c r="WF381" s="0"/>
+      <c r="WG381" s="0"/>
+      <c r="WH381" s="0"/>
+      <c r="WI381" s="0"/>
+      <c r="WJ381" s="0"/>
+      <c r="WK381" s="0"/>
+      <c r="WL381" s="0"/>
+      <c r="WM381" s="0"/>
+      <c r="WN381" s="0"/>
+      <c r="WO381" s="0"/>
+      <c r="WP381" s="0"/>
+      <c r="WQ381" s="0"/>
+      <c r="WR381" s="0"/>
+      <c r="WS381" s="0"/>
+      <c r="WT381" s="0"/>
+      <c r="WU381" s="0"/>
+      <c r="WV381" s="0"/>
+      <c r="WW381" s="0"/>
+      <c r="WX381" s="0"/>
+      <c r="WY381" s="0"/>
+      <c r="WZ381" s="0"/>
+      <c r="XA381" s="0"/>
+      <c r="XB381" s="0"/>
+      <c r="XC381" s="0"/>
+      <c r="XD381" s="0"/>
+      <c r="XE381" s="0"/>
+      <c r="XF381" s="0"/>
+      <c r="XG381" s="0"/>
+      <c r="XH381" s="0"/>
+      <c r="XI381" s="0"/>
+      <c r="XJ381" s="0"/>
+      <c r="XK381" s="0"/>
+      <c r="XL381" s="0"/>
+      <c r="XM381" s="0"/>
+      <c r="XN381" s="0"/>
+      <c r="XO381" s="0"/>
+      <c r="XP381" s="0"/>
+      <c r="XQ381" s="0"/>
+      <c r="XR381" s="0"/>
+      <c r="XS381" s="0"/>
+      <c r="XT381" s="0"/>
+      <c r="XU381" s="0"/>
+      <c r="XV381" s="0"/>
+      <c r="XW381" s="0"/>
+      <c r="XX381" s="0"/>
+      <c r="XY381" s="0"/>
+      <c r="XZ381" s="0"/>
+      <c r="YA381" s="0"/>
+      <c r="YB381" s="0"/>
+      <c r="YC381" s="0"/>
+      <c r="YD381" s="0"/>
+      <c r="YE381" s="0"/>
+      <c r="YF381" s="0"/>
+      <c r="YG381" s="0"/>
+      <c r="YH381" s="0"/>
+      <c r="YI381" s="0"/>
+      <c r="YJ381" s="0"/>
+      <c r="YK381" s="0"/>
+      <c r="YL381" s="0"/>
+      <c r="YM381" s="0"/>
+      <c r="YN381" s="0"/>
+      <c r="YO381" s="0"/>
+      <c r="YP381" s="0"/>
+      <c r="YQ381" s="0"/>
+      <c r="YR381" s="0"/>
+      <c r="YS381" s="0"/>
+      <c r="YT381" s="0"/>
+      <c r="YU381" s="0"/>
+      <c r="YV381" s="0"/>
+      <c r="YW381" s="0"/>
+      <c r="YX381" s="0"/>
+      <c r="YY381" s="0"/>
+      <c r="YZ381" s="0"/>
+      <c r="ZA381" s="0"/>
+      <c r="ZB381" s="0"/>
+      <c r="ZC381" s="0"/>
+      <c r="ZD381" s="0"/>
+      <c r="ZE381" s="0"/>
+      <c r="ZF381" s="0"/>
+      <c r="ZG381" s="0"/>
+      <c r="ZH381" s="0"/>
+      <c r="ZI381" s="0"/>
+      <c r="ZJ381" s="0"/>
+      <c r="ZK381" s="0"/>
+      <c r="ZL381" s="0"/>
+      <c r="ZM381" s="0"/>
+      <c r="ZN381" s="0"/>
+      <c r="ZO381" s="0"/>
+      <c r="ZP381" s="0"/>
+      <c r="ZQ381" s="0"/>
+      <c r="ZR381" s="0"/>
+      <c r="ZS381" s="0"/>
+      <c r="ZT381" s="0"/>
+      <c r="ZU381" s="0"/>
+      <c r="ZV381" s="0"/>
+      <c r="ZW381" s="0"/>
+      <c r="ZX381" s="0"/>
+      <c r="ZY381" s="0"/>
+      <c r="ZZ381" s="0"/>
+      <c r="AAA381" s="0"/>
+      <c r="AAB381" s="0"/>
+      <c r="AAC381" s="0"/>
+      <c r="AAD381" s="0"/>
+      <c r="AAE381" s="0"/>
+      <c r="AAF381" s="0"/>
+      <c r="AAG381" s="0"/>
+      <c r="AAH381" s="0"/>
+      <c r="AAI381" s="0"/>
+      <c r="AAJ381" s="0"/>
+      <c r="AAK381" s="0"/>
+      <c r="AAL381" s="0"/>
+      <c r="AAM381" s="0"/>
+      <c r="AAN381" s="0"/>
+      <c r="AAO381" s="0"/>
+      <c r="AAP381" s="0"/>
+      <c r="AAQ381" s="0"/>
+      <c r="AAR381" s="0"/>
+      <c r="AAS381" s="0"/>
+      <c r="AAT381" s="0"/>
+      <c r="AAU381" s="0"/>
+      <c r="AAV381" s="0"/>
+      <c r="AAW381" s="0"/>
+      <c r="AAX381" s="0"/>
+      <c r="AAY381" s="0"/>
+      <c r="AAZ381" s="0"/>
+      <c r="ABA381" s="0"/>
+      <c r="ABB381" s="0"/>
+      <c r="ABC381" s="0"/>
+      <c r="ABD381" s="0"/>
+      <c r="ABE381" s="0"/>
+      <c r="ABF381" s="0"/>
+      <c r="ABG381" s="0"/>
+      <c r="ABH381" s="0"/>
+      <c r="ABI381" s="0"/>
+      <c r="ABJ381" s="0"/>
+      <c r="ABK381" s="0"/>
+      <c r="ABL381" s="0"/>
+      <c r="ABM381" s="0"/>
+      <c r="ABN381" s="0"/>
+      <c r="ABO381" s="0"/>
+      <c r="ABP381" s="0"/>
+      <c r="ABQ381" s="0"/>
+      <c r="ABR381" s="0"/>
+      <c r="ABS381" s="0"/>
+      <c r="ABT381" s="0"/>
+      <c r="ABU381" s="0"/>
+      <c r="ABV381" s="0"/>
+      <c r="ABW381" s="0"/>
+      <c r="ABX381" s="0"/>
+      <c r="ABY381" s="0"/>
+      <c r="ABZ381" s="0"/>
+      <c r="ACA381" s="0"/>
+      <c r="ACB381" s="0"/>
+      <c r="ACC381" s="0"/>
+      <c r="ACD381" s="0"/>
+      <c r="ACE381" s="0"/>
+      <c r="ACF381" s="0"/>
+      <c r="ACG381" s="0"/>
+      <c r="ACH381" s="0"/>
+      <c r="ACI381" s="0"/>
+      <c r="ACJ381" s="0"/>
+      <c r="ACK381" s="0"/>
+      <c r="ACL381" s="0"/>
+      <c r="ACM381" s="0"/>
+      <c r="ACN381" s="0"/>
+      <c r="ACO381" s="0"/>
+      <c r="ACP381" s="0"/>
+      <c r="ACQ381" s="0"/>
+      <c r="ACR381" s="0"/>
+      <c r="ACS381" s="0"/>
+      <c r="ACT381" s="0"/>
+      <c r="ACU381" s="0"/>
+      <c r="ACV381" s="0"/>
+      <c r="ACW381" s="0"/>
+      <c r="ACX381" s="0"/>
+      <c r="ACY381" s="0"/>
+      <c r="ACZ381" s="0"/>
+      <c r="ADA381" s="0"/>
+      <c r="ADB381" s="0"/>
+      <c r="ADC381" s="0"/>
+      <c r="ADD381" s="0"/>
+      <c r="ADE381" s="0"/>
+      <c r="ADF381" s="0"/>
+      <c r="ADG381" s="0"/>
+      <c r="ADH381" s="0"/>
+      <c r="ADI381" s="0"/>
+      <c r="ADJ381" s="0"/>
+      <c r="ADK381" s="0"/>
+      <c r="ADL381" s="0"/>
+      <c r="ADM381" s="0"/>
+      <c r="ADN381" s="0"/>
+      <c r="ADO381" s="0"/>
+      <c r="ADP381" s="0"/>
+      <c r="ADQ381" s="0"/>
+      <c r="ADR381" s="0"/>
+      <c r="ADS381" s="0"/>
+      <c r="ADT381" s="0"/>
+      <c r="ADU381" s="0"/>
+      <c r="ADV381" s="0"/>
+      <c r="ADW381" s="0"/>
+      <c r="ADX381" s="0"/>
+      <c r="ADY381" s="0"/>
+      <c r="ADZ381" s="0"/>
+      <c r="AEA381" s="0"/>
+      <c r="AEB381" s="0"/>
+      <c r="AEC381" s="0"/>
+      <c r="AED381" s="0"/>
+      <c r="AEE381" s="0"/>
+      <c r="AEF381" s="0"/>
+      <c r="AEG381" s="0"/>
+      <c r="AEH381" s="0"/>
+      <c r="AEI381" s="0"/>
+      <c r="AEJ381" s="0"/>
+      <c r="AEK381" s="0"/>
+      <c r="AEL381" s="0"/>
+      <c r="AEM381" s="0"/>
+      <c r="AEN381" s="0"/>
+      <c r="AEO381" s="0"/>
+      <c r="AEP381" s="0"/>
+      <c r="AEQ381" s="0"/>
+      <c r="AER381" s="0"/>
+      <c r="AES381" s="0"/>
+      <c r="AET381" s="0"/>
+      <c r="AEU381" s="0"/>
+      <c r="AEV381" s="0"/>
+      <c r="AEW381" s="0"/>
+      <c r="AEX381" s="0"/>
+      <c r="AEY381" s="0"/>
+      <c r="AEZ381" s="0"/>
+      <c r="AFA381" s="0"/>
+      <c r="AFB381" s="0"/>
+      <c r="AFC381" s="0"/>
+      <c r="AFD381" s="0"/>
+      <c r="AFE381" s="0"/>
+      <c r="AFF381" s="0"/>
+      <c r="AFG381" s="0"/>
+      <c r="AFH381" s="0"/>
+      <c r="AFI381" s="0"/>
+      <c r="AFJ381" s="0"/>
+      <c r="AFK381" s="0"/>
+      <c r="AFL381" s="0"/>
+      <c r="AFM381" s="0"/>
+      <c r="AFN381" s="0"/>
+      <c r="AFO381" s="0"/>
+      <c r="AFP381" s="0"/>
+      <c r="AFQ381" s="0"/>
+      <c r="AFR381" s="0"/>
+      <c r="AFS381" s="0"/>
+      <c r="AFT381" s="0"/>
+      <c r="AFU381" s="0"/>
+      <c r="AFV381" s="0"/>
+      <c r="AFW381" s="0"/>
+      <c r="AFX381" s="0"/>
+      <c r="AFY381" s="0"/>
+      <c r="AFZ381" s="0"/>
+      <c r="AGA381" s="0"/>
+      <c r="AGB381" s="0"/>
+      <c r="AGC381" s="0"/>
+      <c r="AGD381" s="0"/>
+      <c r="AGE381" s="0"/>
+      <c r="AGF381" s="0"/>
+      <c r="AGG381" s="0"/>
+      <c r="AGH381" s="0"/>
+      <c r="AGI381" s="0"/>
+      <c r="AGJ381" s="0"/>
+      <c r="AGK381" s="0"/>
+      <c r="AGL381" s="0"/>
+      <c r="AGM381" s="0"/>
+      <c r="AGN381" s="0"/>
+      <c r="AGO381" s="0"/>
+      <c r="AGP381" s="0"/>
+      <c r="AGQ381" s="0"/>
+      <c r="AGR381" s="0"/>
+      <c r="AGS381" s="0"/>
+      <c r="AGT381" s="0"/>
+      <c r="AGU381" s="0"/>
+      <c r="AGV381" s="0"/>
+      <c r="AGW381" s="0"/>
+      <c r="AGX381" s="0"/>
+      <c r="AGY381" s="0"/>
+      <c r="AGZ381" s="0"/>
+      <c r="AHA381" s="0"/>
+      <c r="AHB381" s="0"/>
+      <c r="AHC381" s="0"/>
+      <c r="AHD381" s="0"/>
+      <c r="AHE381" s="0"/>
+      <c r="AHF381" s="0"/>
+      <c r="AHG381" s="0"/>
+      <c r="AHH381" s="0"/>
+      <c r="AHI381" s="0"/>
+      <c r="AHJ381" s="0"/>
+      <c r="AHK381" s="0"/>
+      <c r="AHL381" s="0"/>
+      <c r="AHM381" s="0"/>
+      <c r="AHN381" s="0"/>
+      <c r="AHO381" s="0"/>
+      <c r="AHP381" s="0"/>
+      <c r="AHQ381" s="0"/>
+      <c r="AHR381" s="0"/>
+      <c r="AHS381" s="0"/>
+      <c r="AHT381" s="0"/>
+      <c r="AHU381" s="0"/>
+      <c r="AHV381" s="0"/>
+      <c r="AHW381" s="0"/>
+      <c r="AHX381" s="0"/>
+      <c r="AHY381" s="0"/>
+      <c r="AHZ381" s="0"/>
+      <c r="AIA381" s="0"/>
+      <c r="AIB381" s="0"/>
+      <c r="AIC381" s="0"/>
+      <c r="AID381" s="0"/>
+      <c r="AIE381" s="0"/>
+      <c r="AIF381" s="0"/>
+      <c r="AIG381" s="0"/>
+      <c r="AIH381" s="0"/>
+      <c r="AII381" s="0"/>
+      <c r="AIJ381" s="0"/>
+      <c r="AIK381" s="0"/>
+      <c r="AIL381" s="0"/>
+      <c r="AIM381" s="0"/>
+      <c r="AIN381" s="0"/>
+      <c r="AIO381" s="0"/>
+      <c r="AIP381" s="0"/>
+      <c r="AIQ381" s="0"/>
+      <c r="AIR381" s="0"/>
+      <c r="AIS381" s="0"/>
+      <c r="AIT381" s="0"/>
+      <c r="AIU381" s="0"/>
+      <c r="AIV381" s="0"/>
+      <c r="AIW381" s="0"/>
+      <c r="AIX381" s="0"/>
+      <c r="AIY381" s="0"/>
+      <c r="AIZ381" s="0"/>
+      <c r="AJA381" s="0"/>
+      <c r="AJB381" s="0"/>
+      <c r="AJC381" s="0"/>
+      <c r="AJD381" s="0"/>
+      <c r="AJE381" s="0"/>
+      <c r="AJF381" s="0"/>
+      <c r="AJG381" s="0"/>
+      <c r="AJH381" s="0"/>
+      <c r="AJI381" s="0"/>
+      <c r="AJJ381" s="0"/>
+      <c r="AJK381" s="0"/>
+      <c r="AJL381" s="0"/>
+      <c r="AJM381" s="0"/>
+      <c r="AJN381" s="0"/>
+      <c r="AJO381" s="0"/>
+      <c r="AJP381" s="0"/>
+      <c r="AJQ381" s="0"/>
+      <c r="AJR381" s="0"/>
+      <c r="AJS381" s="0"/>
+      <c r="AJT381" s="0"/>
+      <c r="AJU381" s="0"/>
+      <c r="AJV381" s="0"/>
+      <c r="AJW381" s="0"/>
+      <c r="AJX381" s="0"/>
+      <c r="AJY381" s="0"/>
+      <c r="AJZ381" s="0"/>
+      <c r="AKA381" s="0"/>
+      <c r="AKB381" s="0"/>
+      <c r="AKC381" s="0"/>
+      <c r="AKD381" s="0"/>
+      <c r="AKE381" s="0"/>
+      <c r="AKF381" s="0"/>
+      <c r="AKG381" s="0"/>
+      <c r="AKH381" s="0"/>
+      <c r="AKI381" s="0"/>
+      <c r="AKJ381" s="0"/>
+      <c r="AKK381" s="0"/>
+      <c r="AKL381" s="0"/>
+      <c r="AKM381" s="0"/>
+      <c r="AKN381" s="0"/>
+      <c r="AKO381" s="0"/>
+      <c r="AKP381" s="0"/>
+      <c r="AKQ381" s="0"/>
+      <c r="AKR381" s="0"/>
+      <c r="AKS381" s="0"/>
+      <c r="AKT381" s="0"/>
+      <c r="AKU381" s="0"/>
+      <c r="AKV381" s="0"/>
+      <c r="AKW381" s="0"/>
+      <c r="AKX381" s="0"/>
+      <c r="AKY381" s="0"/>
+      <c r="AKZ381" s="0"/>
+      <c r="ALA381" s="0"/>
+      <c r="ALB381" s="0"/>
+      <c r="ALC381" s="0"/>
+      <c r="ALD381" s="0"/>
+      <c r="ALE381" s="0"/>
+      <c r="ALF381" s="0"/>
+      <c r="ALG381" s="0"/>
+      <c r="ALH381" s="0"/>
+      <c r="ALI381" s="0"/>
+      <c r="ALJ381" s="0"/>
+      <c r="ALK381" s="0"/>
+      <c r="ALL381" s="0"/>
+      <c r="ALM381" s="0"/>
+      <c r="ALN381" s="0"/>
+      <c r="ALO381" s="0"/>
+      <c r="ALP381" s="0"/>
+      <c r="ALQ381" s="0"/>
+      <c r="ALR381" s="0"/>
+      <c r="ALS381" s="0"/>
+      <c r="ALT381" s="0"/>
+      <c r="ALU381" s="0"/>
+      <c r="ALV381" s="0"/>
+      <c r="ALW381" s="0"/>
+      <c r="ALX381" s="0"/>
+      <c r="ALY381" s="0"/>
+      <c r="ALZ381" s="0"/>
+      <c r="AMA381" s="0"/>
+      <c r="AMB381" s="0"/>
+      <c r="AMC381" s="0"/>
+      <c r="AMD381" s="0"/>
+      <c r="AME381" s="0"/>
+      <c r="AMF381" s="0"/>
+      <c r="AMG381" s="0"/>
+      <c r="AMH381" s="0"/>
+      <c r="AMI381" s="0"/>
+      <c r="AMJ381" s="0"/>
     </row>
     <row r="382" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A382" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B382" s="1" t="s">
         <v>1052</v>
       </c>
-      <c r="B382" s="1" t="s">
-        <v>1053</v>
-      </c>
       <c r="C382" s="1" t="s">
-        <v>187</v>
+        <v>1005</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>1054</v>
+        <v>1005</v>
       </c>
       <c r="F382" s="3"/>
       <c r="G382" s="4"/>
     </row>
     <row r="383" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A383" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D383" s="1" t="s">
         <v>1055</v>
-      </c>
-      <c r="B383" s="1" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C383" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D383" s="1" t="s">
-        <v>1057</v>
       </c>
       <c r="F383" s="3"/>
       <c r="G383" s="4"/>
     </row>
     <row r="384" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D384" s="1" t="s">
         <v>1058</v>
-      </c>
-      <c r="B384" s="1" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C384" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D384" s="1" t="s">
-        <v>1060</v>
       </c>
       <c r="F384" s="3"/>
       <c r="G384" s="4"/>
     </row>
     <row r="385" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A385" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D385" s="1" t="s">
         <v>1061</v>
-      </c>
-      <c r="B385" s="1" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C385" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D385" s="1" t="s">
-        <v>1063</v>
       </c>
       <c r="F385" s="3"/>
       <c r="G385" s="4"/>
     </row>
     <row r="386" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A386" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D386" s="1" t="s">
         <v>1064</v>
-      </c>
-      <c r="B386" s="1" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C386" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D386" s="1" t="s">
-        <v>1066</v>
       </c>
       <c r="F386" s="3"/>
       <c r="G386" s="4"/>
     </row>
     <row r="387" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A387" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D387" s="1" t="s">
         <v>1067</v>
-      </c>
-      <c r="B387" s="1" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C387" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D387" s="1" t="s">
-        <v>1069</v>
       </c>
       <c r="F387" s="3"/>
       <c r="G387" s="4"/>
     </row>
     <row r="388" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D388" s="1" t="s">
         <v>1070</v>
-      </c>
-      <c r="B388" s="1" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C388" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D388" s="1" t="s">
-        <v>1072</v>
       </c>
       <c r="F388" s="3"/>
       <c r="G388" s="4"/>
     </row>
     <row r="389" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A389" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D389" s="1" t="s">
         <v>1073</v>
-      </c>
-      <c r="B389" s="1" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C389" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D389" s="1" t="s">
-        <v>1075</v>
       </c>
       <c r="F389" s="3"/>
       <c r="G389" s="4"/>
     </row>
     <row r="390" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A390" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D390" s="1" t="s">
         <v>1076</v>
-      </c>
-      <c r="B390" s="1" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C390" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D390" s="1" t="s">
-        <v>1078</v>
       </c>
       <c r="F390" s="3"/>
       <c r="G390" s="4"/>
     </row>
     <row r="391" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D391" s="1" t="s">
         <v>1079</v>
-      </c>
-      <c r="B391" s="1" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C391" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D391" s="1" t="s">
-        <v>1081</v>
       </c>
       <c r="F391" s="3"/>
       <c r="G391" s="4"/>
     </row>
     <row r="392" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A392" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D392" s="1" t="s">
         <v>1082</v>
-      </c>
-      <c r="B392" s="1" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C392" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D392" s="1" t="s">
-        <v>1084</v>
       </c>
       <c r="F392" s="3"/>
       <c r="G392" s="4"/>
     </row>
     <row r="393" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A393" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D393" s="1" t="s">
         <v>1085</v>
-      </c>
-      <c r="B393" s="1" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C393" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D393" s="1" t="s">
-        <v>1086</v>
       </c>
       <c r="F393" s="3"/>
       <c r="G393" s="4"/>
     </row>
     <row r="394" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A394" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B394" s="1" t="s">
         <v>1087</v>
-      </c>
-      <c r="B394" s="1" t="s">
-        <v>1088</v>
       </c>
       <c r="C394" s="1" t="s">
         <v>187</v>
@@ -10930,687 +12978,691 @@
         <v>187</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F396" s="3"/>
       <c r="G396" s="4"/>
     </row>
     <row r="397" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A397" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B397" s="1" t="s">
         <v>1094</v>
       </c>
-      <c r="B397" s="1" t="s">
-        <v>1095</v>
-      </c>
       <c r="C397" s="1" t="s">
         <v>187</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="F397" s="3"/>
       <c r="G397" s="4"/>
     </row>
     <row r="398" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A398" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D398" s="1" t="s">
         <v>1097</v>
-      </c>
-      <c r="B398" s="1" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C398" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D398" s="1" t="s">
-        <v>1099</v>
       </c>
       <c r="F398" s="3"/>
       <c r="G398" s="4"/>
     </row>
     <row r="399" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A399" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D399" s="1" t="s">
         <v>1100</v>
-      </c>
-      <c r="B399" s="1" t="s">
-        <v>1101</v>
-      </c>
-      <c r="C399" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D399" s="1" t="s">
-        <v>1102</v>
       </c>
       <c r="F399" s="3"/>
       <c r="G399" s="4"/>
     </row>
     <row r="400" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A400" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D400" s="1" t="s">
         <v>1103</v>
-      </c>
-      <c r="B400" s="1" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C400" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D400" s="1" t="s">
-        <v>1105</v>
       </c>
       <c r="F400" s="3"/>
       <c r="G400" s="4"/>
     </row>
     <row r="401" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A401" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D401" s="1" t="s">
         <v>1106</v>
-      </c>
-      <c r="B401" s="1" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C401" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D401" s="1" t="s">
-        <v>1108</v>
       </c>
       <c r="F401" s="3"/>
       <c r="G401" s="4"/>
     </row>
     <row r="402" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A402" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D402" s="1" t="s">
         <v>1109</v>
-      </c>
-      <c r="B402" s="1" t="s">
-        <v>1110</v>
-      </c>
-      <c r="C402" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D402" s="1" t="s">
-        <v>1111</v>
       </c>
       <c r="F402" s="3"/>
       <c r="G402" s="4"/>
     </row>
     <row r="403" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A403" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C403" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D403" s="1" t="s">
         <v>1112</v>
-      </c>
-      <c r="B403" s="1" t="s">
-        <v>1113</v>
-      </c>
-      <c r="C403" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D403" s="1" t="s">
-        <v>1113</v>
       </c>
       <c r="F403" s="3"/>
       <c r="G403" s="4"/>
     </row>
     <row r="404" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A404" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B404" s="1" t="s">
         <v>1114</v>
       </c>
-      <c r="B404" s="1" t="s">
+      <c r="C404" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D404" s="1" t="s">
         <v>1115</v>
-      </c>
-      <c r="C404" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D404" s="1" t="s">
-        <v>1116</v>
       </c>
       <c r="F404" s="3"/>
       <c r="G404" s="4"/>
     </row>
     <row r="405" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A405" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B405" s="1" t="s">
         <v>1117</v>
       </c>
-      <c r="B405" s="1" t="s">
-        <v>1118</v>
-      </c>
       <c r="C405" s="1" t="s">
         <v>187</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="F405" s="3"/>
       <c r="G405" s="4"/>
     </row>
     <row r="406" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A406" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D406" s="1" t="s">
         <v>1120</v>
-      </c>
-      <c r="B406" s="1" t="s">
-        <v>1121</v>
-      </c>
-      <c r="C406" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D406" s="1" t="s">
-        <v>1122</v>
       </c>
       <c r="F406" s="3"/>
       <c r="G406" s="4"/>
     </row>
     <row r="407" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A407" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D407" s="1" t="s">
         <v>1123</v>
-      </c>
-      <c r="B407" s="1" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C407" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D407" s="1" t="s">
-        <v>1125</v>
       </c>
       <c r="F407" s="3"/>
       <c r="G407" s="4"/>
     </row>
     <row r="408" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A408" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D408" s="1" t="s">
         <v>1126</v>
-      </c>
-      <c r="B408" s="1" t="s">
-        <v>1127</v>
-      </c>
-      <c r="C408" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D408" s="1" t="s">
-        <v>1128</v>
       </c>
       <c r="F408" s="3"/>
       <c r="G408" s="4"/>
     </row>
     <row r="409" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A409" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D409" s="1" t="s">
         <v>1129</v>
-      </c>
-      <c r="B409" s="1" t="s">
-        <v>1130</v>
-      </c>
-      <c r="C409" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D409" s="1" t="s">
-        <v>1131</v>
       </c>
       <c r="F409" s="3"/>
       <c r="G409" s="4"/>
     </row>
     <row r="410" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A410" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D410" s="1" t="s">
         <v>1132</v>
-      </c>
-      <c r="B410" s="1" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C410" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D410" s="1" t="s">
-        <v>1134</v>
       </c>
       <c r="F410" s="3"/>
       <c r="G410" s="4"/>
     </row>
     <row r="411" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A411" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D411" s="1" t="s">
         <v>1135</v>
-      </c>
-      <c r="B411" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C411" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D411" s="1" t="s">
-        <v>1137</v>
       </c>
       <c r="F411" s="3"/>
       <c r="G411" s="4"/>
     </row>
     <row r="412" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A412" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D412" s="1" t="s">
         <v>1138</v>
-      </c>
-      <c r="B412" s="1" t="s">
-        <v>1139</v>
-      </c>
-      <c r="C412" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D412" s="1" t="s">
-        <v>1140</v>
       </c>
       <c r="F412" s="3"/>
       <c r="G412" s="4"/>
     </row>
     <row r="413" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A413" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D413" s="1" t="s">
         <v>1141</v>
-      </c>
-      <c r="B413" s="1" t="s">
-        <v>1142</v>
-      </c>
-      <c r="C413" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D413" s="1" t="s">
-        <v>1143</v>
       </c>
       <c r="F413" s="3"/>
       <c r="G413" s="4"/>
     </row>
     <row r="414" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A414" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D414" s="1" t="s">
         <v>1144</v>
-      </c>
-      <c r="B414" s="1" t="s">
-        <v>1145</v>
-      </c>
-      <c r="C414" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D414" s="1" t="s">
-        <v>1145</v>
       </c>
       <c r="F414" s="3"/>
       <c r="G414" s="4"/>
     </row>
     <row r="415" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A415" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B415" s="1" t="s">
         <v>1146</v>
       </c>
-      <c r="B415" s="1" t="s">
+      <c r="C415" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D415" s="1" t="s">
         <v>1147</v>
-      </c>
-      <c r="C415" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D415" s="1" t="s">
-        <v>1148</v>
       </c>
       <c r="F415" s="3"/>
       <c r="G415" s="4"/>
     </row>
     <row r="416" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A416" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B416" s="1" t="s">
         <v>1149</v>
       </c>
-      <c r="B416" s="1" t="s">
-        <v>1150</v>
-      </c>
       <c r="C416" s="1" t="s">
         <v>187</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="F416" s="3"/>
       <c r="G416" s="4"/>
     </row>
     <row r="417" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A417" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D417" s="1" t="s">
         <v>1152</v>
-      </c>
-      <c r="B417" s="1" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C417" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D417" s="1" t="s">
-        <v>1154</v>
       </c>
       <c r="F417" s="3"/>
       <c r="G417" s="4"/>
     </row>
     <row r="418" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A418" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D418" s="1" t="s">
         <v>1155</v>
-      </c>
-      <c r="B418" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C418" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D418" s="1" t="s">
-        <v>1156</v>
       </c>
       <c r="F418" s="3"/>
       <c r="G418" s="4"/>
     </row>
     <row r="419" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A419" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B419" s="1" t="s">
         <v>1157</v>
       </c>
-      <c r="B419" s="1" t="s">
+      <c r="C419" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D419" s="1" t="s">
         <v>1158</v>
-      </c>
-      <c r="C419" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D419" s="1" t="s">
-        <v>1159</v>
       </c>
       <c r="F419" s="3"/>
       <c r="G419" s="4"/>
     </row>
     <row r="420" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A420" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D420" s="1" t="s">
         <v>1160</v>
-      </c>
-      <c r="B420" s="1" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C420" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D420" s="1" t="s">
-        <v>1162</v>
       </c>
       <c r="F420" s="3"/>
       <c r="G420" s="4"/>
     </row>
     <row r="421" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A421" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D421" s="1" t="s">
         <v>1163</v>
-      </c>
-      <c r="B421" s="1" t="s">
-        <v>1164</v>
-      </c>
-      <c r="C421" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D421" s="1" t="s">
-        <v>1165</v>
       </c>
       <c r="F421" s="3"/>
       <c r="G421" s="4"/>
     </row>
     <row r="422" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A422" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D422" s="1" t="s">
         <v>1166</v>
-      </c>
-      <c r="B422" s="1" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C422" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D422" s="1" t="s">
-        <v>1168</v>
       </c>
       <c r="F422" s="3"/>
       <c r="G422" s="4"/>
     </row>
     <row r="423" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A423" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C423" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D423" s="1" t="s">
         <v>1169</v>
       </c>
-      <c r="B423" s="1" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C423" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D423" s="1" t="s">
-        <v>1171</v>
-      </c>
       <c r="F423" s="3"/>
-      <c r="G423" s="5"/>
+      <c r="G423" s="4"/>
     </row>
     <row r="424" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A424" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D424" s="1" t="s">
         <v>1172</v>
       </c>
-      <c r="B424" s="1" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C424" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D424" s="1" t="s">
-        <v>1174</v>
-      </c>
       <c r="F424" s="3"/>
-      <c r="G424" s="5"/>
+      <c r="G424" s="4"/>
     </row>
     <row r="425" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A425" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D425" s="1" t="s">
         <v>1175</v>
-      </c>
-      <c r="B425" s="1" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C425" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D425" s="1" t="s">
-        <v>1177</v>
       </c>
       <c r="F425" s="3"/>
       <c r="G425" s="5"/>
     </row>
     <row r="426" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A426" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D426" s="1" t="s">
         <v>1178</v>
-      </c>
-      <c r="B426" s="1" t="s">
-        <v>1179</v>
-      </c>
-      <c r="C426" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D426" s="1" t="s">
-        <v>1180</v>
       </c>
       <c r="F426" s="3"/>
       <c r="G426" s="5"/>
     </row>
     <row r="427" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A427" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C427" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D427" s="1" t="s">
         <v>1181</v>
-      </c>
-      <c r="B427" s="1" t="s">
-        <v>878</v>
-      </c>
-      <c r="C427" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D427" s="1" t="s">
-        <v>1182</v>
       </c>
       <c r="F427" s="3"/>
       <c r="G427" s="5"/>
     </row>
     <row r="428" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A428" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B428" s="1" t="s">
         <v>1183</v>
       </c>
-      <c r="B428" s="1" t="s">
+      <c r="C428" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D428" s="1" t="s">
         <v>1184</v>
       </c>
-      <c r="C428" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D428" s="1" t="s">
-        <v>1185</v>
-      </c>
+      <c r="F428" s="3"/>
+      <c r="G428" s="5"/>
     </row>
     <row r="429" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A429" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="C429" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D429" s="1" t="s">
         <v>1186</v>
       </c>
-      <c r="B429" s="1" t="s">
-        <v>1187</v>
-      </c>
-      <c r="C429" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D429" s="1" t="s">
-        <v>1188</v>
-      </c>
+      <c r="F429" s="3"/>
+      <c r="G429" s="5"/>
     </row>
     <row r="430" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A430" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C430" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D430" s="1" t="s">
         <v>1189</v>
-      </c>
-      <c r="B430" s="1" t="s">
-        <v>1190</v>
-      </c>
-      <c r="C430" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D430" s="1" t="s">
-        <v>1191</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A431" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C431" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D431" s="1" t="s">
         <v>1192</v>
-      </c>
-      <c r="B431" s="1" t="s">
-        <v>1193</v>
-      </c>
-      <c r="C431" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D431" s="1" t="s">
-        <v>1194</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A432" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D432" s="1" t="s">
         <v>1195</v>
-      </c>
-      <c r="B432" s="1" t="s">
-        <v>1196</v>
-      </c>
-      <c r="C432" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D432" s="1" t="s">
-        <v>1197</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A433" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C433" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D433" s="1" t="s">
         <v>1198</v>
-      </c>
-      <c r="B433" s="1" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C433" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D433" s="1" t="s">
-        <v>1200</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A434" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C434" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D434" s="1" t="s">
         <v>1201</v>
-      </c>
-      <c r="B434" s="1" t="s">
-        <v>1202</v>
-      </c>
-      <c r="C434" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D434" s="1" t="s">
-        <v>1203</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A435" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C435" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D435" s="1" t="s">
         <v>1204</v>
-      </c>
-      <c r="B435" s="1" t="s">
-        <v>1205</v>
-      </c>
-      <c r="C435" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D435" s="1" t="s">
-        <v>1206</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A436" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C436" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D436" s="1" t="s">
         <v>1207</v>
-      </c>
-      <c r="B436" s="1" t="s">
-        <v>1208</v>
-      </c>
-      <c r="C436" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D436" s="1" t="s">
-        <v>1209</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A437" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C437" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D437" s="1" t="s">
         <v>1210</v>
-      </c>
-      <c r="B437" s="1" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C437" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D437" s="1" t="s">
-        <v>1212</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A438" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C438" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D438" s="1" t="s">
         <v>1213</v>
-      </c>
-      <c r="B438" s="1" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C438" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D438" s="1" t="s">
-        <v>1215</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A439" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C439" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D439" s="1" t="s">
         <v>1216</v>
-      </c>
-      <c r="B439" s="1" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C439" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D439" s="1" t="s">
-        <v>1217</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A440" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B440" s="1" t="s">
         <v>1218</v>
       </c>
-      <c r="B440" s="1" t="s">
+      <c r="C440" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D440" s="1" t="s">
         <v>1219</v>
-      </c>
-      <c r="C440" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D440" s="1" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11618,475 +13670,475 @@
         <v>1220</v>
       </c>
       <c r="B441" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C441" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D441" s="1" t="s">
         <v>1221</v>
-      </c>
-      <c r="C441" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D441" s="1" t="s">
-        <v>1222</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A442" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B442" s="1" t="s">
         <v>1223</v>
       </c>
-      <c r="B442" s="1" t="s">
-        <v>1224</v>
-      </c>
       <c r="C442" s="1" t="s">
         <v>187</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>1225</v>
+        <v>663</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A443" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C443" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D443" s="1" t="s">
         <v>1226</v>
-      </c>
-      <c r="B443" s="1" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C443" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D443" s="1" t="s">
-        <v>1228</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A444" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C444" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D444" s="1" t="s">
         <v>1229</v>
-      </c>
-      <c r="B444" s="1" t="s">
-        <v>1230</v>
-      </c>
-      <c r="C444" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D444" s="1" t="s">
-        <v>1231</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A445" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C445" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D445" s="1" t="s">
         <v>1232</v>
-      </c>
-      <c r="B445" s="1" t="s">
-        <v>1233</v>
-      </c>
-      <c r="C445" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D445" s="1" t="s">
-        <v>1234</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A446" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C446" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D446" s="1" t="s">
         <v>1235</v>
-      </c>
-      <c r="B446" s="1" t="s">
-        <v>1236</v>
-      </c>
-      <c r="C446" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D446" s="1" t="s">
-        <v>1237</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A447" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C447" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D447" s="1" t="s">
         <v>1238</v>
-      </c>
-      <c r="B447" s="1" t="s">
-        <v>1239</v>
-      </c>
-      <c r="C447" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D447" s="1" t="s">
-        <v>1240</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A448" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C448" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D448" s="1" t="s">
         <v>1241</v>
-      </c>
-      <c r="B448" s="1" t="s">
-        <v>1242</v>
-      </c>
-      <c r="C448" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D448" s="1" t="s">
-        <v>1243</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A449" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C449" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D449" s="1" t="s">
         <v>1244</v>
-      </c>
-      <c r="B449" s="1" t="s">
-        <v>1245</v>
-      </c>
-      <c r="C449" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D449" s="1" t="s">
-        <v>1246</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A450" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C450" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D450" s="1" t="s">
         <v>1247</v>
-      </c>
-      <c r="B450" s="1" t="s">
-        <v>1248</v>
-      </c>
-      <c r="C450" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D450" s="1" t="s">
-        <v>1249</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A451" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C451" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D451" s="1" t="s">
         <v>1250</v>
-      </c>
-      <c r="B451" s="1" t="s">
-        <v>881</v>
-      </c>
-      <c r="C451" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D451" s="1" t="s">
-        <v>1251</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A452" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B452" s="1" t="s">
         <v>1252</v>
       </c>
-      <c r="B452" s="1" t="s">
+      <c r="C452" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D452" s="1" t="s">
         <v>1253</v>
-      </c>
-      <c r="C452" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D452" s="1" t="s">
-        <v>1254</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A453" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="C453" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D453" s="1" t="s">
         <v>1255</v>
-      </c>
-      <c r="B453" s="1" t="s">
-        <v>1256</v>
-      </c>
-      <c r="C453" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D453" s="1" t="s">
-        <v>1257</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A454" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C454" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D454" s="1" t="s">
         <v>1258</v>
-      </c>
-      <c r="B454" s="1" t="s">
-        <v>1259</v>
-      </c>
-      <c r="C454" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D454" s="1" t="s">
-        <v>1260</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A455" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C455" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D455" s="1" t="s">
         <v>1261</v>
-      </c>
-      <c r="B455" s="1" t="s">
-        <v>1262</v>
-      </c>
-      <c r="C455" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D455" s="1" t="s">
-        <v>1263</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A456" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C456" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D456" s="1" t="s">
         <v>1264</v>
-      </c>
-      <c r="B456" s="1" t="s">
-        <v>1265</v>
-      </c>
-      <c r="C456" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D456" s="1" t="s">
-        <v>1266</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A457" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C457" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D457" s="1" t="s">
         <v>1267</v>
-      </c>
-      <c r="B457" s="1" t="s">
-        <v>1268</v>
-      </c>
-      <c r="C457" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D457" s="1" t="s">
-        <v>1269</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A458" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C458" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D458" s="1" t="s">
         <v>1270</v>
-      </c>
-      <c r="B458" s="1" t="s">
-        <v>1271</v>
-      </c>
-      <c r="C458" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D458" s="1" t="s">
-        <v>1272</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A459" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C459" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D459" s="1" t="s">
         <v>1273</v>
-      </c>
-      <c r="B459" s="1" t="s">
-        <v>1274</v>
-      </c>
-      <c r="C459" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D459" s="1" t="s">
-        <v>1275</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A460" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C460" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D460" s="1" t="s">
         <v>1276</v>
-      </c>
-      <c r="B460" s="1" t="s">
-        <v>1277</v>
-      </c>
-      <c r="C460" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D460" s="1" t="s">
-        <v>1278</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A461" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C461" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D461" s="1" t="s">
         <v>1279</v>
-      </c>
-      <c r="B461" s="1" t="s">
-        <v>1280</v>
-      </c>
-      <c r="C461" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D461" s="1" t="s">
-        <v>1281</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A462" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C462" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D462" s="1" t="s">
         <v>1282</v>
-      </c>
-      <c r="B462" s="1" t="s">
-        <v>1283</v>
-      </c>
-      <c r="C462" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D462" s="1" t="s">
-        <v>1284</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A463" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C463" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D463" s="1" t="s">
         <v>1285</v>
-      </c>
-      <c r="B463" s="1" t="s">
-        <v>1286</v>
-      </c>
-      <c r="C463" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D463" s="1" t="s">
-        <v>1287</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A464" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C464" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D464" s="1" t="s">
         <v>1288</v>
-      </c>
-      <c r="B464" s="1" t="s">
-        <v>1289</v>
-      </c>
-      <c r="C464" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D464" s="1" t="s">
-        <v>1290</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A465" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C465" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D465" s="1" t="s">
         <v>1291</v>
-      </c>
-      <c r="B465" s="1" t="s">
-        <v>1292</v>
-      </c>
-      <c r="C465" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D465" s="1" t="s">
-        <v>1293</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A466" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C466" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D466" s="1" t="s">
         <v>1294</v>
-      </c>
-      <c r="B466" s="1" t="s">
-        <v>1295</v>
-      </c>
-      <c r="C466" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D466" s="1" t="s">
-        <v>1296</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A467" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C467" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D467" s="1" t="s">
         <v>1297</v>
-      </c>
-      <c r="B467" s="1" t="s">
-        <v>1298</v>
-      </c>
-      <c r="C467" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D467" s="1" t="s">
-        <v>1299</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A468" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C468" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D468" s="1" t="s">
         <v>1300</v>
-      </c>
-      <c r="B468" s="1" t="s">
-        <v>1301</v>
-      </c>
-      <c r="C468" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D468" s="1" t="s">
-        <v>1302</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A469" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C469" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D469" s="1" t="s">
         <v>1303</v>
-      </c>
-      <c r="B469" s="1" t="s">
-        <v>1304</v>
-      </c>
-      <c r="C469" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D469" s="1" t="s">
-        <v>1305</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A470" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C470" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D470" s="1" t="s">
         <v>1306</v>
-      </c>
-      <c r="B470" s="1" t="s">
-        <v>1307</v>
-      </c>
-      <c r="C470" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D470" s="1" t="s">
-        <v>1308</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A471" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C471" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D471" s="1" t="s">
         <v>1309</v>
-      </c>
-      <c r="B471" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="C471" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D471" s="1" t="s">
-        <v>1311</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A472" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C472" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D472" s="1" t="s">
         <v>1312</v>
-      </c>
-      <c r="B472" s="1" t="s">
-        <v>1313</v>
-      </c>
-      <c r="C472" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D472" s="1" t="s">
-        <v>1314</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A473" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C473" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D473" s="1" t="s">
         <v>1315</v>
-      </c>
-      <c r="B473" s="1" t="s">
-        <v>1316</v>
-      </c>
-      <c r="C473" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D473" s="1" t="s">
-        <v>1317</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A474" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C474" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D474" s="1" t="s">
         <v>1318</v>
-      </c>
-      <c r="B474" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="C474" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D474" s="1" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12108,749 +14160,746 @@
         <v>1322</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>1323</v>
+        <v>662</v>
       </c>
       <c r="C476" s="1" t="s">
         <v>187</v>
       </c>
       <c r="D476" s="1" t="s">
-        <v>1324</v>
+        <v>662</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A477" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C477" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D477" s="1" t="s">
         <v>1325</v>
-      </c>
-      <c r="B477" s="1" t="s">
-        <v>1326</v>
-      </c>
-      <c r="C477" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D477" s="1" t="s">
-        <v>1327</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A478" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C478" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D478" s="1" t="s">
         <v>1328</v>
-      </c>
-      <c r="B478" s="1" t="s">
-        <v>1329</v>
-      </c>
-      <c r="C478" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D478" s="1" t="s">
-        <v>1330</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A479" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C479" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D479" s="1" t="s">
         <v>1331</v>
-      </c>
-      <c r="B479" s="1" t="s">
-        <v>890</v>
-      </c>
-      <c r="C479" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D479" s="1" t="s">
-        <v>1332</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A480" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B480" s="1" t="s">
         <v>1333</v>
       </c>
-      <c r="B480" s="1" t="s">
+      <c r="C480" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D480" s="1" t="s">
         <v>1334</v>
-      </c>
-      <c r="C480" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D480" s="1" t="s">
-        <v>1335</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A481" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="C481" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D481" s="1" t="s">
         <v>1336</v>
-      </c>
-      <c r="B481" s="1" t="s">
-        <v>1337</v>
-      </c>
-      <c r="C481" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D481" s="1" t="s">
-        <v>1338</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A482" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C482" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D482" s="1" t="s">
         <v>1339</v>
-      </c>
-      <c r="B482" s="1" t="s">
-        <v>1340</v>
-      </c>
-      <c r="C482" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D482" s="1" t="s">
-        <v>1341</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A483" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C483" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D483" s="1" t="s">
         <v>1342</v>
-      </c>
-      <c r="B483" s="1" t="s">
-        <v>1343</v>
-      </c>
-      <c r="C483" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D483" s="1" t="s">
-        <v>1344</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A484" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C484" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D484" s="1" t="s">
         <v>1345</v>
-      </c>
-      <c r="B484" s="1" t="s">
-        <v>1346</v>
-      </c>
-      <c r="C484" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D484" s="1" t="s">
-        <v>1347</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A485" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C485" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D485" s="1" t="s">
         <v>1348</v>
-      </c>
-      <c r="B485" s="1" t="s">
-        <v>1349</v>
-      </c>
-      <c r="C485" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D485" s="1" t="s">
-        <v>1350</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A486" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C486" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D486" s="1" t="s">
         <v>1351</v>
-      </c>
-      <c r="B486" s="1" t="s">
-        <v>1352</v>
-      </c>
-      <c r="C486" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D486" s="1" t="s">
-        <v>1353</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A487" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C487" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D487" s="1" t="s">
         <v>1354</v>
-      </c>
-      <c r="B487" s="1" t="s">
-        <v>1355</v>
-      </c>
-      <c r="C487" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D487" s="1" t="s">
-        <v>1356</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A488" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C488" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D488" s="1" t="s">
         <v>1357</v>
-      </c>
-      <c r="B488" s="1" t="s">
-        <v>1358</v>
-      </c>
-      <c r="C488" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D488" s="1" t="s">
-        <v>1359</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A489" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C489" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D489" s="1" t="s">
         <v>1360</v>
-      </c>
-      <c r="B489" s="1" t="s">
-        <v>1361</v>
-      </c>
-      <c r="C489" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D489" s="1" t="s">
-        <v>1362</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A490" s="1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C490" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D490" s="1" t="s">
         <v>1363</v>
-      </c>
-      <c r="B490" s="1" t="s">
-        <v>1364</v>
-      </c>
-      <c r="C490" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D490" s="1" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A491" s="1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C491" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D491" s="1" t="s">
         <v>1366</v>
-      </c>
-      <c r="B491" s="1" t="s">
-        <v>1367</v>
-      </c>
-      <c r="C491" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D491" s="1" t="s">
-        <v>1368</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A492" s="1" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C492" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D492" s="1" t="s">
         <v>1369</v>
-      </c>
-      <c r="B492" s="1" t="s">
-        <v>1370</v>
-      </c>
-      <c r="C492" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D492" s="1" t="s">
-        <v>1371</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A493" s="1" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C493" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D493" s="1" t="s">
         <v>1372</v>
-      </c>
-      <c r="B493" s="1" t="s">
-        <v>1373</v>
-      </c>
-      <c r="C493" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D493" s="1" t="s">
-        <v>1374</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A494" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C494" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D494" s="1" t="s">
         <v>1375</v>
-      </c>
-      <c r="B494" s="1" t="s">
-        <v>1376</v>
-      </c>
-      <c r="C494" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D494" s="1" t="s">
-        <v>1377</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A495" s="1" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C495" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D495" s="1" t="s">
         <v>1378</v>
-      </c>
-      <c r="B495" s="1" t="s">
-        <v>1379</v>
-      </c>
-      <c r="C495" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D495" s="1" t="s">
-        <v>1380</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A496" s="1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C496" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D496" s="1" t="s">
         <v>1381</v>
-      </c>
-      <c r="B496" s="1" t="s">
-        <v>1382</v>
-      </c>
-      <c r="C496" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D496" s="1" t="s">
-        <v>1383</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A497" s="1" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C497" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D497" s="1" t="s">
         <v>1384</v>
-      </c>
-      <c r="B497" s="1" t="s">
-        <v>1385</v>
-      </c>
-      <c r="C497" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D497" s="1" t="s">
-        <v>1386</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A498" s="1" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C498" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D498" s="1" t="s">
         <v>1387</v>
-      </c>
-      <c r="B498" s="1" t="s">
-        <v>1388</v>
-      </c>
-      <c r="C498" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D498" s="1" t="s">
-        <v>1389</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A499" s="1" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C499" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D499" s="1" t="s">
         <v>1390</v>
-      </c>
-      <c r="B499" s="1" t="s">
-        <v>1391</v>
-      </c>
-      <c r="C499" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D499" s="1" t="s">
-        <v>1392</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A500" s="1" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C500" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D500" s="1" t="s">
         <v>1393</v>
-      </c>
-      <c r="B500" s="1" t="s">
-        <v>1394</v>
-      </c>
-      <c r="C500" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D500" s="1" t="s">
-        <v>1395</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A501" s="1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C501" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D501" s="1" t="s">
         <v>1396</v>
-      </c>
-      <c r="B501" s="1" t="s">
-        <v>1397</v>
-      </c>
-      <c r="C501" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D501" s="1" t="s">
-        <v>1398</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A502" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C502" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D502" s="1" t="s">
         <v>1399</v>
-      </c>
-      <c r="B502" s="1" t="s">
-        <v>1400</v>
-      </c>
-      <c r="C502" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D502" s="1" t="s">
-        <v>1401</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A503" s="1" t="s">
-        <v>1402</v>
-      </c>
-      <c r="B503" s="1" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="C503" s="1" t="s">
         <v>187</v>
       </c>
       <c r="D503" s="1" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A504" s="1" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="C504" s="1" t="s">
         <v>187</v>
       </c>
       <c r="D504" s="1" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A505" s="1" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="C505" s="1" t="s">
         <v>187</v>
       </c>
       <c r="D505" s="1" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A506" s="1" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>62</v>
+        <v>1409</v>
       </c>
       <c r="C506" s="1" t="s">
         <v>187</v>
       </c>
       <c r="D506" s="1" t="s">
-        <v>63</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A507" s="1" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B507" s="1" t="s">
         <v>1412</v>
       </c>
-      <c r="B507" s="1" t="s">
+      <c r="C507" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D507" s="1" t="s">
         <v>1413</v>
-      </c>
-      <c r="C507" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D507" s="1" t="s">
-        <v>1414</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A508" s="1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B508" s="1" t="s">
         <v>1415</v>
       </c>
-      <c r="B508" s="1" t="s">
+      <c r="C508" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D508" s="1" t="s">
         <v>1416</v>
-      </c>
-      <c r="C508" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D508" s="1" t="s">
-        <v>1417</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A509" s="1" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>1419</v>
+        <v>62</v>
       </c>
       <c r="C509" s="1" t="s">
         <v>187</v>
       </c>
       <c r="D509" s="1" t="s">
-        <v>1420</v>
+        <v>63</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A510" s="1" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="C510" s="1" t="s">
         <v>187</v>
       </c>
       <c r="D510" s="1" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A511" s="1" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="C511" s="1" t="s">
         <v>187</v>
       </c>
       <c r="D511" s="1" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A512" s="1" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="C512" s="1" t="s">
         <v>187</v>
       </c>
       <c r="D512" s="1" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A513" s="1" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="C513" s="1" t="s">
         <v>187</v>
       </c>
       <c r="D513" s="1" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A514" s="1" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="C514" s="1" t="s">
         <v>187</v>
       </c>
       <c r="D514" s="1" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A515" s="1" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="C515" s="1" t="s">
         <v>187</v>
       </c>
       <c r="D515" s="1" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A516" s="1" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="C516" s="1" t="s">
         <v>187</v>
       </c>
       <c r="D516" s="1" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A517" s="1" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="C517" s="1" t="s">
         <v>187</v>
       </c>
       <c r="D517" s="1" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A518" s="1" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="C518" s="1" t="s">
         <v>187</v>
       </c>
       <c r="D518" s="1" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A519" s="1" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="C519" s="1" t="s">
         <v>187</v>
       </c>
       <c r="D519" s="1" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A520" s="1" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="C520" s="1" t="s">
         <v>187</v>
       </c>
       <c r="D520" s="1" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A521" s="1" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>893</v>
+        <v>1452</v>
       </c>
       <c r="C521" s="1" t="s">
         <v>187</v>
       </c>
       <c r="D521" s="1" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A522" s="1" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C522" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D522" s="1" t="s">
         <v>1456</v>
-      </c>
-      <c r="B522" s="1" t="s">
-        <v>1457</v>
-      </c>
-      <c r="C522" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D522" s="1" t="s">
-        <v>1457</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A523" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B523" s="1" t="s">
         <v>1458</v>
       </c>
-      <c r="B523" s="1" t="s">
+      <c r="C523" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D523" s="1" t="s">
         <v>1459</v>
-      </c>
-      <c r="C523" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D523" s="1" t="s">
-        <v>1460</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A524" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="C524" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D524" s="1" t="s">
         <v>1461</v>
-      </c>
-      <c r="B524" s="1" t="s">
-        <v>1462</v>
-      </c>
-      <c r="C524" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D524" s="1" t="s">
-        <v>1463</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A525" s="1" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="C525" s="1" t="s">
         <v>187</v>
       </c>
       <c r="D525" s="1" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A526" s="1" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="C526" s="1" t="s">
         <v>187</v>
       </c>
       <c r="D526" s="1" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A527" s="1" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="B527" s="1" t="s">
-        <v>818</v>
+        <v>1468</v>
       </c>
       <c r="C527" s="1" t="s">
         <v>187</v>
       </c>
       <c r="D527" s="1" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A528" s="1" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C528" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D528" s="1" t="s">
         <v>1472</v>
-      </c>
-      <c r="B528" s="1" t="s">
-        <v>1473</v>
-      </c>
-      <c r="C528" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D528" s="1" t="s">
-        <v>1473</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A529" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B529" s="1" t="s">
         <v>1474</v>
-      </c>
-      <c r="B529" s="1" t="s">
-        <v>1475</v>
       </c>
       <c r="C529" s="1" t="s">
         <v>187</v>
@@ -12864,13 +14913,55 @@
         <v>1476</v>
       </c>
       <c r="B530" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="C530" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D530" s="1" t="s">
         <v>1477</v>
       </c>
-      <c r="C530" s="1" t="s">
+    </row>
+    <row r="531" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A531" s="1" t="s">
         <v>1478</v>
       </c>
-      <c r="D530" s="1" t="s">
+      <c r="B531" s="1" t="s">
         <v>1479</v>
+      </c>
+      <c r="C531" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D531" s="1" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="532" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A532" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C532" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D532" s="1" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="533" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A533" s="1" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C533" s="1" t="s">
+        <v>1484</v>
+      </c>
+      <c r="D533" s="1" t="s">
+        <v>1485</v>
       </c>
     </row>
   </sheetData>

--- a/AltController/Translation/Translation_de-DE.xlsx
+++ b/AltController/Translation/Translation_de-DE.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2129" uniqueCount="1486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2153" uniqueCount="1504">
   <si>
     <t xml:space="preserve">String_ID</t>
   </si>
@@ -4478,6 +4478,60 @@
   </si>
   <si>
     <t xml:space="preserve">Profile summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action_TimeToMaxLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zeit bis max (Sek.):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time to reach max (s):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action_TimeToMinLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Runterfahrzeit (Sek.):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time to auto cancel (s):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String_to_auto_cancel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">runterfahren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to auto cancel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String_to_reach_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bis max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to reach max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String_CompatibilityLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zur Kompatibilität mit früheren Versionen vorgesehen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provided for compatibility with previous versions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String_Additional_options</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zusätzliche Optionen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional options</t>
   </si>
 </sst>
 </file>
@@ -4608,10 +4662,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ533"/>
+  <dimension ref="A1:AMJ539"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A490" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A503" activeCellId="0" sqref="A503"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A517" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A539" activeCellId="0" sqref="A539"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="15.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14964,6 +15018,90 @@
         <v>1485</v>
       </c>
     </row>
+    <row r="534" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A534" s="1" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C534" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D534" s="1" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A535" s="1" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C535" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D535" s="1" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A536" s="1" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C536" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D536" s="1" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A537" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C537" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D537" s="1" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A538" s="1" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C538" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D538" s="1" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A539" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C539" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D539" s="1" t="s">
+        <v>1503</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/AltController/Translation/Translation_de-DE.xlsx
+++ b/AltController/Translation/Translation_de-DE.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2153" uniqueCount="1504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="1506">
   <si>
     <t xml:space="preserve">String_ID</t>
   </si>
@@ -730,10 +730,10 @@
     <t xml:space="preserve">Custom_ButtonTranslucencyLabel</t>
   </si>
   <si>
-    <t xml:space="preserve">Transparenz:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Translucency:</t>
+    <t xml:space="preserve">Transparenz (%):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translucency (%):</t>
   </si>
   <si>
     <t xml:space="preserve">Custom_ButtonWidthLabel</t>
@@ -2383,6 +2383,15 @@
     <t xml:space="preserve">Pointer indicator style:</t>
   </si>
   <si>
+    <t xml:space="preserve">Options_DefaultRegionTranslucencyLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Region Transparenz (%):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default region translucency (%):</t>
+  </si>
+  <si>
     <t xml:space="preserve">Options_ResetButton</t>
   </si>
   <si>
@@ -3017,9 +3026,6 @@
   </si>
   <si>
     <t xml:space="preserve">Regions_TranslucencyLabel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Image translucency:</t>
   </si>
   <si>
     <t xml:space="preserve">Regions_WidthLabel</t>
@@ -4662,10 +4668,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ539"/>
+  <dimension ref="A1:AMJ540"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A517" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A539" activeCellId="0" sqref="A539"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D86" activeCellId="0" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="15.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9303,23 +9309,23 @@
         <v>788</v>
       </c>
       <c r="C290" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="D290" s="1" t="s">
         <v>789</v>
-      </c>
-      <c r="D290" s="1" t="s">
-        <v>790</v>
       </c>
       <c r="F290" s="3"/>
       <c r="G290" s="4"/>
     </row>
     <row r="291" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="B291" s="1" t="s">
         <v>791</v>
       </c>
-      <c r="B291" s="1" t="s">
+      <c r="C291" s="1" t="s">
         <v>792</v>
-      </c>
-      <c r="C291" s="1" t="s">
-        <v>789</v>
       </c>
       <c r="D291" s="1" t="s">
         <v>793</v>
@@ -9335,7 +9341,7 @@
         <v>795</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>684</v>
+        <v>792</v>
       </c>
       <c r="D292" s="1" t="s">
         <v>796</v>
@@ -9351,7 +9357,7 @@
         <v>798</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="D293" s="1" t="s">
         <v>799</v>
@@ -9367,7 +9373,7 @@
         <v>801</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D294" s="1" t="s">
         <v>802</v>
@@ -9383,23 +9389,23 @@
         <v>804</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>731</v>
+        <v>684</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="F295" s="3"/>
       <c r="G295" s="4"/>
     </row>
     <row r="296" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>789</v>
+        <v>731</v>
       </c>
       <c r="D296" s="1" t="s">
         <v>807</v>
@@ -9415,7 +9421,7 @@
         <v>809</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>731</v>
+        <v>792</v>
       </c>
       <c r="D297" s="1" t="s">
         <v>810</v>
@@ -9431,7 +9437,7 @@
         <v>812</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>676</v>
+        <v>731</v>
       </c>
       <c r="D298" s="1" t="s">
         <v>813</v>
@@ -9463,7 +9469,7 @@
         <v>818</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="D300" s="1" t="s">
         <v>819</v>
@@ -9479,39 +9485,39 @@
         <v>821</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>821</v>
+        <v>680</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F301" s="3"/>
       <c r="G301" s="4"/>
     </row>
     <row r="302" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>824</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F302" s="3"/>
       <c r="G302" s="4"/>
     </row>
     <row r="303" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="B303" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="B303" s="1" t="s">
+      <c r="C303" s="1" t="s">
         <v>827</v>
-      </c>
-      <c r="C303" s="1" t="s">
-        <v>824</v>
       </c>
       <c r="D303" s="1" t="s">
         <v>828</v>
@@ -9527,7 +9533,7 @@
         <v>830</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="D304" s="1" t="s">
         <v>831</v>
@@ -9543,7 +9549,7 @@
         <v>833</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="D305" s="1" t="s">
         <v>834</v>
@@ -9559,7 +9565,7 @@
         <v>836</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="D306" s="1" t="s">
         <v>837</v>
@@ -9575,7 +9581,7 @@
         <v>839</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="D307" s="1" t="s">
         <v>840</v>
@@ -9591,7 +9597,7 @@
         <v>842</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="D308" s="1" t="s">
         <v>843</v>
@@ -9607,7 +9613,7 @@
         <v>845</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="D309" s="1" t="s">
         <v>846</v>
@@ -9623,7 +9629,7 @@
         <v>848</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="D310" s="1" t="s">
         <v>849</v>
@@ -9639,7 +9645,7 @@
         <v>851</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="D311" s="1" t="s">
         <v>852</v>
@@ -9655,7 +9661,7 @@
         <v>854</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="D312" s="1" t="s">
         <v>855</v>
@@ -9671,7 +9677,7 @@
         <v>857</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="D313" s="1" t="s">
         <v>858</v>
@@ -9687,13 +9693,13 @@
         <v>860</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="D314" s="1" t="s">
         <v>861</v>
       </c>
       <c r="F314" s="3"/>
-      <c r="G314" s="5"/>
+      <c r="G314" s="4"/>
     </row>
     <row r="315" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A315" s="1" t="s">
@@ -9703,13 +9709,13 @@
         <v>863</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="D315" s="1" t="s">
         <v>864</v>
       </c>
       <c r="F315" s="3"/>
-      <c r="G315" s="4"/>
+      <c r="G315" s="5"/>
     </row>
     <row r="316" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A316" s="1" t="s">
@@ -9719,7 +9725,7 @@
         <v>866</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="D316" s="1" t="s">
         <v>867</v>
@@ -9735,7 +9741,7 @@
         <v>869</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="D317" s="1" t="s">
         <v>870</v>
@@ -9751,7 +9757,7 @@
         <v>872</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="D318" s="1" t="s">
         <v>873</v>
@@ -9767,7 +9773,7 @@
         <v>875</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="D319" s="1" t="s">
         <v>876</v>
@@ -9783,7 +9789,7 @@
         <v>878</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="D320" s="1" t="s">
         <v>879</v>
@@ -9799,7 +9805,7 @@
         <v>881</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="D321" s="1" t="s">
         <v>882</v>
@@ -9815,7 +9821,7 @@
         <v>884</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="D322" s="1" t="s">
         <v>885</v>
@@ -9831,7 +9837,7 @@
         <v>887</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="D323" s="1" t="s">
         <v>888</v>
@@ -9847,7 +9853,7 @@
         <v>890</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="D324" s="1" t="s">
         <v>891</v>
@@ -9863,7 +9869,7 @@
         <v>893</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="D325" s="1" t="s">
         <v>894</v>
@@ -9879,7 +9885,7 @@
         <v>896</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="D326" s="1" t="s">
         <v>897</v>
@@ -9895,7 +9901,7 @@
         <v>899</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="D327" s="1" t="s">
         <v>900</v>
@@ -9911,26 +9917,26 @@
         <v>902</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>824</v>
+        <v>903</v>
       </c>
       <c r="F328" s="3"/>
       <c r="G328" s="4"/>
     </row>
     <row r="329" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>905</v>
+        <v>827</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>480</v>
+        <v>827</v>
       </c>
       <c r="F329" s="3"/>
       <c r="G329" s="4"/>
@@ -9943,10 +9949,10 @@
         <v>907</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>908</v>
+        <v>480</v>
       </c>
       <c r="F330" s="3"/>
       <c r="G330" s="4"/>
@@ -9959,26 +9965,26 @@
         <v>910</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>198</v>
+        <v>911</v>
       </c>
       <c r="F331" s="3"/>
       <c r="G331" s="4"/>
     </row>
     <row r="332" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>913</v>
+        <v>198</v>
       </c>
       <c r="F332" s="3"/>
       <c r="G332" s="4"/>
@@ -9991,7 +9997,7 @@
         <v>915</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="D333" s="1" t="s">
         <v>916</v>
@@ -10007,7 +10013,7 @@
         <v>918</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="D334" s="1" t="s">
         <v>919</v>
@@ -10023,7 +10029,7 @@
         <v>921</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="D335" s="1" t="s">
         <v>922</v>
@@ -10039,7 +10045,7 @@
         <v>924</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="D336" s="1" t="s">
         <v>925</v>
@@ -10052,29 +10058,29 @@
         <v>926</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>251</v>
+        <v>927</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>468</v>
+        <v>928</v>
       </c>
       <c r="F337" s="3"/>
       <c r="G337" s="4"/>
     </row>
     <row r="338" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>928</v>
+        <v>251</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>929</v>
+        <v>468</v>
       </c>
       <c r="F338" s="3"/>
       <c r="G338" s="4"/>
@@ -10087,7 +10093,7 @@
         <v>931</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="D339" s="1" t="s">
         <v>932</v>
@@ -10103,7 +10109,7 @@
         <v>934</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="D340" s="1" t="s">
         <v>935</v>
@@ -10119,7 +10125,7 @@
         <v>937</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="D341" s="1" t="s">
         <v>938</v>
@@ -10135,7 +10141,7 @@
         <v>940</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="D342" s="1" t="s">
         <v>941</v>
@@ -10151,7 +10157,7 @@
         <v>943</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="D343" s="1" t="s">
         <v>944</v>
@@ -10167,7 +10173,7 @@
         <v>946</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="D344" s="1" t="s">
         <v>947</v>
@@ -10183,7 +10189,7 @@
         <v>949</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="D345" s="1" t="s">
         <v>950</v>
@@ -10199,7 +10205,7 @@
         <v>952</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="D346" s="1" t="s">
         <v>953</v>
@@ -10215,7 +10221,7 @@
         <v>955</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="D347" s="1" t="s">
         <v>956</v>
@@ -10231,7 +10237,7 @@
         <v>958</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="D348" s="1" t="s">
         <v>959</v>
@@ -10247,7 +10253,7 @@
         <v>961</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="D349" s="1" t="s">
         <v>962</v>
@@ -10263,7 +10269,7 @@
         <v>964</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="D350" s="1" t="s">
         <v>965</v>
@@ -10279,7 +10285,7 @@
         <v>967</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="D351" s="1" t="s">
         <v>968</v>
@@ -10295,7 +10301,7 @@
         <v>970</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="D352" s="1" t="s">
         <v>971</v>
@@ -10311,7 +10317,7 @@
         <v>973</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="D353" s="1" t="s">
         <v>974</v>
@@ -10327,7 +10333,7 @@
         <v>976</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="D354" s="1" t="s">
         <v>977</v>
@@ -10343,7 +10349,7 @@
         <v>979</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="D355" s="1" t="s">
         <v>980</v>
@@ -10359,7 +10365,7 @@
         <v>982</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="D356" s="1" t="s">
         <v>983</v>
@@ -10375,7 +10381,7 @@
         <v>985</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="D357" s="1" t="s">
         <v>986</v>
@@ -10391,7 +10397,7 @@
         <v>988</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="D358" s="1" t="s">
         <v>989</v>
@@ -10407,7 +10413,7 @@
         <v>991</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="D359" s="1" t="s">
         <v>992</v>
@@ -10423,26 +10429,26 @@
         <v>994</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>905</v>
+        <v>995</v>
       </c>
       <c r="F360" s="3"/>
       <c r="G360" s="4"/>
     </row>
     <row r="361" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>997</v>
+        <v>908</v>
       </c>
       <c r="F361" s="3"/>
       <c r="G361" s="4"/>
@@ -10452,90 +10458,90 @@
         <v>998</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>236</v>
+        <v>999</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="F362" s="3"/>
       <c r="G362" s="4"/>
     </row>
     <row r="363" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A363" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>1001</v>
+        <v>236</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>1002</v>
+        <v>237</v>
       </c>
       <c r="F363" s="3"/>
       <c r="G363" s="4"/>
     </row>
     <row r="364" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A364" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B364" s="1" t="s">
         <v>1003</v>
       </c>
-      <c r="B364" s="1" t="s">
+      <c r="C364" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="D364" s="1" t="s">
         <v>1004</v>
-      </c>
-      <c r="C364" s="1" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D364" s="1" t="s">
-        <v>463</v>
       </c>
       <c r="F364" s="3"/>
       <c r="G364" s="4"/>
     </row>
     <row r="365" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B365" s="1" t="s">
         <v>1006</v>
       </c>
-      <c r="B365" s="1" t="s">
+      <c r="C365" s="1" t="s">
         <v>1007</v>
       </c>
-      <c r="C365" s="1" t="s">
-        <v>1005</v>
-      </c>
       <c r="D365" s="1" t="s">
-        <v>1008</v>
+        <v>463</v>
       </c>
       <c r="F365" s="3"/>
       <c r="G365" s="4"/>
     </row>
     <row r="366" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A366" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B366" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="B366" s="1" t="s">
+      <c r="C366" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D366" s="1" t="s">
         <v>1010</v>
-      </c>
-      <c r="C366" s="1" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D366" s="1" t="s">
-        <v>1011</v>
       </c>
       <c r="F366" s="3"/>
       <c r="G366" s="4"/>
     </row>
     <row r="367" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B367" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="B367" s="1" t="s">
-        <v>1013</v>
-      </c>
       <c r="C367" s="1" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="D367" s="1" t="s">
         <v>1013</v>
@@ -10551,74 +10557,74 @@
         <v>1015</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F368" s="3"/>
       <c r="G368" s="4"/>
     </row>
     <row r="369" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A369" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B369" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="B369" s="1" t="s">
+      <c r="C369" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D369" s="1" t="s">
         <v>1018</v>
-      </c>
-      <c r="C369" s="1" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D369" s="1" t="s">
-        <v>1019</v>
       </c>
       <c r="F369" s="3"/>
       <c r="G369" s="4"/>
     </row>
     <row r="370" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B370" s="1" t="s">
         <v>1020</v>
       </c>
-      <c r="B370" s="1" t="s">
+      <c r="C370" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D370" s="1" t="s">
         <v>1021</v>
-      </c>
-      <c r="C370" s="1" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D370" s="1" t="s">
-        <v>1022</v>
       </c>
       <c r="F370" s="3"/>
       <c r="G370" s="4"/>
     </row>
     <row r="371" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B371" s="1" t="s">
         <v>1023</v>
       </c>
-      <c r="B371" s="1" t="s">
-        <v>251</v>
-      </c>
       <c r="C371" s="1" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>468</v>
+        <v>1024</v>
       </c>
       <c r="F371" s="3"/>
       <c r="G371" s="4"/>
     </row>
     <row r="372" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>1025</v>
+        <v>251</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>1025</v>
+        <v>468</v>
       </c>
       <c r="F372" s="3"/>
       <c r="G372" s="4"/>
@@ -10631,1147 +10637,132 @@
         <v>1027</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F373" s="3"/>
       <c r="G373" s="4"/>
     </row>
     <row r="374" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A374" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B374" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="B374" s="1" t="s">
+      <c r="C374" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D374" s="1" t="s">
         <v>1030</v>
-      </c>
-      <c r="C374" s="1" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D374" s="1" t="s">
-        <v>1031</v>
       </c>
       <c r="F374" s="3"/>
       <c r="G374" s="4"/>
     </row>
     <row r="375" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B375" s="1" t="s">
         <v>1032</v>
       </c>
-      <c r="B375" s="1" t="s">
+      <c r="C375" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D375" s="1" t="s">
         <v>1033</v>
-      </c>
-      <c r="C375" s="1" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D375" s="1" t="s">
-        <v>1034</v>
       </c>
       <c r="F375" s="3"/>
       <c r="G375" s="4"/>
     </row>
     <row r="376" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B376" s="1" t="s">
         <v>1035</v>
       </c>
-      <c r="B376" s="1" t="s">
+      <c r="C376" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D376" s="1" t="s">
         <v>1036</v>
-      </c>
-      <c r="C376" s="1" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D376" s="1" t="s">
-        <v>1037</v>
       </c>
       <c r="F376" s="3"/>
       <c r="G376" s="4"/>
     </row>
     <row r="377" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A377" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B377" s="1" t="s">
         <v>1038</v>
       </c>
-      <c r="B377" s="1" t="s">
+      <c r="C377" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D377" s="1" t="s">
         <v>1039</v>
-      </c>
-      <c r="C377" s="1" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D377" s="1" t="s">
-        <v>1040</v>
       </c>
       <c r="F377" s="3"/>
       <c r="G377" s="4"/>
     </row>
     <row r="378" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B378" s="1" t="s">
         <v>1041</v>
       </c>
-      <c r="B378" s="1" t="s">
+      <c r="C378" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D378" s="1" t="s">
         <v>1042</v>
-      </c>
-      <c r="C378" s="1" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D378" s="1" t="s">
-        <v>1043</v>
       </c>
       <c r="F378" s="3"/>
       <c r="G378" s="4"/>
     </row>
     <row r="379" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B379" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="B379" s="1" t="s">
+      <c r="C379" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D379" s="1" t="s">
         <v>1045</v>
-      </c>
-      <c r="C379" s="1" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D379" s="1" t="s">
-        <v>1046</v>
       </c>
       <c r="F379" s="3"/>
       <c r="G379" s="4"/>
     </row>
     <row r="380" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A380" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B380" s="1" t="s">
         <v>1047</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="D380" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="E380" s="0"/>
-      <c r="F380" s="0"/>
-      <c r="G380" s="0"/>
-      <c r="H380" s="0"/>
-      <c r="I380" s="0"/>
-      <c r="J380" s="0"/>
-      <c r="K380" s="0"/>
-      <c r="L380" s="0"/>
-      <c r="M380" s="0"/>
-      <c r="N380" s="0"/>
-      <c r="O380" s="0"/>
-      <c r="P380" s="0"/>
-      <c r="Q380" s="0"/>
-      <c r="R380" s="0"/>
-      <c r="S380" s="0"/>
-      <c r="T380" s="0"/>
-      <c r="U380" s="0"/>
-      <c r="V380" s="0"/>
-      <c r="W380" s="0"/>
-      <c r="X380" s="0"/>
-      <c r="Y380" s="0"/>
-      <c r="Z380" s="0"/>
-      <c r="AA380" s="0"/>
-      <c r="AB380" s="0"/>
-      <c r="AC380" s="0"/>
-      <c r="AD380" s="0"/>
-      <c r="AE380" s="0"/>
-      <c r="AF380" s="0"/>
-      <c r="AG380" s="0"/>
-      <c r="AH380" s="0"/>
-      <c r="AI380" s="0"/>
-      <c r="AJ380" s="0"/>
-      <c r="AK380" s="0"/>
-      <c r="AL380" s="0"/>
-      <c r="AM380" s="0"/>
-      <c r="AN380" s="0"/>
-      <c r="AO380" s="0"/>
-      <c r="AP380" s="0"/>
-      <c r="AQ380" s="0"/>
-      <c r="AR380" s="0"/>
-      <c r="AS380" s="0"/>
-      <c r="AT380" s="0"/>
-      <c r="AU380" s="0"/>
-      <c r="AV380" s="0"/>
-      <c r="AW380" s="0"/>
-      <c r="AX380" s="0"/>
-      <c r="AY380" s="0"/>
-      <c r="AZ380" s="0"/>
-      <c r="BA380" s="0"/>
-      <c r="BB380" s="0"/>
-      <c r="BC380" s="0"/>
-      <c r="BD380" s="0"/>
-      <c r="BE380" s="0"/>
-      <c r="BF380" s="0"/>
-      <c r="BG380" s="0"/>
-      <c r="BH380" s="0"/>
-      <c r="BI380" s="0"/>
-      <c r="BJ380" s="0"/>
-      <c r="BK380" s="0"/>
-      <c r="BL380" s="0"/>
-      <c r="BM380" s="0"/>
-      <c r="BN380" s="0"/>
-      <c r="BO380" s="0"/>
-      <c r="BP380" s="0"/>
-      <c r="BQ380" s="0"/>
-      <c r="BR380" s="0"/>
-      <c r="BS380" s="0"/>
-      <c r="BT380" s="0"/>
-      <c r="BU380" s="0"/>
-      <c r="BV380" s="0"/>
-      <c r="BW380" s="0"/>
-      <c r="BX380" s="0"/>
-      <c r="BY380" s="0"/>
-      <c r="BZ380" s="0"/>
-      <c r="CA380" s="0"/>
-      <c r="CB380" s="0"/>
-      <c r="CC380" s="0"/>
-      <c r="CD380" s="0"/>
-      <c r="CE380" s="0"/>
-      <c r="CF380" s="0"/>
-      <c r="CG380" s="0"/>
-      <c r="CH380" s="0"/>
-      <c r="CI380" s="0"/>
-      <c r="CJ380" s="0"/>
-      <c r="CK380" s="0"/>
-      <c r="CL380" s="0"/>
-      <c r="CM380" s="0"/>
-      <c r="CN380" s="0"/>
-      <c r="CO380" s="0"/>
-      <c r="CP380" s="0"/>
-      <c r="CQ380" s="0"/>
-      <c r="CR380" s="0"/>
-      <c r="CS380" s="0"/>
-      <c r="CT380" s="0"/>
-      <c r="CU380" s="0"/>
-      <c r="CV380" s="0"/>
-      <c r="CW380" s="0"/>
-      <c r="CX380" s="0"/>
-      <c r="CY380" s="0"/>
-      <c r="CZ380" s="0"/>
-      <c r="DA380" s="0"/>
-      <c r="DB380" s="0"/>
-      <c r="DC380" s="0"/>
-      <c r="DD380" s="0"/>
-      <c r="DE380" s="0"/>
-      <c r="DF380" s="0"/>
-      <c r="DG380" s="0"/>
-      <c r="DH380" s="0"/>
-      <c r="DI380" s="0"/>
-      <c r="DJ380" s="0"/>
-      <c r="DK380" s="0"/>
-      <c r="DL380" s="0"/>
-      <c r="DM380" s="0"/>
-      <c r="DN380" s="0"/>
-      <c r="DO380" s="0"/>
-      <c r="DP380" s="0"/>
-      <c r="DQ380" s="0"/>
-      <c r="DR380" s="0"/>
-      <c r="DS380" s="0"/>
-      <c r="DT380" s="0"/>
-      <c r="DU380" s="0"/>
-      <c r="DV380" s="0"/>
-      <c r="DW380" s="0"/>
-      <c r="DX380" s="0"/>
-      <c r="DY380" s="0"/>
-      <c r="DZ380" s="0"/>
-      <c r="EA380" s="0"/>
-      <c r="EB380" s="0"/>
-      <c r="EC380" s="0"/>
-      <c r="ED380" s="0"/>
-      <c r="EE380" s="0"/>
-      <c r="EF380" s="0"/>
-      <c r="EG380" s="0"/>
-      <c r="EH380" s="0"/>
-      <c r="EI380" s="0"/>
-      <c r="EJ380" s="0"/>
-      <c r="EK380" s="0"/>
-      <c r="EL380" s="0"/>
-      <c r="EM380" s="0"/>
-      <c r="EN380" s="0"/>
-      <c r="EO380" s="0"/>
-      <c r="EP380" s="0"/>
-      <c r="EQ380" s="0"/>
-      <c r="ER380" s="0"/>
-      <c r="ES380" s="0"/>
-      <c r="ET380" s="0"/>
-      <c r="EU380" s="0"/>
-      <c r="EV380" s="0"/>
-      <c r="EW380" s="0"/>
-      <c r="EX380" s="0"/>
-      <c r="EY380" s="0"/>
-      <c r="EZ380" s="0"/>
-      <c r="FA380" s="0"/>
-      <c r="FB380" s="0"/>
-      <c r="FC380" s="0"/>
-      <c r="FD380" s="0"/>
-      <c r="FE380" s="0"/>
-      <c r="FF380" s="0"/>
-      <c r="FG380" s="0"/>
-      <c r="FH380" s="0"/>
-      <c r="FI380" s="0"/>
-      <c r="FJ380" s="0"/>
-      <c r="FK380" s="0"/>
-      <c r="FL380" s="0"/>
-      <c r="FM380" s="0"/>
-      <c r="FN380" s="0"/>
-      <c r="FO380" s="0"/>
-      <c r="FP380" s="0"/>
-      <c r="FQ380" s="0"/>
-      <c r="FR380" s="0"/>
-      <c r="FS380" s="0"/>
-      <c r="FT380" s="0"/>
-      <c r="FU380" s="0"/>
-      <c r="FV380" s="0"/>
-      <c r="FW380" s="0"/>
-      <c r="FX380" s="0"/>
-      <c r="FY380" s="0"/>
-      <c r="FZ380" s="0"/>
-      <c r="GA380" s="0"/>
-      <c r="GB380" s="0"/>
-      <c r="GC380" s="0"/>
-      <c r="GD380" s="0"/>
-      <c r="GE380" s="0"/>
-      <c r="GF380" s="0"/>
-      <c r="GG380" s="0"/>
-      <c r="GH380" s="0"/>
-      <c r="GI380" s="0"/>
-      <c r="GJ380" s="0"/>
-      <c r="GK380" s="0"/>
-      <c r="GL380" s="0"/>
-      <c r="GM380" s="0"/>
-      <c r="GN380" s="0"/>
-      <c r="GO380" s="0"/>
-      <c r="GP380" s="0"/>
-      <c r="GQ380" s="0"/>
-      <c r="GR380" s="0"/>
-      <c r="GS380" s="0"/>
-      <c r="GT380" s="0"/>
-      <c r="GU380" s="0"/>
-      <c r="GV380" s="0"/>
-      <c r="GW380" s="0"/>
-      <c r="GX380" s="0"/>
-      <c r="GY380" s="0"/>
-      <c r="GZ380" s="0"/>
-      <c r="HA380" s="0"/>
-      <c r="HB380" s="0"/>
-      <c r="HC380" s="0"/>
-      <c r="HD380" s="0"/>
-      <c r="HE380" s="0"/>
-      <c r="HF380" s="0"/>
-      <c r="HG380" s="0"/>
-      <c r="HH380" s="0"/>
-      <c r="HI380" s="0"/>
-      <c r="HJ380" s="0"/>
-      <c r="HK380" s="0"/>
-      <c r="HL380" s="0"/>
-      <c r="HM380" s="0"/>
-      <c r="HN380" s="0"/>
-      <c r="HO380" s="0"/>
-      <c r="HP380" s="0"/>
-      <c r="HQ380" s="0"/>
-      <c r="HR380" s="0"/>
-      <c r="HS380" s="0"/>
-      <c r="HT380" s="0"/>
-      <c r="HU380" s="0"/>
-      <c r="HV380" s="0"/>
-      <c r="HW380" s="0"/>
-      <c r="HX380" s="0"/>
-      <c r="HY380" s="0"/>
-      <c r="HZ380" s="0"/>
-      <c r="IA380" s="0"/>
-      <c r="IB380" s="0"/>
-      <c r="IC380" s="0"/>
-      <c r="ID380" s="0"/>
-      <c r="IE380" s="0"/>
-      <c r="IF380" s="0"/>
-      <c r="IG380" s="0"/>
-      <c r="IH380" s="0"/>
-      <c r="II380" s="0"/>
-      <c r="IJ380" s="0"/>
-      <c r="IK380" s="0"/>
-      <c r="IL380" s="0"/>
-      <c r="IM380" s="0"/>
-      <c r="IN380" s="0"/>
-      <c r="IO380" s="0"/>
-      <c r="IP380" s="0"/>
-      <c r="IQ380" s="0"/>
-      <c r="IR380" s="0"/>
-      <c r="IS380" s="0"/>
-      <c r="IT380" s="0"/>
-      <c r="IU380" s="0"/>
-      <c r="IV380" s="0"/>
-      <c r="IW380" s="0"/>
-      <c r="IX380" s="0"/>
-      <c r="IY380" s="0"/>
-      <c r="IZ380" s="0"/>
-      <c r="JA380" s="0"/>
-      <c r="JB380" s="0"/>
-      <c r="JC380" s="0"/>
-      <c r="JD380" s="0"/>
-      <c r="JE380" s="0"/>
-      <c r="JF380" s="0"/>
-      <c r="JG380" s="0"/>
-      <c r="JH380" s="0"/>
-      <c r="JI380" s="0"/>
-      <c r="JJ380" s="0"/>
-      <c r="JK380" s="0"/>
-      <c r="JL380" s="0"/>
-      <c r="JM380" s="0"/>
-      <c r="JN380" s="0"/>
-      <c r="JO380" s="0"/>
-      <c r="JP380" s="0"/>
-      <c r="JQ380" s="0"/>
-      <c r="JR380" s="0"/>
-      <c r="JS380" s="0"/>
-      <c r="JT380" s="0"/>
-      <c r="JU380" s="0"/>
-      <c r="JV380" s="0"/>
-      <c r="JW380" s="0"/>
-      <c r="JX380" s="0"/>
-      <c r="JY380" s="0"/>
-      <c r="JZ380" s="0"/>
-      <c r="KA380" s="0"/>
-      <c r="KB380" s="0"/>
-      <c r="KC380" s="0"/>
-      <c r="KD380" s="0"/>
-      <c r="KE380" s="0"/>
-      <c r="KF380" s="0"/>
-      <c r="KG380" s="0"/>
-      <c r="KH380" s="0"/>
-      <c r="KI380" s="0"/>
-      <c r="KJ380" s="0"/>
-      <c r="KK380" s="0"/>
-      <c r="KL380" s="0"/>
-      <c r="KM380" s="0"/>
-      <c r="KN380" s="0"/>
-      <c r="KO380" s="0"/>
-      <c r="KP380" s="0"/>
-      <c r="KQ380" s="0"/>
-      <c r="KR380" s="0"/>
-      <c r="KS380" s="0"/>
-      <c r="KT380" s="0"/>
-      <c r="KU380" s="0"/>
-      <c r="KV380" s="0"/>
-      <c r="KW380" s="0"/>
-      <c r="KX380" s="0"/>
-      <c r="KY380" s="0"/>
-      <c r="KZ380" s="0"/>
-      <c r="LA380" s="0"/>
-      <c r="LB380" s="0"/>
-      <c r="LC380" s="0"/>
-      <c r="LD380" s="0"/>
-      <c r="LE380" s="0"/>
-      <c r="LF380" s="0"/>
-      <c r="LG380" s="0"/>
-      <c r="LH380" s="0"/>
-      <c r="LI380" s="0"/>
-      <c r="LJ380" s="0"/>
-      <c r="LK380" s="0"/>
-      <c r="LL380" s="0"/>
-      <c r="LM380" s="0"/>
-      <c r="LN380" s="0"/>
-      <c r="LO380" s="0"/>
-      <c r="LP380" s="0"/>
-      <c r="LQ380" s="0"/>
-      <c r="LR380" s="0"/>
-      <c r="LS380" s="0"/>
-      <c r="LT380" s="0"/>
-      <c r="LU380" s="0"/>
-      <c r="LV380" s="0"/>
-      <c r="LW380" s="0"/>
-      <c r="LX380" s="0"/>
-      <c r="LY380" s="0"/>
-      <c r="LZ380" s="0"/>
-      <c r="MA380" s="0"/>
-      <c r="MB380" s="0"/>
-      <c r="MC380" s="0"/>
-      <c r="MD380" s="0"/>
-      <c r="ME380" s="0"/>
-      <c r="MF380" s="0"/>
-      <c r="MG380" s="0"/>
-      <c r="MH380" s="0"/>
-      <c r="MI380" s="0"/>
-      <c r="MJ380" s="0"/>
-      <c r="MK380" s="0"/>
-      <c r="ML380" s="0"/>
-      <c r="MM380" s="0"/>
-      <c r="MN380" s="0"/>
-      <c r="MO380" s="0"/>
-      <c r="MP380" s="0"/>
-      <c r="MQ380" s="0"/>
-      <c r="MR380" s="0"/>
-      <c r="MS380" s="0"/>
-      <c r="MT380" s="0"/>
-      <c r="MU380" s="0"/>
-      <c r="MV380" s="0"/>
-      <c r="MW380" s="0"/>
-      <c r="MX380" s="0"/>
-      <c r="MY380" s="0"/>
-      <c r="MZ380" s="0"/>
-      <c r="NA380" s="0"/>
-      <c r="NB380" s="0"/>
-      <c r="NC380" s="0"/>
-      <c r="ND380" s="0"/>
-      <c r="NE380" s="0"/>
-      <c r="NF380" s="0"/>
-      <c r="NG380" s="0"/>
-      <c r="NH380" s="0"/>
-      <c r="NI380" s="0"/>
-      <c r="NJ380" s="0"/>
-      <c r="NK380" s="0"/>
-      <c r="NL380" s="0"/>
-      <c r="NM380" s="0"/>
-      <c r="NN380" s="0"/>
-      <c r="NO380" s="0"/>
-      <c r="NP380" s="0"/>
-      <c r="NQ380" s="0"/>
-      <c r="NR380" s="0"/>
-      <c r="NS380" s="0"/>
-      <c r="NT380" s="0"/>
-      <c r="NU380" s="0"/>
-      <c r="NV380" s="0"/>
-      <c r="NW380" s="0"/>
-      <c r="NX380" s="0"/>
-      <c r="NY380" s="0"/>
-      <c r="NZ380" s="0"/>
-      <c r="OA380" s="0"/>
-      <c r="OB380" s="0"/>
-      <c r="OC380" s="0"/>
-      <c r="OD380" s="0"/>
-      <c r="OE380" s="0"/>
-      <c r="OF380" s="0"/>
-      <c r="OG380" s="0"/>
-      <c r="OH380" s="0"/>
-      <c r="OI380" s="0"/>
-      <c r="OJ380" s="0"/>
-      <c r="OK380" s="0"/>
-      <c r="OL380" s="0"/>
-      <c r="OM380" s="0"/>
-      <c r="ON380" s="0"/>
-      <c r="OO380" s="0"/>
-      <c r="OP380" s="0"/>
-      <c r="OQ380" s="0"/>
-      <c r="OR380" s="0"/>
-      <c r="OS380" s="0"/>
-      <c r="OT380" s="0"/>
-      <c r="OU380" s="0"/>
-      <c r="OV380" s="0"/>
-      <c r="OW380" s="0"/>
-      <c r="OX380" s="0"/>
-      <c r="OY380" s="0"/>
-      <c r="OZ380" s="0"/>
-      <c r="PA380" s="0"/>
-      <c r="PB380" s="0"/>
-      <c r="PC380" s="0"/>
-      <c r="PD380" s="0"/>
-      <c r="PE380" s="0"/>
-      <c r="PF380" s="0"/>
-      <c r="PG380" s="0"/>
-      <c r="PH380" s="0"/>
-      <c r="PI380" s="0"/>
-      <c r="PJ380" s="0"/>
-      <c r="PK380" s="0"/>
-      <c r="PL380" s="0"/>
-      <c r="PM380" s="0"/>
-      <c r="PN380" s="0"/>
-      <c r="PO380" s="0"/>
-      <c r="PP380" s="0"/>
-      <c r="PQ380" s="0"/>
-      <c r="PR380" s="0"/>
-      <c r="PS380" s="0"/>
-      <c r="PT380" s="0"/>
-      <c r="PU380" s="0"/>
-      <c r="PV380" s="0"/>
-      <c r="PW380" s="0"/>
-      <c r="PX380" s="0"/>
-      <c r="PY380" s="0"/>
-      <c r="PZ380" s="0"/>
-      <c r="QA380" s="0"/>
-      <c r="QB380" s="0"/>
-      <c r="QC380" s="0"/>
-      <c r="QD380" s="0"/>
-      <c r="QE380" s="0"/>
-      <c r="QF380" s="0"/>
-      <c r="QG380" s="0"/>
-      <c r="QH380" s="0"/>
-      <c r="QI380" s="0"/>
-      <c r="QJ380" s="0"/>
-      <c r="QK380" s="0"/>
-      <c r="QL380" s="0"/>
-      <c r="QM380" s="0"/>
-      <c r="QN380" s="0"/>
-      <c r="QO380" s="0"/>
-      <c r="QP380" s="0"/>
-      <c r="QQ380" s="0"/>
-      <c r="QR380" s="0"/>
-      <c r="QS380" s="0"/>
-      <c r="QT380" s="0"/>
-      <c r="QU380" s="0"/>
-      <c r="QV380" s="0"/>
-      <c r="QW380" s="0"/>
-      <c r="QX380" s="0"/>
-      <c r="QY380" s="0"/>
-      <c r="QZ380" s="0"/>
-      <c r="RA380" s="0"/>
-      <c r="RB380" s="0"/>
-      <c r="RC380" s="0"/>
-      <c r="RD380" s="0"/>
-      <c r="RE380" s="0"/>
-      <c r="RF380" s="0"/>
-      <c r="RG380" s="0"/>
-      <c r="RH380" s="0"/>
-      <c r="RI380" s="0"/>
-      <c r="RJ380" s="0"/>
-      <c r="RK380" s="0"/>
-      <c r="RL380" s="0"/>
-      <c r="RM380" s="0"/>
-      <c r="RN380" s="0"/>
-      <c r="RO380" s="0"/>
-      <c r="RP380" s="0"/>
-      <c r="RQ380" s="0"/>
-      <c r="RR380" s="0"/>
-      <c r="RS380" s="0"/>
-      <c r="RT380" s="0"/>
-      <c r="RU380" s="0"/>
-      <c r="RV380" s="0"/>
-      <c r="RW380" s="0"/>
-      <c r="RX380" s="0"/>
-      <c r="RY380" s="0"/>
-      <c r="RZ380" s="0"/>
-      <c r="SA380" s="0"/>
-      <c r="SB380" s="0"/>
-      <c r="SC380" s="0"/>
-      <c r="SD380" s="0"/>
-      <c r="SE380" s="0"/>
-      <c r="SF380" s="0"/>
-      <c r="SG380" s="0"/>
-      <c r="SH380" s="0"/>
-      <c r="SI380" s="0"/>
-      <c r="SJ380" s="0"/>
-      <c r="SK380" s="0"/>
-      <c r="SL380" s="0"/>
-      <c r="SM380" s="0"/>
-      <c r="SN380" s="0"/>
-      <c r="SO380" s="0"/>
-      <c r="SP380" s="0"/>
-      <c r="SQ380" s="0"/>
-      <c r="SR380" s="0"/>
-      <c r="SS380" s="0"/>
-      <c r="ST380" s="0"/>
-      <c r="SU380" s="0"/>
-      <c r="SV380" s="0"/>
-      <c r="SW380" s="0"/>
-      <c r="SX380" s="0"/>
-      <c r="SY380" s="0"/>
-      <c r="SZ380" s="0"/>
-      <c r="TA380" s="0"/>
-      <c r="TB380" s="0"/>
-      <c r="TC380" s="0"/>
-      <c r="TD380" s="0"/>
-      <c r="TE380" s="0"/>
-      <c r="TF380" s="0"/>
-      <c r="TG380" s="0"/>
-      <c r="TH380" s="0"/>
-      <c r="TI380" s="0"/>
-      <c r="TJ380" s="0"/>
-      <c r="TK380" s="0"/>
-      <c r="TL380" s="0"/>
-      <c r="TM380" s="0"/>
-      <c r="TN380" s="0"/>
-      <c r="TO380" s="0"/>
-      <c r="TP380" s="0"/>
-      <c r="TQ380" s="0"/>
-      <c r="TR380" s="0"/>
-      <c r="TS380" s="0"/>
-      <c r="TT380" s="0"/>
-      <c r="TU380" s="0"/>
-      <c r="TV380" s="0"/>
-      <c r="TW380" s="0"/>
-      <c r="TX380" s="0"/>
-      <c r="TY380" s="0"/>
-      <c r="TZ380" s="0"/>
-      <c r="UA380" s="0"/>
-      <c r="UB380" s="0"/>
-      <c r="UC380" s="0"/>
-      <c r="UD380" s="0"/>
-      <c r="UE380" s="0"/>
-      <c r="UF380" s="0"/>
-      <c r="UG380" s="0"/>
-      <c r="UH380" s="0"/>
-      <c r="UI380" s="0"/>
-      <c r="UJ380" s="0"/>
-      <c r="UK380" s="0"/>
-      <c r="UL380" s="0"/>
-      <c r="UM380" s="0"/>
-      <c r="UN380" s="0"/>
-      <c r="UO380" s="0"/>
-      <c r="UP380" s="0"/>
-      <c r="UQ380" s="0"/>
-      <c r="UR380" s="0"/>
-      <c r="US380" s="0"/>
-      <c r="UT380" s="0"/>
-      <c r="UU380" s="0"/>
-      <c r="UV380" s="0"/>
-      <c r="UW380" s="0"/>
-      <c r="UX380" s="0"/>
-      <c r="UY380" s="0"/>
-      <c r="UZ380" s="0"/>
-      <c r="VA380" s="0"/>
-      <c r="VB380" s="0"/>
-      <c r="VC380" s="0"/>
-      <c r="VD380" s="0"/>
-      <c r="VE380" s="0"/>
-      <c r="VF380" s="0"/>
-      <c r="VG380" s="0"/>
-      <c r="VH380" s="0"/>
-      <c r="VI380" s="0"/>
-      <c r="VJ380" s="0"/>
-      <c r="VK380" s="0"/>
-      <c r="VL380" s="0"/>
-      <c r="VM380" s="0"/>
-      <c r="VN380" s="0"/>
-      <c r="VO380" s="0"/>
-      <c r="VP380" s="0"/>
-      <c r="VQ380" s="0"/>
-      <c r="VR380" s="0"/>
-      <c r="VS380" s="0"/>
-      <c r="VT380" s="0"/>
-      <c r="VU380" s="0"/>
-      <c r="VV380" s="0"/>
-      <c r="VW380" s="0"/>
-      <c r="VX380" s="0"/>
-      <c r="VY380" s="0"/>
-      <c r="VZ380" s="0"/>
-      <c r="WA380" s="0"/>
-      <c r="WB380" s="0"/>
-      <c r="WC380" s="0"/>
-      <c r="WD380" s="0"/>
-      <c r="WE380" s="0"/>
-      <c r="WF380" s="0"/>
-      <c r="WG380" s="0"/>
-      <c r="WH380" s="0"/>
-      <c r="WI380" s="0"/>
-      <c r="WJ380" s="0"/>
-      <c r="WK380" s="0"/>
-      <c r="WL380" s="0"/>
-      <c r="WM380" s="0"/>
-      <c r="WN380" s="0"/>
-      <c r="WO380" s="0"/>
-      <c r="WP380" s="0"/>
-      <c r="WQ380" s="0"/>
-      <c r="WR380" s="0"/>
-      <c r="WS380" s="0"/>
-      <c r="WT380" s="0"/>
-      <c r="WU380" s="0"/>
-      <c r="WV380" s="0"/>
-      <c r="WW380" s="0"/>
-      <c r="WX380" s="0"/>
-      <c r="WY380" s="0"/>
-      <c r="WZ380" s="0"/>
-      <c r="XA380" s="0"/>
-      <c r="XB380" s="0"/>
-      <c r="XC380" s="0"/>
-      <c r="XD380" s="0"/>
-      <c r="XE380" s="0"/>
-      <c r="XF380" s="0"/>
-      <c r="XG380" s="0"/>
-      <c r="XH380" s="0"/>
-      <c r="XI380" s="0"/>
-      <c r="XJ380" s="0"/>
-      <c r="XK380" s="0"/>
-      <c r="XL380" s="0"/>
-      <c r="XM380" s="0"/>
-      <c r="XN380" s="0"/>
-      <c r="XO380" s="0"/>
-      <c r="XP380" s="0"/>
-      <c r="XQ380" s="0"/>
-      <c r="XR380" s="0"/>
-      <c r="XS380" s="0"/>
-      <c r="XT380" s="0"/>
-      <c r="XU380" s="0"/>
-      <c r="XV380" s="0"/>
-      <c r="XW380" s="0"/>
-      <c r="XX380" s="0"/>
-      <c r="XY380" s="0"/>
-      <c r="XZ380" s="0"/>
-      <c r="YA380" s="0"/>
-      <c r="YB380" s="0"/>
-      <c r="YC380" s="0"/>
-      <c r="YD380" s="0"/>
-      <c r="YE380" s="0"/>
-      <c r="YF380" s="0"/>
-      <c r="YG380" s="0"/>
-      <c r="YH380" s="0"/>
-      <c r="YI380" s="0"/>
-      <c r="YJ380" s="0"/>
-      <c r="YK380" s="0"/>
-      <c r="YL380" s="0"/>
-      <c r="YM380" s="0"/>
-      <c r="YN380" s="0"/>
-      <c r="YO380" s="0"/>
-      <c r="YP380" s="0"/>
-      <c r="YQ380" s="0"/>
-      <c r="YR380" s="0"/>
-      <c r="YS380" s="0"/>
-      <c r="YT380" s="0"/>
-      <c r="YU380" s="0"/>
-      <c r="YV380" s="0"/>
-      <c r="YW380" s="0"/>
-      <c r="YX380" s="0"/>
-      <c r="YY380" s="0"/>
-      <c r="YZ380" s="0"/>
-      <c r="ZA380" s="0"/>
-      <c r="ZB380" s="0"/>
-      <c r="ZC380" s="0"/>
-      <c r="ZD380" s="0"/>
-      <c r="ZE380" s="0"/>
-      <c r="ZF380" s="0"/>
-      <c r="ZG380" s="0"/>
-      <c r="ZH380" s="0"/>
-      <c r="ZI380" s="0"/>
-      <c r="ZJ380" s="0"/>
-      <c r="ZK380" s="0"/>
-      <c r="ZL380" s="0"/>
-      <c r="ZM380" s="0"/>
-      <c r="ZN380" s="0"/>
-      <c r="ZO380" s="0"/>
-      <c r="ZP380" s="0"/>
-      <c r="ZQ380" s="0"/>
-      <c r="ZR380" s="0"/>
-      <c r="ZS380" s="0"/>
-      <c r="ZT380" s="0"/>
-      <c r="ZU380" s="0"/>
-      <c r="ZV380" s="0"/>
-      <c r="ZW380" s="0"/>
-      <c r="ZX380" s="0"/>
-      <c r="ZY380" s="0"/>
-      <c r="ZZ380" s="0"/>
-      <c r="AAA380" s="0"/>
-      <c r="AAB380" s="0"/>
-      <c r="AAC380" s="0"/>
-      <c r="AAD380" s="0"/>
-      <c r="AAE380" s="0"/>
-      <c r="AAF380" s="0"/>
-      <c r="AAG380" s="0"/>
-      <c r="AAH380" s="0"/>
-      <c r="AAI380" s="0"/>
-      <c r="AAJ380" s="0"/>
-      <c r="AAK380" s="0"/>
-      <c r="AAL380" s="0"/>
-      <c r="AAM380" s="0"/>
-      <c r="AAN380" s="0"/>
-      <c r="AAO380" s="0"/>
-      <c r="AAP380" s="0"/>
-      <c r="AAQ380" s="0"/>
-      <c r="AAR380" s="0"/>
-      <c r="AAS380" s="0"/>
-      <c r="AAT380" s="0"/>
-      <c r="AAU380" s="0"/>
-      <c r="AAV380" s="0"/>
-      <c r="AAW380" s="0"/>
-      <c r="AAX380" s="0"/>
-      <c r="AAY380" s="0"/>
-      <c r="AAZ380" s="0"/>
-      <c r="ABA380" s="0"/>
-      <c r="ABB380" s="0"/>
-      <c r="ABC380" s="0"/>
-      <c r="ABD380" s="0"/>
-      <c r="ABE380" s="0"/>
-      <c r="ABF380" s="0"/>
-      <c r="ABG380" s="0"/>
-      <c r="ABH380" s="0"/>
-      <c r="ABI380" s="0"/>
-      <c r="ABJ380" s="0"/>
-      <c r="ABK380" s="0"/>
-      <c r="ABL380" s="0"/>
-      <c r="ABM380" s="0"/>
-      <c r="ABN380" s="0"/>
-      <c r="ABO380" s="0"/>
-      <c r="ABP380" s="0"/>
-      <c r="ABQ380" s="0"/>
-      <c r="ABR380" s="0"/>
-      <c r="ABS380" s="0"/>
-      <c r="ABT380" s="0"/>
-      <c r="ABU380" s="0"/>
-      <c r="ABV380" s="0"/>
-      <c r="ABW380" s="0"/>
-      <c r="ABX380" s="0"/>
-      <c r="ABY380" s="0"/>
-      <c r="ABZ380" s="0"/>
-      <c r="ACA380" s="0"/>
-      <c r="ACB380" s="0"/>
-      <c r="ACC380" s="0"/>
-      <c r="ACD380" s="0"/>
-      <c r="ACE380" s="0"/>
-      <c r="ACF380" s="0"/>
-      <c r="ACG380" s="0"/>
-      <c r="ACH380" s="0"/>
-      <c r="ACI380" s="0"/>
-      <c r="ACJ380" s="0"/>
-      <c r="ACK380" s="0"/>
-      <c r="ACL380" s="0"/>
-      <c r="ACM380" s="0"/>
-      <c r="ACN380" s="0"/>
-      <c r="ACO380" s="0"/>
-      <c r="ACP380" s="0"/>
-      <c r="ACQ380" s="0"/>
-      <c r="ACR380" s="0"/>
-      <c r="ACS380" s="0"/>
-      <c r="ACT380" s="0"/>
-      <c r="ACU380" s="0"/>
-      <c r="ACV380" s="0"/>
-      <c r="ACW380" s="0"/>
-      <c r="ACX380" s="0"/>
-      <c r="ACY380" s="0"/>
-      <c r="ACZ380" s="0"/>
-      <c r="ADA380" s="0"/>
-      <c r="ADB380" s="0"/>
-      <c r="ADC380" s="0"/>
-      <c r="ADD380" s="0"/>
-      <c r="ADE380" s="0"/>
-      <c r="ADF380" s="0"/>
-      <c r="ADG380" s="0"/>
-      <c r="ADH380" s="0"/>
-      <c r="ADI380" s="0"/>
-      <c r="ADJ380" s="0"/>
-      <c r="ADK380" s="0"/>
-      <c r="ADL380" s="0"/>
-      <c r="ADM380" s="0"/>
-      <c r="ADN380" s="0"/>
-      <c r="ADO380" s="0"/>
-      <c r="ADP380" s="0"/>
-      <c r="ADQ380" s="0"/>
-      <c r="ADR380" s="0"/>
-      <c r="ADS380" s="0"/>
-      <c r="ADT380" s="0"/>
-      <c r="ADU380" s="0"/>
-      <c r="ADV380" s="0"/>
-      <c r="ADW380" s="0"/>
-      <c r="ADX380" s="0"/>
-      <c r="ADY380" s="0"/>
-      <c r="ADZ380" s="0"/>
-      <c r="AEA380" s="0"/>
-      <c r="AEB380" s="0"/>
-      <c r="AEC380" s="0"/>
-      <c r="AED380" s="0"/>
-      <c r="AEE380" s="0"/>
-      <c r="AEF380" s="0"/>
-      <c r="AEG380" s="0"/>
-      <c r="AEH380" s="0"/>
-      <c r="AEI380" s="0"/>
-      <c r="AEJ380" s="0"/>
-      <c r="AEK380" s="0"/>
-      <c r="AEL380" s="0"/>
-      <c r="AEM380" s="0"/>
-      <c r="AEN380" s="0"/>
-      <c r="AEO380" s="0"/>
-      <c r="AEP380" s="0"/>
-      <c r="AEQ380" s="0"/>
-      <c r="AER380" s="0"/>
-      <c r="AES380" s="0"/>
-      <c r="AET380" s="0"/>
-      <c r="AEU380" s="0"/>
-      <c r="AEV380" s="0"/>
-      <c r="AEW380" s="0"/>
-      <c r="AEX380" s="0"/>
-      <c r="AEY380" s="0"/>
-      <c r="AEZ380" s="0"/>
-      <c r="AFA380" s="0"/>
-      <c r="AFB380" s="0"/>
-      <c r="AFC380" s="0"/>
-      <c r="AFD380" s="0"/>
-      <c r="AFE380" s="0"/>
-      <c r="AFF380" s="0"/>
-      <c r="AFG380" s="0"/>
-      <c r="AFH380" s="0"/>
-      <c r="AFI380" s="0"/>
-      <c r="AFJ380" s="0"/>
-      <c r="AFK380" s="0"/>
-      <c r="AFL380" s="0"/>
-      <c r="AFM380" s="0"/>
-      <c r="AFN380" s="0"/>
-      <c r="AFO380" s="0"/>
-      <c r="AFP380" s="0"/>
-      <c r="AFQ380" s="0"/>
-      <c r="AFR380" s="0"/>
-      <c r="AFS380" s="0"/>
-      <c r="AFT380" s="0"/>
-      <c r="AFU380" s="0"/>
-      <c r="AFV380" s="0"/>
-      <c r="AFW380" s="0"/>
-      <c r="AFX380" s="0"/>
-      <c r="AFY380" s="0"/>
-      <c r="AFZ380" s="0"/>
-      <c r="AGA380" s="0"/>
-      <c r="AGB380" s="0"/>
-      <c r="AGC380" s="0"/>
-      <c r="AGD380" s="0"/>
-      <c r="AGE380" s="0"/>
-      <c r="AGF380" s="0"/>
-      <c r="AGG380" s="0"/>
-      <c r="AGH380" s="0"/>
-      <c r="AGI380" s="0"/>
-      <c r="AGJ380" s="0"/>
-      <c r="AGK380" s="0"/>
-      <c r="AGL380" s="0"/>
-      <c r="AGM380" s="0"/>
-      <c r="AGN380" s="0"/>
-      <c r="AGO380" s="0"/>
-      <c r="AGP380" s="0"/>
-      <c r="AGQ380" s="0"/>
-      <c r="AGR380" s="0"/>
-      <c r="AGS380" s="0"/>
-      <c r="AGT380" s="0"/>
-      <c r="AGU380" s="0"/>
-      <c r="AGV380" s="0"/>
-      <c r="AGW380" s="0"/>
-      <c r="AGX380" s="0"/>
-      <c r="AGY380" s="0"/>
-      <c r="AGZ380" s="0"/>
-      <c r="AHA380" s="0"/>
-      <c r="AHB380" s="0"/>
-      <c r="AHC380" s="0"/>
-      <c r="AHD380" s="0"/>
-      <c r="AHE380" s="0"/>
-      <c r="AHF380" s="0"/>
-      <c r="AHG380" s="0"/>
-      <c r="AHH380" s="0"/>
-      <c r="AHI380" s="0"/>
-      <c r="AHJ380" s="0"/>
-      <c r="AHK380" s="0"/>
-      <c r="AHL380" s="0"/>
-      <c r="AHM380" s="0"/>
-      <c r="AHN380" s="0"/>
-      <c r="AHO380" s="0"/>
-      <c r="AHP380" s="0"/>
-      <c r="AHQ380" s="0"/>
-      <c r="AHR380" s="0"/>
-      <c r="AHS380" s="0"/>
-      <c r="AHT380" s="0"/>
-      <c r="AHU380" s="0"/>
-      <c r="AHV380" s="0"/>
-      <c r="AHW380" s="0"/>
-      <c r="AHX380" s="0"/>
-      <c r="AHY380" s="0"/>
-      <c r="AHZ380" s="0"/>
-      <c r="AIA380" s="0"/>
-      <c r="AIB380" s="0"/>
-      <c r="AIC380" s="0"/>
-      <c r="AID380" s="0"/>
-      <c r="AIE380" s="0"/>
-      <c r="AIF380" s="0"/>
-      <c r="AIG380" s="0"/>
-      <c r="AIH380" s="0"/>
-      <c r="AII380" s="0"/>
-      <c r="AIJ380" s="0"/>
-      <c r="AIK380" s="0"/>
-      <c r="AIL380" s="0"/>
-      <c r="AIM380" s="0"/>
-      <c r="AIN380" s="0"/>
-      <c r="AIO380" s="0"/>
-      <c r="AIP380" s="0"/>
-      <c r="AIQ380" s="0"/>
-      <c r="AIR380" s="0"/>
-      <c r="AIS380" s="0"/>
-      <c r="AIT380" s="0"/>
-      <c r="AIU380" s="0"/>
-      <c r="AIV380" s="0"/>
-      <c r="AIW380" s="0"/>
-      <c r="AIX380" s="0"/>
-      <c r="AIY380" s="0"/>
-      <c r="AIZ380" s="0"/>
-      <c r="AJA380" s="0"/>
-      <c r="AJB380" s="0"/>
-      <c r="AJC380" s="0"/>
-      <c r="AJD380" s="0"/>
-      <c r="AJE380" s="0"/>
-      <c r="AJF380" s="0"/>
-      <c r="AJG380" s="0"/>
-      <c r="AJH380" s="0"/>
-      <c r="AJI380" s="0"/>
-      <c r="AJJ380" s="0"/>
-      <c r="AJK380" s="0"/>
-      <c r="AJL380" s="0"/>
-      <c r="AJM380" s="0"/>
-      <c r="AJN380" s="0"/>
-      <c r="AJO380" s="0"/>
-      <c r="AJP380" s="0"/>
-      <c r="AJQ380" s="0"/>
-      <c r="AJR380" s="0"/>
-      <c r="AJS380" s="0"/>
-      <c r="AJT380" s="0"/>
-      <c r="AJU380" s="0"/>
-      <c r="AJV380" s="0"/>
-      <c r="AJW380" s="0"/>
-      <c r="AJX380" s="0"/>
-      <c r="AJY380" s="0"/>
-      <c r="AJZ380" s="0"/>
-      <c r="AKA380" s="0"/>
-      <c r="AKB380" s="0"/>
-      <c r="AKC380" s="0"/>
-      <c r="AKD380" s="0"/>
-      <c r="AKE380" s="0"/>
-      <c r="AKF380" s="0"/>
-      <c r="AKG380" s="0"/>
-      <c r="AKH380" s="0"/>
-      <c r="AKI380" s="0"/>
-      <c r="AKJ380" s="0"/>
-      <c r="AKK380" s="0"/>
-      <c r="AKL380" s="0"/>
-      <c r="AKM380" s="0"/>
-      <c r="AKN380" s="0"/>
-      <c r="AKO380" s="0"/>
-      <c r="AKP380" s="0"/>
-      <c r="AKQ380" s="0"/>
-      <c r="AKR380" s="0"/>
-      <c r="AKS380" s="0"/>
-      <c r="AKT380" s="0"/>
-      <c r="AKU380" s="0"/>
-      <c r="AKV380" s="0"/>
-      <c r="AKW380" s="0"/>
-      <c r="AKX380" s="0"/>
-      <c r="AKY380" s="0"/>
-      <c r="AKZ380" s="0"/>
-      <c r="ALA380" s="0"/>
-      <c r="ALB380" s="0"/>
-      <c r="ALC380" s="0"/>
-      <c r="ALD380" s="0"/>
-      <c r="ALE380" s="0"/>
-      <c r="ALF380" s="0"/>
-      <c r="ALG380" s="0"/>
-      <c r="ALH380" s="0"/>
-      <c r="ALI380" s="0"/>
-      <c r="ALJ380" s="0"/>
-      <c r="ALK380" s="0"/>
-      <c r="ALL380" s="0"/>
-      <c r="ALM380" s="0"/>
-      <c r="ALN380" s="0"/>
-      <c r="ALO380" s="0"/>
-      <c r="ALP380" s="0"/>
-      <c r="ALQ380" s="0"/>
-      <c r="ALR380" s="0"/>
-      <c r="ALS380" s="0"/>
-      <c r="ALT380" s="0"/>
-      <c r="ALU380" s="0"/>
-      <c r="ALV380" s="0"/>
-      <c r="ALW380" s="0"/>
-      <c r="ALX380" s="0"/>
-      <c r="ALY380" s="0"/>
-      <c r="ALZ380" s="0"/>
-      <c r="AMA380" s="0"/>
-      <c r="AMB380" s="0"/>
-      <c r="AMC380" s="0"/>
-      <c r="AMD380" s="0"/>
-      <c r="AME380" s="0"/>
-      <c r="AMF380" s="0"/>
-      <c r="AMG380" s="0"/>
-      <c r="AMH380" s="0"/>
-      <c r="AMI380" s="0"/>
-      <c r="AMJ380" s="0"/>
+      <c r="F380" s="3"/>
+      <c r="G380" s="4"/>
     </row>
     <row r="381" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A381" s="1" t="s">
         <v>1049</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="D381" s="1" t="s">
         <v>1050</v>
@@ -12801,17 +11792,1032 @@
       <c r="A382" s="1" t="s">
         <v>1051</v>
       </c>
-      <c r="B382" s="1" t="s">
+      <c r="C382" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D382" s="1" t="s">
         <v>1052</v>
       </c>
-      <c r="C382" s="1" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D382" s="1" t="s">
-        <v>1005</v>
-      </c>
-      <c r="F382" s="3"/>
-      <c r="G382" s="4"/>
+      <c r="E382" s="0"/>
+      <c r="F382" s="0"/>
+      <c r="G382" s="0"/>
+      <c r="H382" s="0"/>
+      <c r="I382" s="0"/>
+      <c r="J382" s="0"/>
+      <c r="K382" s="0"/>
+      <c r="L382" s="0"/>
+      <c r="M382" s="0"/>
+      <c r="N382" s="0"/>
+      <c r="O382" s="0"/>
+      <c r="P382" s="0"/>
+      <c r="Q382" s="0"/>
+      <c r="R382" s="0"/>
+      <c r="S382" s="0"/>
+      <c r="T382" s="0"/>
+      <c r="U382" s="0"/>
+      <c r="V382" s="0"/>
+      <c r="W382" s="0"/>
+      <c r="X382" s="0"/>
+      <c r="Y382" s="0"/>
+      <c r="Z382" s="0"/>
+      <c r="AA382" s="0"/>
+      <c r="AB382" s="0"/>
+      <c r="AC382" s="0"/>
+      <c r="AD382" s="0"/>
+      <c r="AE382" s="0"/>
+      <c r="AF382" s="0"/>
+      <c r="AG382" s="0"/>
+      <c r="AH382" s="0"/>
+      <c r="AI382" s="0"/>
+      <c r="AJ382" s="0"/>
+      <c r="AK382" s="0"/>
+      <c r="AL382" s="0"/>
+      <c r="AM382" s="0"/>
+      <c r="AN382" s="0"/>
+      <c r="AO382" s="0"/>
+      <c r="AP382" s="0"/>
+      <c r="AQ382" s="0"/>
+      <c r="AR382" s="0"/>
+      <c r="AS382" s="0"/>
+      <c r="AT382" s="0"/>
+      <c r="AU382" s="0"/>
+      <c r="AV382" s="0"/>
+      <c r="AW382" s="0"/>
+      <c r="AX382" s="0"/>
+      <c r="AY382" s="0"/>
+      <c r="AZ382" s="0"/>
+      <c r="BA382" s="0"/>
+      <c r="BB382" s="0"/>
+      <c r="BC382" s="0"/>
+      <c r="BD382" s="0"/>
+      <c r="BE382" s="0"/>
+      <c r="BF382" s="0"/>
+      <c r="BG382" s="0"/>
+      <c r="BH382" s="0"/>
+      <c r="BI382" s="0"/>
+      <c r="BJ382" s="0"/>
+      <c r="BK382" s="0"/>
+      <c r="BL382" s="0"/>
+      <c r="BM382" s="0"/>
+      <c r="BN382" s="0"/>
+      <c r="BO382" s="0"/>
+      <c r="BP382" s="0"/>
+      <c r="BQ382" s="0"/>
+      <c r="BR382" s="0"/>
+      <c r="BS382" s="0"/>
+      <c r="BT382" s="0"/>
+      <c r="BU382" s="0"/>
+      <c r="BV382" s="0"/>
+      <c r="BW382" s="0"/>
+      <c r="BX382" s="0"/>
+      <c r="BY382" s="0"/>
+      <c r="BZ382" s="0"/>
+      <c r="CA382" s="0"/>
+      <c r="CB382" s="0"/>
+      <c r="CC382" s="0"/>
+      <c r="CD382" s="0"/>
+      <c r="CE382" s="0"/>
+      <c r="CF382" s="0"/>
+      <c r="CG382" s="0"/>
+      <c r="CH382" s="0"/>
+      <c r="CI382" s="0"/>
+      <c r="CJ382" s="0"/>
+      <c r="CK382" s="0"/>
+      <c r="CL382" s="0"/>
+      <c r="CM382" s="0"/>
+      <c r="CN382" s="0"/>
+      <c r="CO382" s="0"/>
+      <c r="CP382" s="0"/>
+      <c r="CQ382" s="0"/>
+      <c r="CR382" s="0"/>
+      <c r="CS382" s="0"/>
+      <c r="CT382" s="0"/>
+      <c r="CU382" s="0"/>
+      <c r="CV382" s="0"/>
+      <c r="CW382" s="0"/>
+      <c r="CX382" s="0"/>
+      <c r="CY382" s="0"/>
+      <c r="CZ382" s="0"/>
+      <c r="DA382" s="0"/>
+      <c r="DB382" s="0"/>
+      <c r="DC382" s="0"/>
+      <c r="DD382" s="0"/>
+      <c r="DE382" s="0"/>
+      <c r="DF382" s="0"/>
+      <c r="DG382" s="0"/>
+      <c r="DH382" s="0"/>
+      <c r="DI382" s="0"/>
+      <c r="DJ382" s="0"/>
+      <c r="DK382" s="0"/>
+      <c r="DL382" s="0"/>
+      <c r="DM382" s="0"/>
+      <c r="DN382" s="0"/>
+      <c r="DO382" s="0"/>
+      <c r="DP382" s="0"/>
+      <c r="DQ382" s="0"/>
+      <c r="DR382" s="0"/>
+      <c r="DS382" s="0"/>
+      <c r="DT382" s="0"/>
+      <c r="DU382" s="0"/>
+      <c r="DV382" s="0"/>
+      <c r="DW382" s="0"/>
+      <c r="DX382" s="0"/>
+      <c r="DY382" s="0"/>
+      <c r="DZ382" s="0"/>
+      <c r="EA382" s="0"/>
+      <c r="EB382" s="0"/>
+      <c r="EC382" s="0"/>
+      <c r="ED382" s="0"/>
+      <c r="EE382" s="0"/>
+      <c r="EF382" s="0"/>
+      <c r="EG382" s="0"/>
+      <c r="EH382" s="0"/>
+      <c r="EI382" s="0"/>
+      <c r="EJ382" s="0"/>
+      <c r="EK382" s="0"/>
+      <c r="EL382" s="0"/>
+      <c r="EM382" s="0"/>
+      <c r="EN382" s="0"/>
+      <c r="EO382" s="0"/>
+      <c r="EP382" s="0"/>
+      <c r="EQ382" s="0"/>
+      <c r="ER382" s="0"/>
+      <c r="ES382" s="0"/>
+      <c r="ET382" s="0"/>
+      <c r="EU382" s="0"/>
+      <c r="EV382" s="0"/>
+      <c r="EW382" s="0"/>
+      <c r="EX382" s="0"/>
+      <c r="EY382" s="0"/>
+      <c r="EZ382" s="0"/>
+      <c r="FA382" s="0"/>
+      <c r="FB382" s="0"/>
+      <c r="FC382" s="0"/>
+      <c r="FD382" s="0"/>
+      <c r="FE382" s="0"/>
+      <c r="FF382" s="0"/>
+      <c r="FG382" s="0"/>
+      <c r="FH382" s="0"/>
+      <c r="FI382" s="0"/>
+      <c r="FJ382" s="0"/>
+      <c r="FK382" s="0"/>
+      <c r="FL382" s="0"/>
+      <c r="FM382" s="0"/>
+      <c r="FN382" s="0"/>
+      <c r="FO382" s="0"/>
+      <c r="FP382" s="0"/>
+      <c r="FQ382" s="0"/>
+      <c r="FR382" s="0"/>
+      <c r="FS382" s="0"/>
+      <c r="FT382" s="0"/>
+      <c r="FU382" s="0"/>
+      <c r="FV382" s="0"/>
+      <c r="FW382" s="0"/>
+      <c r="FX382" s="0"/>
+      <c r="FY382" s="0"/>
+      <c r="FZ382" s="0"/>
+      <c r="GA382" s="0"/>
+      <c r="GB382" s="0"/>
+      <c r="GC382" s="0"/>
+      <c r="GD382" s="0"/>
+      <c r="GE382" s="0"/>
+      <c r="GF382" s="0"/>
+      <c r="GG382" s="0"/>
+      <c r="GH382" s="0"/>
+      <c r="GI382" s="0"/>
+      <c r="GJ382" s="0"/>
+      <c r="GK382" s="0"/>
+      <c r="GL382" s="0"/>
+      <c r="GM382" s="0"/>
+      <c r="GN382" s="0"/>
+      <c r="GO382" s="0"/>
+      <c r="GP382" s="0"/>
+      <c r="GQ382" s="0"/>
+      <c r="GR382" s="0"/>
+      <c r="GS382" s="0"/>
+      <c r="GT382" s="0"/>
+      <c r="GU382" s="0"/>
+      <c r="GV382" s="0"/>
+      <c r="GW382" s="0"/>
+      <c r="GX382" s="0"/>
+      <c r="GY382" s="0"/>
+      <c r="GZ382" s="0"/>
+      <c r="HA382" s="0"/>
+      <c r="HB382" s="0"/>
+      <c r="HC382" s="0"/>
+      <c r="HD382" s="0"/>
+      <c r="HE382" s="0"/>
+      <c r="HF382" s="0"/>
+      <c r="HG382" s="0"/>
+      <c r="HH382" s="0"/>
+      <c r="HI382" s="0"/>
+      <c r="HJ382" s="0"/>
+      <c r="HK382" s="0"/>
+      <c r="HL382" s="0"/>
+      <c r="HM382" s="0"/>
+      <c r="HN382" s="0"/>
+      <c r="HO382" s="0"/>
+      <c r="HP382" s="0"/>
+      <c r="HQ382" s="0"/>
+      <c r="HR382" s="0"/>
+      <c r="HS382" s="0"/>
+      <c r="HT382" s="0"/>
+      <c r="HU382" s="0"/>
+      <c r="HV382" s="0"/>
+      <c r="HW382" s="0"/>
+      <c r="HX382" s="0"/>
+      <c r="HY382" s="0"/>
+      <c r="HZ382" s="0"/>
+      <c r="IA382" s="0"/>
+      <c r="IB382" s="0"/>
+      <c r="IC382" s="0"/>
+      <c r="ID382" s="0"/>
+      <c r="IE382" s="0"/>
+      <c r="IF382" s="0"/>
+      <c r="IG382" s="0"/>
+      <c r="IH382" s="0"/>
+      <c r="II382" s="0"/>
+      <c r="IJ382" s="0"/>
+      <c r="IK382" s="0"/>
+      <c r="IL382" s="0"/>
+      <c r="IM382" s="0"/>
+      <c r="IN382" s="0"/>
+      <c r="IO382" s="0"/>
+      <c r="IP382" s="0"/>
+      <c r="IQ382" s="0"/>
+      <c r="IR382" s="0"/>
+      <c r="IS382" s="0"/>
+      <c r="IT382" s="0"/>
+      <c r="IU382" s="0"/>
+      <c r="IV382" s="0"/>
+      <c r="IW382" s="0"/>
+      <c r="IX382" s="0"/>
+      <c r="IY382" s="0"/>
+      <c r="IZ382" s="0"/>
+      <c r="JA382" s="0"/>
+      <c r="JB382" s="0"/>
+      <c r="JC382" s="0"/>
+      <c r="JD382" s="0"/>
+      <c r="JE382" s="0"/>
+      <c r="JF382" s="0"/>
+      <c r="JG382" s="0"/>
+      <c r="JH382" s="0"/>
+      <c r="JI382" s="0"/>
+      <c r="JJ382" s="0"/>
+      <c r="JK382" s="0"/>
+      <c r="JL382" s="0"/>
+      <c r="JM382" s="0"/>
+      <c r="JN382" s="0"/>
+      <c r="JO382" s="0"/>
+      <c r="JP382" s="0"/>
+      <c r="JQ382" s="0"/>
+      <c r="JR382" s="0"/>
+      <c r="JS382" s="0"/>
+      <c r="JT382" s="0"/>
+      <c r="JU382" s="0"/>
+      <c r="JV382" s="0"/>
+      <c r="JW382" s="0"/>
+      <c r="JX382" s="0"/>
+      <c r="JY382" s="0"/>
+      <c r="JZ382" s="0"/>
+      <c r="KA382" s="0"/>
+      <c r="KB382" s="0"/>
+      <c r="KC382" s="0"/>
+      <c r="KD382" s="0"/>
+      <c r="KE382" s="0"/>
+      <c r="KF382" s="0"/>
+      <c r="KG382" s="0"/>
+      <c r="KH382" s="0"/>
+      <c r="KI382" s="0"/>
+      <c r="KJ382" s="0"/>
+      <c r="KK382" s="0"/>
+      <c r="KL382" s="0"/>
+      <c r="KM382" s="0"/>
+      <c r="KN382" s="0"/>
+      <c r="KO382" s="0"/>
+      <c r="KP382" s="0"/>
+      <c r="KQ382" s="0"/>
+      <c r="KR382" s="0"/>
+      <c r="KS382" s="0"/>
+      <c r="KT382" s="0"/>
+      <c r="KU382" s="0"/>
+      <c r="KV382" s="0"/>
+      <c r="KW382" s="0"/>
+      <c r="KX382" s="0"/>
+      <c r="KY382" s="0"/>
+      <c r="KZ382" s="0"/>
+      <c r="LA382" s="0"/>
+      <c r="LB382" s="0"/>
+      <c r="LC382" s="0"/>
+      <c r="LD382" s="0"/>
+      <c r="LE382" s="0"/>
+      <c r="LF382" s="0"/>
+      <c r="LG382" s="0"/>
+      <c r="LH382" s="0"/>
+      <c r="LI382" s="0"/>
+      <c r="LJ382" s="0"/>
+      <c r="LK382" s="0"/>
+      <c r="LL382" s="0"/>
+      <c r="LM382" s="0"/>
+      <c r="LN382" s="0"/>
+      <c r="LO382" s="0"/>
+      <c r="LP382" s="0"/>
+      <c r="LQ382" s="0"/>
+      <c r="LR382" s="0"/>
+      <c r="LS382" s="0"/>
+      <c r="LT382" s="0"/>
+      <c r="LU382" s="0"/>
+      <c r="LV382" s="0"/>
+      <c r="LW382" s="0"/>
+      <c r="LX382" s="0"/>
+      <c r="LY382" s="0"/>
+      <c r="LZ382" s="0"/>
+      <c r="MA382" s="0"/>
+      <c r="MB382" s="0"/>
+      <c r="MC382" s="0"/>
+      <c r="MD382" s="0"/>
+      <c r="ME382" s="0"/>
+      <c r="MF382" s="0"/>
+      <c r="MG382" s="0"/>
+      <c r="MH382" s="0"/>
+      <c r="MI382" s="0"/>
+      <c r="MJ382" s="0"/>
+      <c r="MK382" s="0"/>
+      <c r="ML382" s="0"/>
+      <c r="MM382" s="0"/>
+      <c r="MN382" s="0"/>
+      <c r="MO382" s="0"/>
+      <c r="MP382" s="0"/>
+      <c r="MQ382" s="0"/>
+      <c r="MR382" s="0"/>
+      <c r="MS382" s="0"/>
+      <c r="MT382" s="0"/>
+      <c r="MU382" s="0"/>
+      <c r="MV382" s="0"/>
+      <c r="MW382" s="0"/>
+      <c r="MX382" s="0"/>
+      <c r="MY382" s="0"/>
+      <c r="MZ382" s="0"/>
+      <c r="NA382" s="0"/>
+      <c r="NB382" s="0"/>
+      <c r="NC382" s="0"/>
+      <c r="ND382" s="0"/>
+      <c r="NE382" s="0"/>
+      <c r="NF382" s="0"/>
+      <c r="NG382" s="0"/>
+      <c r="NH382" s="0"/>
+      <c r="NI382" s="0"/>
+      <c r="NJ382" s="0"/>
+      <c r="NK382" s="0"/>
+      <c r="NL382" s="0"/>
+      <c r="NM382" s="0"/>
+      <c r="NN382" s="0"/>
+      <c r="NO382" s="0"/>
+      <c r="NP382" s="0"/>
+      <c r="NQ382" s="0"/>
+      <c r="NR382" s="0"/>
+      <c r="NS382" s="0"/>
+      <c r="NT382" s="0"/>
+      <c r="NU382" s="0"/>
+      <c r="NV382" s="0"/>
+      <c r="NW382" s="0"/>
+      <c r="NX382" s="0"/>
+      <c r="NY382" s="0"/>
+      <c r="NZ382" s="0"/>
+      <c r="OA382" s="0"/>
+      <c r="OB382" s="0"/>
+      <c r="OC382" s="0"/>
+      <c r="OD382" s="0"/>
+      <c r="OE382" s="0"/>
+      <c r="OF382" s="0"/>
+      <c r="OG382" s="0"/>
+      <c r="OH382" s="0"/>
+      <c r="OI382" s="0"/>
+      <c r="OJ382" s="0"/>
+      <c r="OK382" s="0"/>
+      <c r="OL382" s="0"/>
+      <c r="OM382" s="0"/>
+      <c r="ON382" s="0"/>
+      <c r="OO382" s="0"/>
+      <c r="OP382" s="0"/>
+      <c r="OQ382" s="0"/>
+      <c r="OR382" s="0"/>
+      <c r="OS382" s="0"/>
+      <c r="OT382" s="0"/>
+      <c r="OU382" s="0"/>
+      <c r="OV382" s="0"/>
+      <c r="OW382" s="0"/>
+      <c r="OX382" s="0"/>
+      <c r="OY382" s="0"/>
+      <c r="OZ382" s="0"/>
+      <c r="PA382" s="0"/>
+      <c r="PB382" s="0"/>
+      <c r="PC382" s="0"/>
+      <c r="PD382" s="0"/>
+      <c r="PE382" s="0"/>
+      <c r="PF382" s="0"/>
+      <c r="PG382" s="0"/>
+      <c r="PH382" s="0"/>
+      <c r="PI382" s="0"/>
+      <c r="PJ382" s="0"/>
+      <c r="PK382" s="0"/>
+      <c r="PL382" s="0"/>
+      <c r="PM382" s="0"/>
+      <c r="PN382" s="0"/>
+      <c r="PO382" s="0"/>
+      <c r="PP382" s="0"/>
+      <c r="PQ382" s="0"/>
+      <c r="PR382" s="0"/>
+      <c r="PS382" s="0"/>
+      <c r="PT382" s="0"/>
+      <c r="PU382" s="0"/>
+      <c r="PV382" s="0"/>
+      <c r="PW382" s="0"/>
+      <c r="PX382" s="0"/>
+      <c r="PY382" s="0"/>
+      <c r="PZ382" s="0"/>
+      <c r="QA382" s="0"/>
+      <c r="QB382" s="0"/>
+      <c r="QC382" s="0"/>
+      <c r="QD382" s="0"/>
+      <c r="QE382" s="0"/>
+      <c r="QF382" s="0"/>
+      <c r="QG382" s="0"/>
+      <c r="QH382" s="0"/>
+      <c r="QI382" s="0"/>
+      <c r="QJ382" s="0"/>
+      <c r="QK382" s="0"/>
+      <c r="QL382" s="0"/>
+      <c r="QM382" s="0"/>
+      <c r="QN382" s="0"/>
+      <c r="QO382" s="0"/>
+      <c r="QP382" s="0"/>
+      <c r="QQ382" s="0"/>
+      <c r="QR382" s="0"/>
+      <c r="QS382" s="0"/>
+      <c r="QT382" s="0"/>
+      <c r="QU382" s="0"/>
+      <c r="QV382" s="0"/>
+      <c r="QW382" s="0"/>
+      <c r="QX382" s="0"/>
+      <c r="QY382" s="0"/>
+      <c r="QZ382" s="0"/>
+      <c r="RA382" s="0"/>
+      <c r="RB382" s="0"/>
+      <c r="RC382" s="0"/>
+      <c r="RD382" s="0"/>
+      <c r="RE382" s="0"/>
+      <c r="RF382" s="0"/>
+      <c r="RG382" s="0"/>
+      <c r="RH382" s="0"/>
+      <c r="RI382" s="0"/>
+      <c r="RJ382" s="0"/>
+      <c r="RK382" s="0"/>
+      <c r="RL382" s="0"/>
+      <c r="RM382" s="0"/>
+      <c r="RN382" s="0"/>
+      <c r="RO382" s="0"/>
+      <c r="RP382" s="0"/>
+      <c r="RQ382" s="0"/>
+      <c r="RR382" s="0"/>
+      <c r="RS382" s="0"/>
+      <c r="RT382" s="0"/>
+      <c r="RU382" s="0"/>
+      <c r="RV382" s="0"/>
+      <c r="RW382" s="0"/>
+      <c r="RX382" s="0"/>
+      <c r="RY382" s="0"/>
+      <c r="RZ382" s="0"/>
+      <c r="SA382" s="0"/>
+      <c r="SB382" s="0"/>
+      <c r="SC382" s="0"/>
+      <c r="SD382" s="0"/>
+      <c r="SE382" s="0"/>
+      <c r="SF382" s="0"/>
+      <c r="SG382" s="0"/>
+      <c r="SH382" s="0"/>
+      <c r="SI382" s="0"/>
+      <c r="SJ382" s="0"/>
+      <c r="SK382" s="0"/>
+      <c r="SL382" s="0"/>
+      <c r="SM382" s="0"/>
+      <c r="SN382" s="0"/>
+      <c r="SO382" s="0"/>
+      <c r="SP382" s="0"/>
+      <c r="SQ382" s="0"/>
+      <c r="SR382" s="0"/>
+      <c r="SS382" s="0"/>
+      <c r="ST382" s="0"/>
+      <c r="SU382" s="0"/>
+      <c r="SV382" s="0"/>
+      <c r="SW382" s="0"/>
+      <c r="SX382" s="0"/>
+      <c r="SY382" s="0"/>
+      <c r="SZ382" s="0"/>
+      <c r="TA382" s="0"/>
+      <c r="TB382" s="0"/>
+      <c r="TC382" s="0"/>
+      <c r="TD382" s="0"/>
+      <c r="TE382" s="0"/>
+      <c r="TF382" s="0"/>
+      <c r="TG382" s="0"/>
+      <c r="TH382" s="0"/>
+      <c r="TI382" s="0"/>
+      <c r="TJ382" s="0"/>
+      <c r="TK382" s="0"/>
+      <c r="TL382" s="0"/>
+      <c r="TM382" s="0"/>
+      <c r="TN382" s="0"/>
+      <c r="TO382" s="0"/>
+      <c r="TP382" s="0"/>
+      <c r="TQ382" s="0"/>
+      <c r="TR382" s="0"/>
+      <c r="TS382" s="0"/>
+      <c r="TT382" s="0"/>
+      <c r="TU382" s="0"/>
+      <c r="TV382" s="0"/>
+      <c r="TW382" s="0"/>
+      <c r="TX382" s="0"/>
+      <c r="TY382" s="0"/>
+      <c r="TZ382" s="0"/>
+      <c r="UA382" s="0"/>
+      <c r="UB382" s="0"/>
+      <c r="UC382" s="0"/>
+      <c r="UD382" s="0"/>
+      <c r="UE382" s="0"/>
+      <c r="UF382" s="0"/>
+      <c r="UG382" s="0"/>
+      <c r="UH382" s="0"/>
+      <c r="UI382" s="0"/>
+      <c r="UJ382" s="0"/>
+      <c r="UK382" s="0"/>
+      <c r="UL382" s="0"/>
+      <c r="UM382" s="0"/>
+      <c r="UN382" s="0"/>
+      <c r="UO382" s="0"/>
+      <c r="UP382" s="0"/>
+      <c r="UQ382" s="0"/>
+      <c r="UR382" s="0"/>
+      <c r="US382" s="0"/>
+      <c r="UT382" s="0"/>
+      <c r="UU382" s="0"/>
+      <c r="UV382" s="0"/>
+      <c r="UW382" s="0"/>
+      <c r="UX382" s="0"/>
+      <c r="UY382" s="0"/>
+      <c r="UZ382" s="0"/>
+      <c r="VA382" s="0"/>
+      <c r="VB382" s="0"/>
+      <c r="VC382" s="0"/>
+      <c r="VD382" s="0"/>
+      <c r="VE382" s="0"/>
+      <c r="VF382" s="0"/>
+      <c r="VG382" s="0"/>
+      <c r="VH382" s="0"/>
+      <c r="VI382" s="0"/>
+      <c r="VJ382" s="0"/>
+      <c r="VK382" s="0"/>
+      <c r="VL382" s="0"/>
+      <c r="VM382" s="0"/>
+      <c r="VN382" s="0"/>
+      <c r="VO382" s="0"/>
+      <c r="VP382" s="0"/>
+      <c r="VQ382" s="0"/>
+      <c r="VR382" s="0"/>
+      <c r="VS382" s="0"/>
+      <c r="VT382" s="0"/>
+      <c r="VU382" s="0"/>
+      <c r="VV382" s="0"/>
+      <c r="VW382" s="0"/>
+      <c r="VX382" s="0"/>
+      <c r="VY382" s="0"/>
+      <c r="VZ382" s="0"/>
+      <c r="WA382" s="0"/>
+      <c r="WB382" s="0"/>
+      <c r="WC382" s="0"/>
+      <c r="WD382" s="0"/>
+      <c r="WE382" s="0"/>
+      <c r="WF382" s="0"/>
+      <c r="WG382" s="0"/>
+      <c r="WH382" s="0"/>
+      <c r="WI382" s="0"/>
+      <c r="WJ382" s="0"/>
+      <c r="WK382" s="0"/>
+      <c r="WL382" s="0"/>
+      <c r="WM382" s="0"/>
+      <c r="WN382" s="0"/>
+      <c r="WO382" s="0"/>
+      <c r="WP382" s="0"/>
+      <c r="WQ382" s="0"/>
+      <c r="WR382" s="0"/>
+      <c r="WS382" s="0"/>
+      <c r="WT382" s="0"/>
+      <c r="WU382" s="0"/>
+      <c r="WV382" s="0"/>
+      <c r="WW382" s="0"/>
+      <c r="WX382" s="0"/>
+      <c r="WY382" s="0"/>
+      <c r="WZ382" s="0"/>
+      <c r="XA382" s="0"/>
+      <c r="XB382" s="0"/>
+      <c r="XC382" s="0"/>
+      <c r="XD382" s="0"/>
+      <c r="XE382" s="0"/>
+      <c r="XF382" s="0"/>
+      <c r="XG382" s="0"/>
+      <c r="XH382" s="0"/>
+      <c r="XI382" s="0"/>
+      <c r="XJ382" s="0"/>
+      <c r="XK382" s="0"/>
+      <c r="XL382" s="0"/>
+      <c r="XM382" s="0"/>
+      <c r="XN382" s="0"/>
+      <c r="XO382" s="0"/>
+      <c r="XP382" s="0"/>
+      <c r="XQ382" s="0"/>
+      <c r="XR382" s="0"/>
+      <c r="XS382" s="0"/>
+      <c r="XT382" s="0"/>
+      <c r="XU382" s="0"/>
+      <c r="XV382" s="0"/>
+      <c r="XW382" s="0"/>
+      <c r="XX382" s="0"/>
+      <c r="XY382" s="0"/>
+      <c r="XZ382" s="0"/>
+      <c r="YA382" s="0"/>
+      <c r="YB382" s="0"/>
+      <c r="YC382" s="0"/>
+      <c r="YD382" s="0"/>
+      <c r="YE382" s="0"/>
+      <c r="YF382" s="0"/>
+      <c r="YG382" s="0"/>
+      <c r="YH382" s="0"/>
+      <c r="YI382" s="0"/>
+      <c r="YJ382" s="0"/>
+      <c r="YK382" s="0"/>
+      <c r="YL382" s="0"/>
+      <c r="YM382" s="0"/>
+      <c r="YN382" s="0"/>
+      <c r="YO382" s="0"/>
+      <c r="YP382" s="0"/>
+      <c r="YQ382" s="0"/>
+      <c r="YR382" s="0"/>
+      <c r="YS382" s="0"/>
+      <c r="YT382" s="0"/>
+      <c r="YU382" s="0"/>
+      <c r="YV382" s="0"/>
+      <c r="YW382" s="0"/>
+      <c r="YX382" s="0"/>
+      <c r="YY382" s="0"/>
+      <c r="YZ382" s="0"/>
+      <c r="ZA382" s="0"/>
+      <c r="ZB382" s="0"/>
+      <c r="ZC382" s="0"/>
+      <c r="ZD382" s="0"/>
+      <c r="ZE382" s="0"/>
+      <c r="ZF382" s="0"/>
+      <c r="ZG382" s="0"/>
+      <c r="ZH382" s="0"/>
+      <c r="ZI382" s="0"/>
+      <c r="ZJ382" s="0"/>
+      <c r="ZK382" s="0"/>
+      <c r="ZL382" s="0"/>
+      <c r="ZM382" s="0"/>
+      <c r="ZN382" s="0"/>
+      <c r="ZO382" s="0"/>
+      <c r="ZP382" s="0"/>
+      <c r="ZQ382" s="0"/>
+      <c r="ZR382" s="0"/>
+      <c r="ZS382" s="0"/>
+      <c r="ZT382" s="0"/>
+      <c r="ZU382" s="0"/>
+      <c r="ZV382" s="0"/>
+      <c r="ZW382" s="0"/>
+      <c r="ZX382" s="0"/>
+      <c r="ZY382" s="0"/>
+      <c r="ZZ382" s="0"/>
+      <c r="AAA382" s="0"/>
+      <c r="AAB382" s="0"/>
+      <c r="AAC382" s="0"/>
+      <c r="AAD382" s="0"/>
+      <c r="AAE382" s="0"/>
+      <c r="AAF382" s="0"/>
+      <c r="AAG382" s="0"/>
+      <c r="AAH382" s="0"/>
+      <c r="AAI382" s="0"/>
+      <c r="AAJ382" s="0"/>
+      <c r="AAK382" s="0"/>
+      <c r="AAL382" s="0"/>
+      <c r="AAM382" s="0"/>
+      <c r="AAN382" s="0"/>
+      <c r="AAO382" s="0"/>
+      <c r="AAP382" s="0"/>
+      <c r="AAQ382" s="0"/>
+      <c r="AAR382" s="0"/>
+      <c r="AAS382" s="0"/>
+      <c r="AAT382" s="0"/>
+      <c r="AAU382" s="0"/>
+      <c r="AAV382" s="0"/>
+      <c r="AAW382" s="0"/>
+      <c r="AAX382" s="0"/>
+      <c r="AAY382" s="0"/>
+      <c r="AAZ382" s="0"/>
+      <c r="ABA382" s="0"/>
+      <c r="ABB382" s="0"/>
+      <c r="ABC382" s="0"/>
+      <c r="ABD382" s="0"/>
+      <c r="ABE382" s="0"/>
+      <c r="ABF382" s="0"/>
+      <c r="ABG382" s="0"/>
+      <c r="ABH382" s="0"/>
+      <c r="ABI382" s="0"/>
+      <c r="ABJ382" s="0"/>
+      <c r="ABK382" s="0"/>
+      <c r="ABL382" s="0"/>
+      <c r="ABM382" s="0"/>
+      <c r="ABN382" s="0"/>
+      <c r="ABO382" s="0"/>
+      <c r="ABP382" s="0"/>
+      <c r="ABQ382" s="0"/>
+      <c r="ABR382" s="0"/>
+      <c r="ABS382" s="0"/>
+      <c r="ABT382" s="0"/>
+      <c r="ABU382" s="0"/>
+      <c r="ABV382" s="0"/>
+      <c r="ABW382" s="0"/>
+      <c r="ABX382" s="0"/>
+      <c r="ABY382" s="0"/>
+      <c r="ABZ382" s="0"/>
+      <c r="ACA382" s="0"/>
+      <c r="ACB382" s="0"/>
+      <c r="ACC382" s="0"/>
+      <c r="ACD382" s="0"/>
+      <c r="ACE382" s="0"/>
+      <c r="ACF382" s="0"/>
+      <c r="ACG382" s="0"/>
+      <c r="ACH382" s="0"/>
+      <c r="ACI382" s="0"/>
+      <c r="ACJ382" s="0"/>
+      <c r="ACK382" s="0"/>
+      <c r="ACL382" s="0"/>
+      <c r="ACM382" s="0"/>
+      <c r="ACN382" s="0"/>
+      <c r="ACO382" s="0"/>
+      <c r="ACP382" s="0"/>
+      <c r="ACQ382" s="0"/>
+      <c r="ACR382" s="0"/>
+      <c r="ACS382" s="0"/>
+      <c r="ACT382" s="0"/>
+      <c r="ACU382" s="0"/>
+      <c r="ACV382" s="0"/>
+      <c r="ACW382" s="0"/>
+      <c r="ACX382" s="0"/>
+      <c r="ACY382" s="0"/>
+      <c r="ACZ382" s="0"/>
+      <c r="ADA382" s="0"/>
+      <c r="ADB382" s="0"/>
+      <c r="ADC382" s="0"/>
+      <c r="ADD382" s="0"/>
+      <c r="ADE382" s="0"/>
+      <c r="ADF382" s="0"/>
+      <c r="ADG382" s="0"/>
+      <c r="ADH382" s="0"/>
+      <c r="ADI382" s="0"/>
+      <c r="ADJ382" s="0"/>
+      <c r="ADK382" s="0"/>
+      <c r="ADL382" s="0"/>
+      <c r="ADM382" s="0"/>
+      <c r="ADN382" s="0"/>
+      <c r="ADO382" s="0"/>
+      <c r="ADP382" s="0"/>
+      <c r="ADQ382" s="0"/>
+      <c r="ADR382" s="0"/>
+      <c r="ADS382" s="0"/>
+      <c r="ADT382" s="0"/>
+      <c r="ADU382" s="0"/>
+      <c r="ADV382" s="0"/>
+      <c r="ADW382" s="0"/>
+      <c r="ADX382" s="0"/>
+      <c r="ADY382" s="0"/>
+      <c r="ADZ382" s="0"/>
+      <c r="AEA382" s="0"/>
+      <c r="AEB382" s="0"/>
+      <c r="AEC382" s="0"/>
+      <c r="AED382" s="0"/>
+      <c r="AEE382" s="0"/>
+      <c r="AEF382" s="0"/>
+      <c r="AEG382" s="0"/>
+      <c r="AEH382" s="0"/>
+      <c r="AEI382" s="0"/>
+      <c r="AEJ382" s="0"/>
+      <c r="AEK382" s="0"/>
+      <c r="AEL382" s="0"/>
+      <c r="AEM382" s="0"/>
+      <c r="AEN382" s="0"/>
+      <c r="AEO382" s="0"/>
+      <c r="AEP382" s="0"/>
+      <c r="AEQ382" s="0"/>
+      <c r="AER382" s="0"/>
+      <c r="AES382" s="0"/>
+      <c r="AET382" s="0"/>
+      <c r="AEU382" s="0"/>
+      <c r="AEV382" s="0"/>
+      <c r="AEW382" s="0"/>
+      <c r="AEX382" s="0"/>
+      <c r="AEY382" s="0"/>
+      <c r="AEZ382" s="0"/>
+      <c r="AFA382" s="0"/>
+      <c r="AFB382" s="0"/>
+      <c r="AFC382" s="0"/>
+      <c r="AFD382" s="0"/>
+      <c r="AFE382" s="0"/>
+      <c r="AFF382" s="0"/>
+      <c r="AFG382" s="0"/>
+      <c r="AFH382" s="0"/>
+      <c r="AFI382" s="0"/>
+      <c r="AFJ382" s="0"/>
+      <c r="AFK382" s="0"/>
+      <c r="AFL382" s="0"/>
+      <c r="AFM382" s="0"/>
+      <c r="AFN382" s="0"/>
+      <c r="AFO382" s="0"/>
+      <c r="AFP382" s="0"/>
+      <c r="AFQ382" s="0"/>
+      <c r="AFR382" s="0"/>
+      <c r="AFS382" s="0"/>
+      <c r="AFT382" s="0"/>
+      <c r="AFU382" s="0"/>
+      <c r="AFV382" s="0"/>
+      <c r="AFW382" s="0"/>
+      <c r="AFX382" s="0"/>
+      <c r="AFY382" s="0"/>
+      <c r="AFZ382" s="0"/>
+      <c r="AGA382" s="0"/>
+      <c r="AGB382" s="0"/>
+      <c r="AGC382" s="0"/>
+      <c r="AGD382" s="0"/>
+      <c r="AGE382" s="0"/>
+      <c r="AGF382" s="0"/>
+      <c r="AGG382" s="0"/>
+      <c r="AGH382" s="0"/>
+      <c r="AGI382" s="0"/>
+      <c r="AGJ382" s="0"/>
+      <c r="AGK382" s="0"/>
+      <c r="AGL382" s="0"/>
+      <c r="AGM382" s="0"/>
+      <c r="AGN382" s="0"/>
+      <c r="AGO382" s="0"/>
+      <c r="AGP382" s="0"/>
+      <c r="AGQ382" s="0"/>
+      <c r="AGR382" s="0"/>
+      <c r="AGS382" s="0"/>
+      <c r="AGT382" s="0"/>
+      <c r="AGU382" s="0"/>
+      <c r="AGV382" s="0"/>
+      <c r="AGW382" s="0"/>
+      <c r="AGX382" s="0"/>
+      <c r="AGY382" s="0"/>
+      <c r="AGZ382" s="0"/>
+      <c r="AHA382" s="0"/>
+      <c r="AHB382" s="0"/>
+      <c r="AHC382" s="0"/>
+      <c r="AHD382" s="0"/>
+      <c r="AHE382" s="0"/>
+      <c r="AHF382" s="0"/>
+      <c r="AHG382" s="0"/>
+      <c r="AHH382" s="0"/>
+      <c r="AHI382" s="0"/>
+      <c r="AHJ382" s="0"/>
+      <c r="AHK382" s="0"/>
+      <c r="AHL382" s="0"/>
+      <c r="AHM382" s="0"/>
+      <c r="AHN382" s="0"/>
+      <c r="AHO382" s="0"/>
+      <c r="AHP382" s="0"/>
+      <c r="AHQ382" s="0"/>
+      <c r="AHR382" s="0"/>
+      <c r="AHS382" s="0"/>
+      <c r="AHT382" s="0"/>
+      <c r="AHU382" s="0"/>
+      <c r="AHV382" s="0"/>
+      <c r="AHW382" s="0"/>
+      <c r="AHX382" s="0"/>
+      <c r="AHY382" s="0"/>
+      <c r="AHZ382" s="0"/>
+      <c r="AIA382" s="0"/>
+      <c r="AIB382" s="0"/>
+      <c r="AIC382" s="0"/>
+      <c r="AID382" s="0"/>
+      <c r="AIE382" s="0"/>
+      <c r="AIF382" s="0"/>
+      <c r="AIG382" s="0"/>
+      <c r="AIH382" s="0"/>
+      <c r="AII382" s="0"/>
+      <c r="AIJ382" s="0"/>
+      <c r="AIK382" s="0"/>
+      <c r="AIL382" s="0"/>
+      <c r="AIM382" s="0"/>
+      <c r="AIN382" s="0"/>
+      <c r="AIO382" s="0"/>
+      <c r="AIP382" s="0"/>
+      <c r="AIQ382" s="0"/>
+      <c r="AIR382" s="0"/>
+      <c r="AIS382" s="0"/>
+      <c r="AIT382" s="0"/>
+      <c r="AIU382" s="0"/>
+      <c r="AIV382" s="0"/>
+      <c r="AIW382" s="0"/>
+      <c r="AIX382" s="0"/>
+      <c r="AIY382" s="0"/>
+      <c r="AIZ382" s="0"/>
+      <c r="AJA382" s="0"/>
+      <c r="AJB382" s="0"/>
+      <c r="AJC382" s="0"/>
+      <c r="AJD382" s="0"/>
+      <c r="AJE382" s="0"/>
+      <c r="AJF382" s="0"/>
+      <c r="AJG382" s="0"/>
+      <c r="AJH382" s="0"/>
+      <c r="AJI382" s="0"/>
+      <c r="AJJ382" s="0"/>
+      <c r="AJK382" s="0"/>
+      <c r="AJL382" s="0"/>
+      <c r="AJM382" s="0"/>
+      <c r="AJN382" s="0"/>
+      <c r="AJO382" s="0"/>
+      <c r="AJP382" s="0"/>
+      <c r="AJQ382" s="0"/>
+      <c r="AJR382" s="0"/>
+      <c r="AJS382" s="0"/>
+      <c r="AJT382" s="0"/>
+      <c r="AJU382" s="0"/>
+      <c r="AJV382" s="0"/>
+      <c r="AJW382" s="0"/>
+      <c r="AJX382" s="0"/>
+      <c r="AJY382" s="0"/>
+      <c r="AJZ382" s="0"/>
+      <c r="AKA382" s="0"/>
+      <c r="AKB382" s="0"/>
+      <c r="AKC382" s="0"/>
+      <c r="AKD382" s="0"/>
+      <c r="AKE382" s="0"/>
+      <c r="AKF382" s="0"/>
+      <c r="AKG382" s="0"/>
+      <c r="AKH382" s="0"/>
+      <c r="AKI382" s="0"/>
+      <c r="AKJ382" s="0"/>
+      <c r="AKK382" s="0"/>
+      <c r="AKL382" s="0"/>
+      <c r="AKM382" s="0"/>
+      <c r="AKN382" s="0"/>
+      <c r="AKO382" s="0"/>
+      <c r="AKP382" s="0"/>
+      <c r="AKQ382" s="0"/>
+      <c r="AKR382" s="0"/>
+      <c r="AKS382" s="0"/>
+      <c r="AKT382" s="0"/>
+      <c r="AKU382" s="0"/>
+      <c r="AKV382" s="0"/>
+      <c r="AKW382" s="0"/>
+      <c r="AKX382" s="0"/>
+      <c r="AKY382" s="0"/>
+      <c r="AKZ382" s="0"/>
+      <c r="ALA382" s="0"/>
+      <c r="ALB382" s="0"/>
+      <c r="ALC382" s="0"/>
+      <c r="ALD382" s="0"/>
+      <c r="ALE382" s="0"/>
+      <c r="ALF382" s="0"/>
+      <c r="ALG382" s="0"/>
+      <c r="ALH382" s="0"/>
+      <c r="ALI382" s="0"/>
+      <c r="ALJ382" s="0"/>
+      <c r="ALK382" s="0"/>
+      <c r="ALL382" s="0"/>
+      <c r="ALM382" s="0"/>
+      <c r="ALN382" s="0"/>
+      <c r="ALO382" s="0"/>
+      <c r="ALP382" s="0"/>
+      <c r="ALQ382" s="0"/>
+      <c r="ALR382" s="0"/>
+      <c r="ALS382" s="0"/>
+      <c r="ALT382" s="0"/>
+      <c r="ALU382" s="0"/>
+      <c r="ALV382" s="0"/>
+      <c r="ALW382" s="0"/>
+      <c r="ALX382" s="0"/>
+      <c r="ALY382" s="0"/>
+      <c r="ALZ382" s="0"/>
+      <c r="AMA382" s="0"/>
+      <c r="AMB382" s="0"/>
+      <c r="AMC382" s="0"/>
+      <c r="AMD382" s="0"/>
+      <c r="AME382" s="0"/>
+      <c r="AMF382" s="0"/>
+      <c r="AMG382" s="0"/>
+      <c r="AMH382" s="0"/>
+      <c r="AMI382" s="0"/>
+      <c r="AMJ382" s="0"/>
     </row>
     <row r="383" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A383" s="1" t="s">
@@ -12821,196 +12827,196 @@
         <v>1054</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>187</v>
+        <v>1007</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>1055</v>
+        <v>1007</v>
       </c>
       <c r="F383" s="3"/>
       <c r="G383" s="4"/>
     </row>
     <row r="384" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B384" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="B384" s="1" t="s">
+      <c r="C384" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D384" s="1" t="s">
         <v>1057</v>
-      </c>
-      <c r="C384" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D384" s="1" t="s">
-        <v>1058</v>
       </c>
       <c r="F384" s="3"/>
       <c r="G384" s="4"/>
     </row>
     <row r="385" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A385" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B385" s="1" t="s">
         <v>1059</v>
       </c>
-      <c r="B385" s="1" t="s">
+      <c r="C385" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D385" s="1" t="s">
         <v>1060</v>
-      </c>
-      <c r="C385" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D385" s="1" t="s">
-        <v>1061</v>
       </c>
       <c r="F385" s="3"/>
       <c r="G385" s="4"/>
     </row>
     <row r="386" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A386" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B386" s="1" t="s">
         <v>1062</v>
       </c>
-      <c r="B386" s="1" t="s">
+      <c r="C386" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D386" s="1" t="s">
         <v>1063</v>
-      </c>
-      <c r="C386" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D386" s="1" t="s">
-        <v>1064</v>
       </c>
       <c r="F386" s="3"/>
       <c r="G386" s="4"/>
     </row>
     <row r="387" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A387" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B387" s="1" t="s">
         <v>1065</v>
       </c>
-      <c r="B387" s="1" t="s">
+      <c r="C387" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D387" s="1" t="s">
         <v>1066</v>
-      </c>
-      <c r="C387" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D387" s="1" t="s">
-        <v>1067</v>
       </c>
       <c r="F387" s="3"/>
       <c r="G387" s="4"/>
     </row>
     <row r="388" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B388" s="1" t="s">
         <v>1068</v>
       </c>
-      <c r="B388" s="1" t="s">
+      <c r="C388" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D388" s="1" t="s">
         <v>1069</v>
-      </c>
-      <c r="C388" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D388" s="1" t="s">
-        <v>1070</v>
       </c>
       <c r="F388" s="3"/>
       <c r="G388" s="4"/>
     </row>
     <row r="389" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A389" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B389" s="1" t="s">
         <v>1071</v>
       </c>
-      <c r="B389" s="1" t="s">
+      <c r="C389" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D389" s="1" t="s">
         <v>1072</v>
-      </c>
-      <c r="C389" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D389" s="1" t="s">
-        <v>1073</v>
       </c>
       <c r="F389" s="3"/>
       <c r="G389" s="4"/>
     </row>
     <row r="390" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A390" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B390" s="1" t="s">
         <v>1074</v>
       </c>
-      <c r="B390" s="1" t="s">
+      <c r="C390" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D390" s="1" t="s">
         <v>1075</v>
-      </c>
-      <c r="C390" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D390" s="1" t="s">
-        <v>1076</v>
       </c>
       <c r="F390" s="3"/>
       <c r="G390" s="4"/>
     </row>
     <row r="391" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B391" s="1" t="s">
         <v>1077</v>
       </c>
-      <c r="B391" s="1" t="s">
+      <c r="C391" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D391" s="1" t="s">
         <v>1078</v>
-      </c>
-      <c r="C391" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D391" s="1" t="s">
-        <v>1079</v>
       </c>
       <c r="F391" s="3"/>
       <c r="G391" s="4"/>
     </row>
     <row r="392" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A392" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B392" s="1" t="s">
         <v>1080</v>
       </c>
-      <c r="B392" s="1" t="s">
+      <c r="C392" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D392" s="1" t="s">
         <v>1081</v>
-      </c>
-      <c r="C392" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D392" s="1" t="s">
-        <v>1082</v>
       </c>
       <c r="F392" s="3"/>
       <c r="G392" s="4"/>
     </row>
     <row r="393" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A393" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B393" s="1" t="s">
         <v>1083</v>
       </c>
-      <c r="B393" s="1" t="s">
+      <c r="C393" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D393" s="1" t="s">
         <v>1084</v>
-      </c>
-      <c r="C393" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D393" s="1" t="s">
-        <v>1085</v>
       </c>
       <c r="F393" s="3"/>
       <c r="G393" s="4"/>
     </row>
     <row r="394" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A394" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B394" s="1" t="s">
         <v>1086</v>
       </c>
-      <c r="B394" s="1" t="s">
+      <c r="C394" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D394" s="1" t="s">
         <v>1087</v>
-      </c>
-      <c r="C394" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D394" s="1" t="s">
-        <v>1088</v>
       </c>
       <c r="F394" s="3"/>
       <c r="G394" s="4"/>
     </row>
     <row r="395" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A395" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B395" s="1" t="s">
         <v>1089</v>
-      </c>
-      <c r="B395" s="1" t="s">
-        <v>1090</v>
       </c>
       <c r="C395" s="1" t="s">
         <v>187</v>
@@ -13064,113 +13070,113 @@
         <v>187</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="F398" s="3"/>
       <c r="G398" s="4"/>
     </row>
     <row r="399" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A399" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B399" s="1" t="s">
         <v>1098</v>
       </c>
-      <c r="B399" s="1" t="s">
+      <c r="C399" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D399" s="1" t="s">
         <v>1099</v>
-      </c>
-      <c r="C399" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D399" s="1" t="s">
-        <v>1100</v>
       </c>
       <c r="F399" s="3"/>
       <c r="G399" s="4"/>
     </row>
     <row r="400" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A400" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B400" s="1" t="s">
         <v>1101</v>
       </c>
-      <c r="B400" s="1" t="s">
+      <c r="C400" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D400" s="1" t="s">
         <v>1102</v>
-      </c>
-      <c r="C400" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D400" s="1" t="s">
-        <v>1103</v>
       </c>
       <c r="F400" s="3"/>
       <c r="G400" s="4"/>
     </row>
     <row r="401" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A401" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B401" s="1" t="s">
         <v>1104</v>
       </c>
-      <c r="B401" s="1" t="s">
+      <c r="C401" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D401" s="1" t="s">
         <v>1105</v>
-      </c>
-      <c r="C401" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D401" s="1" t="s">
-        <v>1106</v>
       </c>
       <c r="F401" s="3"/>
       <c r="G401" s="4"/>
     </row>
     <row r="402" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A402" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B402" s="1" t="s">
         <v>1107</v>
       </c>
-      <c r="B402" s="1" t="s">
+      <c r="C402" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D402" s="1" t="s">
         <v>1108</v>
-      </c>
-      <c r="C402" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D402" s="1" t="s">
-        <v>1109</v>
       </c>
       <c r="F402" s="3"/>
       <c r="G402" s="4"/>
     </row>
     <row r="403" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A403" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B403" s="1" t="s">
         <v>1110</v>
       </c>
-      <c r="B403" s="1" t="s">
+      <c r="C403" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D403" s="1" t="s">
         <v>1111</v>
-      </c>
-      <c r="C403" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D403" s="1" t="s">
-        <v>1112</v>
       </c>
       <c r="F403" s="3"/>
       <c r="G403" s="4"/>
     </row>
     <row r="404" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A404" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B404" s="1" t="s">
         <v>1113</v>
       </c>
-      <c r="B404" s="1" t="s">
+      <c r="C404" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D404" s="1" t="s">
         <v>1114</v>
-      </c>
-      <c r="C404" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D404" s="1" t="s">
-        <v>1115</v>
       </c>
       <c r="F404" s="3"/>
       <c r="G404" s="4"/>
     </row>
     <row r="405" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A405" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B405" s="1" t="s">
         <v>1116</v>
-      </c>
-      <c r="B405" s="1" t="s">
-        <v>1117</v>
       </c>
       <c r="C405" s="1" t="s">
         <v>187</v>
@@ -13192,161 +13198,161 @@
         <v>187</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F406" s="3"/>
       <c r="G406" s="4"/>
     </row>
     <row r="407" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A407" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B407" s="1" t="s">
         <v>1121</v>
       </c>
-      <c r="B407" s="1" t="s">
+      <c r="C407" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D407" s="1" t="s">
         <v>1122</v>
-      </c>
-      <c r="C407" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D407" s="1" t="s">
-        <v>1123</v>
       </c>
       <c r="F407" s="3"/>
       <c r="G407" s="4"/>
     </row>
     <row r="408" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A408" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B408" s="1" t="s">
         <v>1124</v>
       </c>
-      <c r="B408" s="1" t="s">
+      <c r="C408" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D408" s="1" t="s">
         <v>1125</v>
-      </c>
-      <c r="C408" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D408" s="1" t="s">
-        <v>1126</v>
       </c>
       <c r="F408" s="3"/>
       <c r="G408" s="4"/>
     </row>
     <row r="409" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A409" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B409" s="1" t="s">
         <v>1127</v>
       </c>
-      <c r="B409" s="1" t="s">
+      <c r="C409" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D409" s="1" t="s">
         <v>1128</v>
-      </c>
-      <c r="C409" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D409" s="1" t="s">
-        <v>1129</v>
       </c>
       <c r="F409" s="3"/>
       <c r="G409" s="4"/>
     </row>
     <row r="410" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A410" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B410" s="1" t="s">
         <v>1130</v>
       </c>
-      <c r="B410" s="1" t="s">
+      <c r="C410" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D410" s="1" t="s">
         <v>1131</v>
-      </c>
-      <c r="C410" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D410" s="1" t="s">
-        <v>1132</v>
       </c>
       <c r="F410" s="3"/>
       <c r="G410" s="4"/>
     </row>
     <row r="411" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A411" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B411" s="1" t="s">
         <v>1133</v>
       </c>
-      <c r="B411" s="1" t="s">
+      <c r="C411" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D411" s="1" t="s">
         <v>1134</v>
-      </c>
-      <c r="C411" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D411" s="1" t="s">
-        <v>1135</v>
       </c>
       <c r="F411" s="3"/>
       <c r="G411" s="4"/>
     </row>
     <row r="412" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A412" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B412" s="1" t="s">
         <v>1136</v>
       </c>
-      <c r="B412" s="1" t="s">
+      <c r="C412" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D412" s="1" t="s">
         <v>1137</v>
-      </c>
-      <c r="C412" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D412" s="1" t="s">
-        <v>1138</v>
       </c>
       <c r="F412" s="3"/>
       <c r="G412" s="4"/>
     </row>
     <row r="413" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A413" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B413" s="1" t="s">
         <v>1139</v>
       </c>
-      <c r="B413" s="1" t="s">
+      <c r="C413" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D413" s="1" t="s">
         <v>1140</v>
-      </c>
-      <c r="C413" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D413" s="1" t="s">
-        <v>1141</v>
       </c>
       <c r="F413" s="3"/>
       <c r="G413" s="4"/>
     </row>
     <row r="414" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A414" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B414" s="1" t="s">
         <v>1142</v>
       </c>
-      <c r="B414" s="1" t="s">
+      <c r="C414" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D414" s="1" t="s">
         <v>1143</v>
-      </c>
-      <c r="C414" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D414" s="1" t="s">
-        <v>1144</v>
       </c>
       <c r="F414" s="3"/>
       <c r="G414" s="4"/>
     </row>
     <row r="415" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A415" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B415" s="1" t="s">
         <v>1145</v>
       </c>
-      <c r="B415" s="1" t="s">
+      <c r="C415" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D415" s="1" t="s">
         <v>1146</v>
-      </c>
-      <c r="C415" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D415" s="1" t="s">
-        <v>1147</v>
       </c>
       <c r="F415" s="3"/>
       <c r="G415" s="4"/>
     </row>
     <row r="416" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A416" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B416" s="1" t="s">
         <v>1148</v>
-      </c>
-      <c r="B416" s="1" t="s">
-        <v>1149</v>
       </c>
       <c r="C416" s="1" t="s">
         <v>187</v>
@@ -13368,49 +13374,49 @@
         <v>187</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F417" s="3"/>
       <c r="G417" s="4"/>
     </row>
     <row r="418" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A418" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B418" s="1" t="s">
         <v>1153</v>
       </c>
-      <c r="B418" s="1" t="s">
+      <c r="C418" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D418" s="1" t="s">
         <v>1154</v>
-      </c>
-      <c r="C418" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D418" s="1" t="s">
-        <v>1155</v>
       </c>
       <c r="F418" s="3"/>
       <c r="G418" s="4"/>
     </row>
     <row r="419" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A419" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B419" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="B419" s="1" t="s">
+      <c r="C419" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D419" s="1" t="s">
         <v>1157</v>
-      </c>
-      <c r="C419" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D419" s="1" t="s">
-        <v>1158</v>
       </c>
       <c r="F419" s="3"/>
       <c r="G419" s="4"/>
     </row>
     <row r="420" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A420" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B420" s="1" t="s">
         <v>1159</v>
-      </c>
-      <c r="B420" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="C420" s="1" t="s">
         <v>187</v>
@@ -13426,135 +13432,135 @@
         <v>1161</v>
       </c>
       <c r="B421" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D421" s="1" t="s">
         <v>1162</v>
-      </c>
-      <c r="C421" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D421" s="1" t="s">
-        <v>1163</v>
       </c>
       <c r="F421" s="3"/>
       <c r="G421" s="4"/>
     </row>
     <row r="422" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A422" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B422" s="1" t="s">
         <v>1164</v>
       </c>
-      <c r="B422" s="1" t="s">
+      <c r="C422" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D422" s="1" t="s">
         <v>1165</v>
-      </c>
-      <c r="C422" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D422" s="1" t="s">
-        <v>1166</v>
       </c>
       <c r="F422" s="3"/>
       <c r="G422" s="4"/>
     </row>
     <row r="423" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A423" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B423" s="1" t="s">
         <v>1167</v>
       </c>
-      <c r="B423" s="1" t="s">
+      <c r="C423" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D423" s="1" t="s">
         <v>1168</v>
-      </c>
-      <c r="C423" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D423" s="1" t="s">
-        <v>1169</v>
       </c>
       <c r="F423" s="3"/>
       <c r="G423" s="4"/>
     </row>
     <row r="424" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A424" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B424" s="1" t="s">
         <v>1170</v>
       </c>
-      <c r="B424" s="1" t="s">
+      <c r="C424" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D424" s="1" t="s">
         <v>1171</v>
-      </c>
-      <c r="C424" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D424" s="1" t="s">
-        <v>1172</v>
       </c>
       <c r="F424" s="3"/>
       <c r="G424" s="4"/>
     </row>
     <row r="425" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A425" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B425" s="1" t="s">
         <v>1173</v>
       </c>
-      <c r="B425" s="1" t="s">
+      <c r="C425" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D425" s="1" t="s">
         <v>1174</v>
       </c>
-      <c r="C425" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D425" s="1" t="s">
-        <v>1175</v>
-      </c>
       <c r="F425" s="3"/>
-      <c r="G425" s="5"/>
+      <c r="G425" s="4"/>
     </row>
     <row r="426" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A426" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B426" s="1" t="s">
         <v>1176</v>
       </c>
-      <c r="B426" s="1" t="s">
+      <c r="C426" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D426" s="1" t="s">
         <v>1177</v>
-      </c>
-      <c r="C426" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D426" s="1" t="s">
-        <v>1178</v>
       </c>
       <c r="F426" s="3"/>
       <c r="G426" s="5"/>
     </row>
     <row r="427" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A427" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B427" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="B427" s="1" t="s">
+      <c r="C427" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D427" s="1" t="s">
         <v>1180</v>
-      </c>
-      <c r="C427" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D427" s="1" t="s">
-        <v>1181</v>
       </c>
       <c r="F427" s="3"/>
       <c r="G427" s="5"/>
     </row>
     <row r="428" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A428" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B428" s="1" t="s">
         <v>1182</v>
       </c>
-      <c r="B428" s="1" t="s">
+      <c r="C428" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D428" s="1" t="s">
         <v>1183</v>
-      </c>
-      <c r="C428" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D428" s="1" t="s">
-        <v>1184</v>
       </c>
       <c r="F428" s="3"/>
       <c r="G428" s="5"/>
     </row>
     <row r="429" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A429" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B429" s="1" t="s">
         <v>1185</v>
-      </c>
-      <c r="B429" s="1" t="s">
-        <v>878</v>
       </c>
       <c r="C429" s="1" t="s">
         <v>187</v>
@@ -13570,161 +13576,163 @@
         <v>1187</v>
       </c>
       <c r="B430" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="C430" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D430" s="1" t="s">
         <v>1188</v>
       </c>
-      <c r="C430" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D430" s="1" t="s">
-        <v>1189</v>
-      </c>
+      <c r="F430" s="3"/>
+      <c r="G430" s="5"/>
     </row>
     <row r="431" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A431" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B431" s="1" t="s">
         <v>1190</v>
       </c>
-      <c r="B431" s="1" t="s">
+      <c r="C431" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D431" s="1" t="s">
         <v>1191</v>
-      </c>
-      <c r="C431" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D431" s="1" t="s">
-        <v>1192</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A432" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B432" s="1" t="s">
         <v>1193</v>
       </c>
-      <c r="B432" s="1" t="s">
+      <c r="C432" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D432" s="1" t="s">
         <v>1194</v>
-      </c>
-      <c r="C432" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D432" s="1" t="s">
-        <v>1195</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A433" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B433" s="1" t="s">
         <v>1196</v>
       </c>
-      <c r="B433" s="1" t="s">
+      <c r="C433" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D433" s="1" t="s">
         <v>1197</v>
-      </c>
-      <c r="C433" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D433" s="1" t="s">
-        <v>1198</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A434" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B434" s="1" t="s">
         <v>1199</v>
       </c>
-      <c r="B434" s="1" t="s">
+      <c r="C434" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D434" s="1" t="s">
         <v>1200</v>
-      </c>
-      <c r="C434" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D434" s="1" t="s">
-        <v>1201</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A435" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B435" s="1" t="s">
         <v>1202</v>
       </c>
-      <c r="B435" s="1" t="s">
+      <c r="C435" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D435" s="1" t="s">
         <v>1203</v>
-      </c>
-      <c r="C435" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D435" s="1" t="s">
-        <v>1204</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A436" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B436" s="1" t="s">
         <v>1205</v>
       </c>
-      <c r="B436" s="1" t="s">
+      <c r="C436" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D436" s="1" t="s">
         <v>1206</v>
-      </c>
-      <c r="C436" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D436" s="1" t="s">
-        <v>1207</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A437" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B437" s="1" t="s">
         <v>1208</v>
       </c>
-      <c r="B437" s="1" t="s">
+      <c r="C437" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D437" s="1" t="s">
         <v>1209</v>
-      </c>
-      <c r="C437" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D437" s="1" t="s">
-        <v>1210</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A438" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B438" s="1" t="s">
         <v>1211</v>
       </c>
-      <c r="B438" s="1" t="s">
+      <c r="C438" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D438" s="1" t="s">
         <v>1212</v>
-      </c>
-      <c r="C438" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D438" s="1" t="s">
-        <v>1213</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A439" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B439" s="1" t="s">
         <v>1214</v>
       </c>
-      <c r="B439" s="1" t="s">
+      <c r="C439" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D439" s="1" t="s">
         <v>1215</v>
-      </c>
-      <c r="C439" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D439" s="1" t="s">
-        <v>1216</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A440" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B440" s="1" t="s">
         <v>1217</v>
       </c>
-      <c r="B440" s="1" t="s">
+      <c r="C440" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D440" s="1" t="s">
         <v>1218</v>
-      </c>
-      <c r="C440" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D440" s="1" t="s">
-        <v>1219</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A441" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B441" s="1" t="s">
         <v>1220</v>
-      </c>
-      <c r="B441" s="1" t="s">
-        <v>1033</v>
       </c>
       <c r="C441" s="1" t="s">
         <v>187</v>
@@ -13738,13 +13746,13 @@
         <v>1222</v>
       </c>
       <c r="B442" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C442" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D442" s="1" t="s">
         <v>1223</v>
-      </c>
-      <c r="C442" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D442" s="1" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13758,141 +13766,141 @@
         <v>187</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>1226</v>
+        <v>663</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A444" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B444" s="1" t="s">
         <v>1227</v>
       </c>
-      <c r="B444" s="1" t="s">
+      <c r="C444" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D444" s="1" t="s">
         <v>1228</v>
-      </c>
-      <c r="C444" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D444" s="1" t="s">
-        <v>1229</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A445" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B445" s="1" t="s">
         <v>1230</v>
       </c>
-      <c r="B445" s="1" t="s">
+      <c r="C445" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D445" s="1" t="s">
         <v>1231</v>
-      </c>
-      <c r="C445" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D445" s="1" t="s">
-        <v>1232</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A446" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B446" s="1" t="s">
         <v>1233</v>
       </c>
-      <c r="B446" s="1" t="s">
+      <c r="C446" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D446" s="1" t="s">
         <v>1234</v>
-      </c>
-      <c r="C446" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D446" s="1" t="s">
-        <v>1235</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A447" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B447" s="1" t="s">
         <v>1236</v>
       </c>
-      <c r="B447" s="1" t="s">
+      <c r="C447" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D447" s="1" t="s">
         <v>1237</v>
-      </c>
-      <c r="C447" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D447" s="1" t="s">
-        <v>1238</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A448" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B448" s="1" t="s">
         <v>1239</v>
       </c>
-      <c r="B448" s="1" t="s">
+      <c r="C448" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D448" s="1" t="s">
         <v>1240</v>
-      </c>
-      <c r="C448" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D448" s="1" t="s">
-        <v>1241</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A449" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B449" s="1" t="s">
         <v>1242</v>
       </c>
-      <c r="B449" s="1" t="s">
+      <c r="C449" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D449" s="1" t="s">
         <v>1243</v>
-      </c>
-      <c r="C449" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D449" s="1" t="s">
-        <v>1244</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A450" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B450" s="1" t="s">
         <v>1245</v>
       </c>
-      <c r="B450" s="1" t="s">
+      <c r="C450" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D450" s="1" t="s">
         <v>1246</v>
-      </c>
-      <c r="C450" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D450" s="1" t="s">
-        <v>1247</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A451" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B451" s="1" t="s">
         <v>1248</v>
       </c>
-      <c r="B451" s="1" t="s">
+      <c r="C451" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D451" s="1" t="s">
         <v>1249</v>
-      </c>
-      <c r="C451" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D451" s="1" t="s">
-        <v>1250</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A452" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B452" s="1" t="s">
         <v>1251</v>
       </c>
-      <c r="B452" s="1" t="s">
+      <c r="C452" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D452" s="1" t="s">
         <v>1252</v>
-      </c>
-      <c r="C452" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D452" s="1" t="s">
-        <v>1253</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A453" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B453" s="1" t="s">
         <v>1254</v>
-      </c>
-      <c r="B453" s="1" t="s">
-        <v>881</v>
       </c>
       <c r="C453" s="1" t="s">
         <v>187</v>
@@ -13906,385 +13914,385 @@
         <v>1256</v>
       </c>
       <c r="B454" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="C454" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D454" s="1" t="s">
         <v>1257</v>
-      </c>
-      <c r="C454" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D454" s="1" t="s">
-        <v>1258</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A455" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B455" s="1" t="s">
         <v>1259</v>
       </c>
-      <c r="B455" s="1" t="s">
+      <c r="C455" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D455" s="1" t="s">
         <v>1260</v>
-      </c>
-      <c r="C455" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D455" s="1" t="s">
-        <v>1261</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A456" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B456" s="1" t="s">
         <v>1262</v>
       </c>
-      <c r="B456" s="1" t="s">
+      <c r="C456" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D456" s="1" t="s">
         <v>1263</v>
-      </c>
-      <c r="C456" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D456" s="1" t="s">
-        <v>1264</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A457" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B457" s="1" t="s">
         <v>1265</v>
       </c>
-      <c r="B457" s="1" t="s">
+      <c r="C457" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D457" s="1" t="s">
         <v>1266</v>
-      </c>
-      <c r="C457" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D457" s="1" t="s">
-        <v>1267</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A458" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B458" s="1" t="s">
         <v>1268</v>
       </c>
-      <c r="B458" s="1" t="s">
+      <c r="C458" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D458" s="1" t="s">
         <v>1269</v>
-      </c>
-      <c r="C458" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D458" s="1" t="s">
-        <v>1270</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A459" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B459" s="1" t="s">
         <v>1271</v>
       </c>
-      <c r="B459" s="1" t="s">
+      <c r="C459" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D459" s="1" t="s">
         <v>1272</v>
-      </c>
-      <c r="C459" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D459" s="1" t="s">
-        <v>1273</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A460" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B460" s="1" t="s">
         <v>1274</v>
       </c>
-      <c r="B460" s="1" t="s">
+      <c r="C460" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D460" s="1" t="s">
         <v>1275</v>
-      </c>
-      <c r="C460" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D460" s="1" t="s">
-        <v>1276</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A461" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B461" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="B461" s="1" t="s">
+      <c r="C461" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D461" s="1" t="s">
         <v>1278</v>
-      </c>
-      <c r="C461" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D461" s="1" t="s">
-        <v>1279</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A462" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B462" s="1" t="s">
         <v>1280</v>
       </c>
-      <c r="B462" s="1" t="s">
+      <c r="C462" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D462" s="1" t="s">
         <v>1281</v>
-      </c>
-      <c r="C462" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D462" s="1" t="s">
-        <v>1282</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A463" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B463" s="1" t="s">
         <v>1283</v>
       </c>
-      <c r="B463" s="1" t="s">
+      <c r="C463" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D463" s="1" t="s">
         <v>1284</v>
-      </c>
-      <c r="C463" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D463" s="1" t="s">
-        <v>1285</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A464" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B464" s="1" t="s">
         <v>1286</v>
       </c>
-      <c r="B464" s="1" t="s">
+      <c r="C464" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D464" s="1" t="s">
         <v>1287</v>
-      </c>
-      <c r="C464" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D464" s="1" t="s">
-        <v>1288</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A465" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B465" s="1" t="s">
         <v>1289</v>
       </c>
-      <c r="B465" s="1" t="s">
+      <c r="C465" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D465" s="1" t="s">
         <v>1290</v>
-      </c>
-      <c r="C465" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D465" s="1" t="s">
-        <v>1291</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A466" s="1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B466" s="1" t="s">
         <v>1292</v>
       </c>
-      <c r="B466" s="1" t="s">
+      <c r="C466" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D466" s="1" t="s">
         <v>1293</v>
-      </c>
-      <c r="C466" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D466" s="1" t="s">
-        <v>1294</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A467" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B467" s="1" t="s">
         <v>1295</v>
       </c>
-      <c r="B467" s="1" t="s">
+      <c r="C467" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D467" s="1" t="s">
         <v>1296</v>
-      </c>
-      <c r="C467" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D467" s="1" t="s">
-        <v>1297</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A468" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B468" s="1" t="s">
         <v>1298</v>
       </c>
-      <c r="B468" s="1" t="s">
+      <c r="C468" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D468" s="1" t="s">
         <v>1299</v>
-      </c>
-      <c r="C468" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D468" s="1" t="s">
-        <v>1300</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A469" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B469" s="1" t="s">
         <v>1301</v>
       </c>
-      <c r="B469" s="1" t="s">
+      <c r="C469" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D469" s="1" t="s">
         <v>1302</v>
-      </c>
-      <c r="C469" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D469" s="1" t="s">
-        <v>1303</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A470" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B470" s="1" t="s">
         <v>1304</v>
       </c>
-      <c r="B470" s="1" t="s">
+      <c r="C470" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D470" s="1" t="s">
         <v>1305</v>
-      </c>
-      <c r="C470" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D470" s="1" t="s">
-        <v>1306</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A471" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B471" s="1" t="s">
         <v>1307</v>
       </c>
-      <c r="B471" s="1" t="s">
+      <c r="C471" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D471" s="1" t="s">
         <v>1308</v>
-      </c>
-      <c r="C471" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D471" s="1" t="s">
-        <v>1309</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A472" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B472" s="1" t="s">
         <v>1310</v>
       </c>
-      <c r="B472" s="1" t="s">
+      <c r="C472" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D472" s="1" t="s">
         <v>1311</v>
-      </c>
-      <c r="C472" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D472" s="1" t="s">
-        <v>1312</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A473" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B473" s="1" t="s">
         <v>1313</v>
       </c>
-      <c r="B473" s="1" t="s">
+      <c r="C473" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D473" s="1" t="s">
         <v>1314</v>
-      </c>
-      <c r="C473" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D473" s="1" t="s">
-        <v>1315</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A474" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B474" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="B474" s="1" t="s">
+      <c r="C474" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D474" s="1" t="s">
         <v>1317</v>
-      </c>
-      <c r="C474" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D474" s="1" t="s">
-        <v>1318</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A475" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B475" s="1" t="s">
         <v>1319</v>
       </c>
-      <c r="B475" s="1" t="s">
+      <c r="C475" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D475" s="1" t="s">
         <v>1320</v>
-      </c>
-      <c r="C475" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D475" s="1" t="s">
-        <v>1321</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A476" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B476" s="1" t="s">
         <v>1322</v>
       </c>
-      <c r="B476" s="1" t="s">
-        <v>662</v>
-      </c>
       <c r="C476" s="1" t="s">
         <v>187</v>
       </c>
       <c r="D476" s="1" t="s">
-        <v>662</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A477" s="1" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>1324</v>
+        <v>662</v>
       </c>
       <c r="C477" s="1" t="s">
         <v>187</v>
       </c>
       <c r="D477" s="1" t="s">
-        <v>1325</v>
+        <v>662</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A478" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B478" s="1" t="s">
         <v>1326</v>
       </c>
-      <c r="B478" s="1" t="s">
+      <c r="C478" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D478" s="1" t="s">
         <v>1327</v>
-      </c>
-      <c r="C478" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D478" s="1" t="s">
-        <v>1328</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A479" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B479" s="1" t="s">
         <v>1329</v>
       </c>
-      <c r="B479" s="1" t="s">
+      <c r="C479" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D479" s="1" t="s">
         <v>1330</v>
-      </c>
-      <c r="C479" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D479" s="1" t="s">
-        <v>1331</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A480" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B480" s="1" t="s">
         <v>1332</v>
       </c>
-      <c r="B480" s="1" t="s">
+      <c r="C480" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D480" s="1" t="s">
         <v>1333</v>
-      </c>
-      <c r="C480" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D480" s="1" t="s">
-        <v>1334</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A481" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B481" s="1" t="s">
         <v>1335</v>
-      </c>
-      <c r="B481" s="1" t="s">
-        <v>890</v>
       </c>
       <c r="C481" s="1" t="s">
         <v>187</v>
@@ -14298,297 +14306,300 @@
         <v>1337</v>
       </c>
       <c r="B482" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="C482" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D482" s="1" t="s">
         <v>1338</v>
-      </c>
-      <c r="C482" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D482" s="1" t="s">
-        <v>1339</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A483" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B483" s="1" t="s">
         <v>1340</v>
       </c>
-      <c r="B483" s="1" t="s">
+      <c r="C483" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D483" s="1" t="s">
         <v>1341</v>
-      </c>
-      <c r="C483" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D483" s="1" t="s">
-        <v>1342</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A484" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B484" s="1" t="s">
         <v>1343</v>
       </c>
-      <c r="B484" s="1" t="s">
+      <c r="C484" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D484" s="1" t="s">
         <v>1344</v>
-      </c>
-      <c r="C484" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D484" s="1" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A485" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B485" s="1" t="s">
         <v>1346</v>
       </c>
-      <c r="B485" s="1" t="s">
+      <c r="C485" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D485" s="1" t="s">
         <v>1347</v>
-      </c>
-      <c r="C485" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D485" s="1" t="s">
-        <v>1348</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A486" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B486" s="1" t="s">
         <v>1349</v>
       </c>
-      <c r="B486" s="1" t="s">
+      <c r="C486" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D486" s="1" t="s">
         <v>1350</v>
-      </c>
-      <c r="C486" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D486" s="1" t="s">
-        <v>1351</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A487" s="1" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B487" s="1" t="s">
         <v>1352</v>
       </c>
-      <c r="B487" s="1" t="s">
+      <c r="C487" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D487" s="1" t="s">
         <v>1353</v>
-      </c>
-      <c r="C487" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D487" s="1" t="s">
-        <v>1354</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A488" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B488" s="1" t="s">
         <v>1355</v>
       </c>
-      <c r="B488" s="1" t="s">
+      <c r="C488" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D488" s="1" t="s">
         <v>1356</v>
-      </c>
-      <c r="C488" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D488" s="1" t="s">
-        <v>1357</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A489" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B489" s="1" t="s">
         <v>1358</v>
       </c>
-      <c r="B489" s="1" t="s">
+      <c r="C489" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D489" s="1" t="s">
         <v>1359</v>
-      </c>
-      <c r="C489" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D489" s="1" t="s">
-        <v>1360</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A490" s="1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B490" s="1" t="s">
         <v>1361</v>
       </c>
-      <c r="B490" s="1" t="s">
+      <c r="C490" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D490" s="1" t="s">
         <v>1362</v>
-      </c>
-      <c r="C490" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D490" s="1" t="s">
-        <v>1363</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A491" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B491" s="1" t="s">
         <v>1364</v>
       </c>
-      <c r="B491" s="1" t="s">
+      <c r="C491" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D491" s="1" t="s">
         <v>1365</v>
-      </c>
-      <c r="C491" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D491" s="1" t="s">
-        <v>1366</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A492" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B492" s="1" t="s">
         <v>1367</v>
       </c>
-      <c r="B492" s="1" t="s">
+      <c r="C492" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D492" s="1" t="s">
         <v>1368</v>
-      </c>
-      <c r="C492" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D492" s="1" t="s">
-        <v>1369</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A493" s="1" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B493" s="1" t="s">
         <v>1370</v>
       </c>
-      <c r="B493" s="1" t="s">
+      <c r="C493" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D493" s="1" t="s">
         <v>1371</v>
-      </c>
-      <c r="C493" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D493" s="1" t="s">
-        <v>1372</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A494" s="1" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B494" s="1" t="s">
         <v>1373</v>
       </c>
-      <c r="B494" s="1" t="s">
+      <c r="C494" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D494" s="1" t="s">
         <v>1374</v>
-      </c>
-      <c r="C494" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D494" s="1" t="s">
-        <v>1375</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A495" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B495" s="1" t="s">
         <v>1376</v>
       </c>
-      <c r="B495" s="1" t="s">
+      <c r="C495" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D495" s="1" t="s">
         <v>1377</v>
-      </c>
-      <c r="C495" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D495" s="1" t="s">
-        <v>1378</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A496" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B496" s="1" t="s">
         <v>1379</v>
       </c>
-      <c r="B496" s="1" t="s">
+      <c r="C496" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D496" s="1" t="s">
         <v>1380</v>
-      </c>
-      <c r="C496" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D496" s="1" t="s">
-        <v>1381</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A497" s="1" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B497" s="1" t="s">
         <v>1382</v>
       </c>
-      <c r="B497" s="1" t="s">
+      <c r="C497" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D497" s="1" t="s">
         <v>1383</v>
-      </c>
-      <c r="C497" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D497" s="1" t="s">
-        <v>1384</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A498" s="1" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B498" s="1" t="s">
         <v>1385</v>
       </c>
-      <c r="B498" s="1" t="s">
+      <c r="C498" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D498" s="1" t="s">
         <v>1386</v>
-      </c>
-      <c r="C498" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D498" s="1" t="s">
-        <v>1387</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A499" s="1" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B499" s="1" t="s">
         <v>1388</v>
       </c>
-      <c r="B499" s="1" t="s">
+      <c r="C499" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D499" s="1" t="s">
         <v>1389</v>
-      </c>
-      <c r="C499" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D499" s="1" t="s">
-        <v>1390</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A500" s="1" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B500" s="1" t="s">
         <v>1391</v>
       </c>
-      <c r="B500" s="1" t="s">
+      <c r="C500" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D500" s="1" t="s">
         <v>1392</v>
-      </c>
-      <c r="C500" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D500" s="1" t="s">
-        <v>1393</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A501" s="1" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B501" s="1" t="s">
         <v>1394</v>
       </c>
-      <c r="B501" s="1" t="s">
+      <c r="C501" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D501" s="1" t="s">
         <v>1395</v>
-      </c>
-      <c r="C501" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D501" s="1" t="s">
-        <v>1396</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A502" s="1" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B502" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="B502" s="1" t="s">
+      <c r="C502" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D502" s="1" t="s">
         <v>1398</v>
-      </c>
-      <c r="C502" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D502" s="1" t="s">
-        <v>1399</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A503" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B503" s="1" t="s">
         <v>1400</v>
       </c>
       <c r="C503" s="1" t="s">
@@ -14602,288 +14613,285 @@
       <c r="A504" s="1" t="s">
         <v>1402</v>
       </c>
-      <c r="B504" s="1" t="s">
+      <c r="C504" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D504" s="1" t="s">
         <v>1403</v>
-      </c>
-      <c r="C504" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D504" s="1" t="s">
-        <v>1404</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A505" s="1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B505" s="1" t="s">
         <v>1405</v>
       </c>
-      <c r="B505" s="1" t="s">
+      <c r="C505" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D505" s="1" t="s">
         <v>1406</v>
-      </c>
-      <c r="C505" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D505" s="1" t="s">
-        <v>1407</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A506" s="1" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B506" s="1" t="s">
         <v>1408</v>
       </c>
-      <c r="B506" s="1" t="s">
+      <c r="C506" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D506" s="1" t="s">
         <v>1409</v>
-      </c>
-      <c r="C506" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D506" s="1" t="s">
-        <v>1410</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A507" s="1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B507" s="1" t="s">
         <v>1411</v>
       </c>
-      <c r="B507" s="1" t="s">
+      <c r="C507" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D507" s="1" t="s">
         <v>1412</v>
-      </c>
-      <c r="C507" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D507" s="1" t="s">
-        <v>1413</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A508" s="1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B508" s="1" t="s">
         <v>1414</v>
       </c>
-      <c r="B508" s="1" t="s">
+      <c r="C508" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D508" s="1" t="s">
         <v>1415</v>
-      </c>
-      <c r="C508" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D508" s="1" t="s">
-        <v>1416</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A509" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B509" s="1" t="s">
         <v>1417</v>
       </c>
-      <c r="B509" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="C509" s="1" t="s">
         <v>187</v>
       </c>
       <c r="D509" s="1" t="s">
-        <v>63</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A510" s="1" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>1419</v>
+        <v>62</v>
       </c>
       <c r="C510" s="1" t="s">
         <v>187</v>
       </c>
       <c r="D510" s="1" t="s">
-        <v>1420</v>
+        <v>63</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A511" s="1" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B511" s="1" t="s">
         <v>1421</v>
       </c>
-      <c r="B511" s="1" t="s">
+      <c r="C511" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D511" s="1" t="s">
         <v>1422</v>
-      </c>
-      <c r="C511" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D511" s="1" t="s">
-        <v>1423</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A512" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B512" s="1" t="s">
         <v>1424</v>
       </c>
-      <c r="B512" s="1" t="s">
+      <c r="C512" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D512" s="1" t="s">
         <v>1425</v>
-      </c>
-      <c r="C512" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D512" s="1" t="s">
-        <v>1426</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A513" s="1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B513" s="1" t="s">
         <v>1427</v>
       </c>
-      <c r="B513" s="1" t="s">
+      <c r="C513" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D513" s="1" t="s">
         <v>1428</v>
-      </c>
-      <c r="C513" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D513" s="1" t="s">
-        <v>1429</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A514" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B514" s="1" t="s">
         <v>1430</v>
       </c>
-      <c r="B514" s="1" t="s">
+      <c r="C514" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D514" s="1" t="s">
         <v>1431</v>
-      </c>
-      <c r="C514" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D514" s="1" t="s">
-        <v>1432</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A515" s="1" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B515" s="1" t="s">
         <v>1433</v>
       </c>
-      <c r="B515" s="1" t="s">
+      <c r="C515" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D515" s="1" t="s">
         <v>1434</v>
-      </c>
-      <c r="C515" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D515" s="1" t="s">
-        <v>1435</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A516" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B516" s="1" t="s">
         <v>1436</v>
       </c>
-      <c r="B516" s="1" t="s">
+      <c r="C516" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D516" s="1" t="s">
         <v>1437</v>
-      </c>
-      <c r="C516" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D516" s="1" t="s">
-        <v>1438</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A517" s="1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B517" s="1" t="s">
         <v>1439</v>
       </c>
-      <c r="B517" s="1" t="s">
+      <c r="C517" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D517" s="1" t="s">
         <v>1440</v>
-      </c>
-      <c r="C517" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D517" s="1" t="s">
-        <v>1441</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A518" s="1" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B518" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="B518" s="1" t="s">
+      <c r="C518" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D518" s="1" t="s">
         <v>1443</v>
-      </c>
-      <c r="C518" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D518" s="1" t="s">
-        <v>1444</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A519" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B519" s="1" t="s">
         <v>1445</v>
       </c>
-      <c r="B519" s="1" t="s">
+      <c r="C519" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D519" s="1" t="s">
         <v>1446</v>
-      </c>
-      <c r="C519" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D519" s="1" t="s">
-        <v>1447</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A520" s="1" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B520" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="B520" s="1" t="s">
+      <c r="C520" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D520" s="1" t="s">
         <v>1449</v>
-      </c>
-      <c r="C520" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D520" s="1" t="s">
-        <v>1450</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A521" s="1" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B521" s="1" t="s">
         <v>1451</v>
       </c>
-      <c r="B521" s="1" t="s">
+      <c r="C521" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D521" s="1" t="s">
         <v>1452</v>
-      </c>
-      <c r="C521" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D521" s="1" t="s">
-        <v>1453</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A522" s="1" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B522" s="1" t="s">
         <v>1454</v>
       </c>
-      <c r="B522" s="1" t="s">
+      <c r="C522" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D522" s="1" t="s">
         <v>1455</v>
-      </c>
-      <c r="C522" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D522" s="1" t="s">
-        <v>1456</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A523" s="1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B523" s="1" t="s">
         <v>1457</v>
       </c>
-      <c r="B523" s="1" t="s">
+      <c r="C523" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D523" s="1" t="s">
         <v>1458</v>
-      </c>
-      <c r="C523" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D523" s="1" t="s">
-        <v>1459</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A524" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B524" s="1" t="s">
         <v>1460</v>
-      </c>
-      <c r="B524" s="1" t="s">
-        <v>893</v>
       </c>
       <c r="C524" s="1" t="s">
         <v>187</v>
@@ -14897,7 +14905,7 @@
         <v>1462</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>1463</v>
+        <v>896</v>
       </c>
       <c r="C525" s="1" t="s">
         <v>187</v>
@@ -14917,57 +14925,57 @@
         <v>187</v>
       </c>
       <c r="D526" s="1" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A527" s="1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B527" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="B527" s="1" t="s">
+      <c r="C527" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D527" s="1" t="s">
         <v>1468</v>
-      </c>
-      <c r="C527" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D527" s="1" t="s">
-        <v>1469</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A528" s="1" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B528" s="1" t="s">
         <v>1470</v>
       </c>
-      <c r="B528" s="1" t="s">
+      <c r="C528" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D528" s="1" t="s">
         <v>1471</v>
-      </c>
-      <c r="C528" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D528" s="1" t="s">
-        <v>1472</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A529" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B529" s="1" t="s">
         <v>1473</v>
       </c>
-      <c r="B529" s="1" t="s">
+      <c r="C529" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D529" s="1" t="s">
         <v>1474</v>
-      </c>
-      <c r="C529" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D529" s="1" t="s">
-        <v>1475</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A530" s="1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B530" s="1" t="s">
         <v>1476</v>
-      </c>
-      <c r="B530" s="1" t="s">
-        <v>818</v>
       </c>
       <c r="C530" s="1" t="s">
         <v>187</v>
@@ -14981,7 +14989,7 @@
         <v>1478</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>1479</v>
+        <v>821</v>
       </c>
       <c r="C531" s="1" t="s">
         <v>187</v>
@@ -15012,94 +15020,108 @@
         <v>1483</v>
       </c>
       <c r="C533" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D533" s="1" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="534" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A534" s="1" t="s">
         <v>1484</v>
       </c>
-      <c r="D533" s="1" t="s">
+      <c r="B534" s="1" t="s">
         <v>1485</v>
       </c>
-    </row>
-    <row r="534" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A534" s="1" t="s">
+      <c r="C534" s="1" t="s">
         <v>1486</v>
       </c>
-      <c r="B534" s="1" t="s">
+      <c r="D534" s="1" t="s">
         <v>1487</v>
-      </c>
-      <c r="C534" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D534" s="1" t="s">
-        <v>1488</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="1" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B535" s="1" t="s">
         <v>1489</v>
-      </c>
-      <c r="B535" s="1" t="s">
-        <v>1490</v>
       </c>
       <c r="C535" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D535" s="1" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B536" s="1" t="s">
         <v>1492</v>
       </c>
-      <c r="B536" s="1" t="s">
+      <c r="C536" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D536" s="1" t="s">
         <v>1493</v>
-      </c>
-      <c r="C536" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D536" s="1" t="s">
-        <v>1494</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="1" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B537" s="1" t="s">
         <v>1495</v>
       </c>
-      <c r="B537" s="1" t="s">
+      <c r="C537" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D537" s="1" t="s">
         <v>1496</v>
-      </c>
-      <c r="C537" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D537" s="1" t="s">
-        <v>1497</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="1" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B538" s="1" t="s">
         <v>1498</v>
       </c>
-      <c r="B538" s="1" t="s">
+      <c r="C538" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D538" s="1" t="s">
         <v>1499</v>
-      </c>
-      <c r="C538" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D538" s="1" t="s">
-        <v>1500</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B539" s="1" t="s">
         <v>1501</v>
       </c>
-      <c r="B539" s="1" t="s">
+      <c r="C539" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D539" s="1" t="s">
         <v>1502</v>
       </c>
-      <c r="C539" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D539" s="1" t="s">
+    </row>
+    <row r="540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A540" s="1" t="s">
         <v>1503</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C540" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D540" s="1" t="s">
+        <v>1505</v>
       </c>
     </row>
   </sheetData>

--- a/AltController/Translation/Translation_de-DE.xlsx
+++ b/AltController/Translation/Translation_de-DE.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="1269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="1265">
   <si>
     <t xml:space="preserve">String_ID</t>
   </si>
@@ -2557,7 +2557,7 @@
     <t xml:space="preserve">StartProgram_ProgramNameLabel</t>
   </si>
   <si>
-    <t xml:space="preserve">Programmname:</t>
+    <t xml:space="preserve">Ausführbare Datei:</t>
   </si>
   <si>
     <t xml:space="preserve">StartProgram_TestAction</t>
@@ -2570,18 +2570,6 @@
   </si>
   <si>
     <t xml:space="preserve">Überprüfen Sie den Befehl, der ausgeführt wird</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StartProgram_TryBothFolders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_Versuchen Sie beide Ordner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StartProgram_TryBothFoldersToolTip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wenn ein Ordner „Programme“ angegeben ist, das Programm aber nicht gefunden wird, suchen Sie stattdessen in „Programme (x86)“ und umgekehrt</t>
   </si>
   <si>
     <t xml:space="preserve">String_Actions</t>
@@ -4069,8 +4057,8 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A415" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B429" activeCellId="0" sqref="B429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8877,23 +8865,23 @@
         <v>908</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>909</v>
+        <v>839</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A461" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="B461" s="1" t="s">
         <v>910</v>
-      </c>
-      <c r="B461" s="1" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A462" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="B462" s="1" t="s">
         <v>912</v>
-      </c>
-      <c r="B462" s="1" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8967,30 +8955,30 @@
       <c r="B471" s="1" t="s">
         <v>930</v>
       </c>
+      <c r="C471" s="5"/>
     </row>
     <row r="472" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A472" s="1" t="s">
         <v>931</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>932</v>
+        <v>811</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A473" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B473" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="B473" s="1" t="s">
-        <v>934</v>
-      </c>
-      <c r="C473" s="5"/>
     </row>
     <row r="474" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A474" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="B474" s="1" t="s">
         <v>935</v>
-      </c>
-      <c r="B474" s="1" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9110,23 +9098,23 @@
         <v>964</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>965</v>
+        <v>54</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A490" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="B490" s="1" t="s">
         <v>966</v>
-      </c>
-      <c r="B490" s="1" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A491" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="B491" s="1" t="s">
         <v>968</v>
-      </c>
-      <c r="B491" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9214,23 +9202,23 @@
         <v>989</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>990</v>
+        <v>701</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A503" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="B503" s="1" t="s">
         <v>991</v>
-      </c>
-      <c r="B503" s="1" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A504" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="B504" s="1" t="s">
         <v>993</v>
-      </c>
-      <c r="B504" s="1" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9414,23 +9402,23 @@
         <v>1038</v>
       </c>
       <c r="B527" s="1" t="s">
-        <v>1039</v>
+        <v>817</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A528" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B528" s="1" t="s">
         <v>1040</v>
-      </c>
-      <c r="B528" s="1" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A529" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B529" s="1" t="s">
         <v>1042</v>
-      </c>
-      <c r="B529" s="1" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9449,7 +9437,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="532" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="532" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="1" t="s">
         <v>1047</v>
       </c>
@@ -9457,7 +9445,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="533" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="533" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="1" t="s">
         <v>1049</v>
       </c>
@@ -9510,23 +9498,23 @@
         <v>1061</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>1062</v>
+        <v>703</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B540" s="1" t="s">
         <v>1063</v>
-      </c>
-      <c r="B540" s="1" t="s">
-        <v>1064</v>
       </c>
     </row>
     <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B541" s="1" t="s">
         <v>1065</v>
-      </c>
-      <c r="B541" s="1" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9734,23 +9722,23 @@
         <v>1116</v>
       </c>
       <c r="B567" s="1" t="s">
-        <v>1117</v>
+        <v>552</v>
       </c>
     </row>
     <row r="568" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B568" s="1" t="s">
         <v>1118</v>
-      </c>
-      <c r="B568" s="1" t="s">
-        <v>1119</v>
       </c>
     </row>
     <row r="569" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B569" s="1" t="s">
         <v>1120</v>
-      </c>
-      <c r="B569" s="1" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="570" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9774,24 +9762,25 @@
         <v>1125</v>
       </c>
       <c r="B572" s="1" t="s">
-        <v>1126</v>
+        <v>709</v>
       </c>
     </row>
     <row r="573" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B573" s="1" t="s">
         <v>1127</v>
-      </c>
-      <c r="B573" s="1" t="s">
-        <v>1128</v>
       </c>
     </row>
     <row r="574" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B574" s="1" t="s">
         <v>1129</v>
       </c>
-      <c r="B574" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="C574" s="5"/>
     </row>
     <row r="575" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="1" t="s">
@@ -9808,7 +9797,6 @@
       <c r="B576" s="1" t="s">
         <v>1133</v>
       </c>
-      <c r="C576" s="5"/>
     </row>
     <row r="577" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="1" t="s">
@@ -10111,23 +10099,23 @@
         <v>1208</v>
       </c>
       <c r="B614" s="1" t="s">
-        <v>1209</v>
+        <v>42</v>
       </c>
     </row>
     <row r="615" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B615" s="1" t="s">
         <v>1210</v>
-      </c>
-      <c r="B615" s="1" t="s">
-        <v>1211</v>
       </c>
     </row>
     <row r="616" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B616" s="1" t="s">
         <v>1212</v>
-      </c>
-      <c r="B616" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="617" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10263,23 +10251,23 @@
         <v>1245</v>
       </c>
       <c r="B633" s="1" t="s">
-        <v>1246</v>
+        <v>711</v>
       </c>
     </row>
     <row r="634" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B634" s="1" t="s">
         <v>1247</v>
-      </c>
-      <c r="B634" s="1" t="s">
-        <v>1248</v>
       </c>
     </row>
     <row r="635" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B635" s="1" t="s">
         <v>1249</v>
-      </c>
-      <c r="B635" s="1" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="636" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10311,23 +10299,23 @@
         <v>1256</v>
       </c>
       <c r="B639" s="1" t="s">
-        <v>1257</v>
+        <v>661</v>
       </c>
     </row>
     <row r="640" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B640" s="1" t="s">
         <v>1258</v>
-      </c>
-      <c r="B640" s="1" t="s">
-        <v>1259</v>
       </c>
     </row>
     <row r="641" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B641" s="1" t="s">
         <v>1260</v>
-      </c>
-      <c r="B641" s="1" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="642" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10346,22 +10334,8 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="644" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A644" s="1" t="s">
-        <v>1265</v>
-      </c>
-      <c r="B644" s="1" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="645" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A645" s="1" t="s">
-        <v>1267</v>
-      </c>
-      <c r="B645" s="1" t="s">
-        <v>1268</v>
-      </c>
-    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
